--- a/Filtered_By_Region/Region XII/Region XII_QRF.xlsx
+++ b/Filtered_By_Region/Region XII/Region XII_QRF.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DropdownOptions" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,9 +17,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT33"/>
+  <dimension ref="A1:AU33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -668,6 +669,11 @@
           <t>Unnamed: 45</t>
         </is>
       </c>
+      <c r="AU1" t="inlineStr">
+        <is>
+          <t>Status as of July 4, 2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -733,29 +739,27 @@
       <c r="O2" t="n">
         <v>1</v>
       </c>
-      <c r="P2" s="2" t="n">
+      <c r="P2" s="3" t="n">
         <v>45554</v>
       </c>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr">
         <is>
           <t>122-2023</t>
         </is>
       </c>
-      <c r="T2" s="2" t="n">
+      <c r="T2" s="3" t="n">
         <v>45239</v>
       </c>
-      <c r="U2" s="2" t="n">
+      <c r="U2" s="3" t="n">
         <v>45245</v>
       </c>
-      <c r="V2" s="2" t="n">
+      <c r="V2" s="3" t="n">
         <v>45261</v>
       </c>
-      <c r="W2" s="2" t="n">
+      <c r="W2" s="3" t="n">
         <v>45316</v>
       </c>
-      <c r="X2" s="2" t="n">
+      <c r="X2" s="3" t="n">
         <v>45341</v>
       </c>
       <c r="Y2" t="inlineStr">
@@ -804,14 +808,9 @@
       <c r="AL2" t="n">
         <v>0</v>
       </c>
-      <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="n">
         <v>9.24</v>
       </c>
-      <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -892,26 +891,24 @@
           <t>150CD</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
         <is>
           <t>003-2025</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" s="2" t="n">
+      <c r="T3" s="3" t="n">
         <v>45665</v>
       </c>
-      <c r="U3" s="2" t="n">
+      <c r="U3" s="3" t="n">
         <v>45665</v>
       </c>
-      <c r="V3" s="2" t="n">
+      <c r="V3" s="3" t="n">
         <v>45678</v>
       </c>
-      <c r="W3" s="2" t="n">
+      <c r="W3" s="3" t="n">
         <v>45692</v>
       </c>
-      <c r="X3" s="2" t="n">
+      <c r="X3" s="3" t="n">
         <v>45712</v>
       </c>
       <c r="Y3" t="inlineStr">
@@ -960,16 +957,11 @@
       <c r="AL3" t="n">
         <v>0</v>
       </c>
-      <c r="AM3" t="inlineStr"/>
-      <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr">
         <is>
           <t>EARTHQUAKE (Mw 6.8 Sarangani, Davao Occidental)</t>
         </is>
       </c>
-      <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="inlineStr"/>
-      <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -1050,26 +1042,24 @@
           <t>50CD</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
         <is>
           <t>004-2025- Lot 1</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" s="2" t="n">
+      <c r="T4" s="3" t="n">
         <v>45665</v>
       </c>
-      <c r="U4" s="2" t="n">
+      <c r="U4" s="3" t="n">
         <v>45665</v>
       </c>
-      <c r="V4" s="2" t="n">
+      <c r="V4" s="3" t="n">
         <v>45678</v>
       </c>
-      <c r="W4" s="2" t="n">
+      <c r="W4" s="3" t="n">
         <v>45692</v>
       </c>
-      <c r="X4" s="2" t="n">
+      <c r="X4" s="3" t="n">
         <v>45742</v>
       </c>
       <c r="Y4" t="inlineStr">
@@ -1118,16 +1108,11 @@
       <c r="AL4" t="n">
         <v>0</v>
       </c>
-      <c r="AM4" t="inlineStr"/>
-      <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr">
         <is>
           <t>EARTHQUAKE (Mw 6.8 Sarangani, Davao Occidental)</t>
         </is>
       </c>
-      <c r="AP4" t="inlineStr"/>
-      <c r="AQ4" t="inlineStr"/>
-      <c r="AR4" t="inlineStr"/>
       <c r="AS4" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -1208,26 +1193,24 @@
           <t>45CD</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
         <is>
           <t>004-2025- Lot 2</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" s="2" t="n">
+      <c r="T5" s="3" t="n">
         <v>45665</v>
       </c>
-      <c r="U5" s="2" t="n">
+      <c r="U5" s="3" t="n">
         <v>45665</v>
       </c>
-      <c r="V5" s="2" t="n">
+      <c r="V5" s="3" t="n">
         <v>45678</v>
       </c>
-      <c r="W5" s="2" t="n">
+      <c r="W5" s="3" t="n">
         <v>45692</v>
       </c>
-      <c r="X5" s="2" t="n">
+      <c r="X5" s="3" t="n">
         <v>45742</v>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1276,16 +1259,11 @@
       <c r="AL5" t="n">
         <v>0</v>
       </c>
-      <c r="AM5" t="inlineStr"/>
-      <c r="AN5" t="inlineStr"/>
       <c r="AO5" t="inlineStr">
         <is>
           <t>EARTHQUAKE (Mw 6.8 Sarangani, Davao Occidental)</t>
         </is>
       </c>
-      <c r="AP5" t="inlineStr"/>
-      <c r="AQ5" t="inlineStr"/>
-      <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -1350,7 +1328,6 @@
           <t>1- NC</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
           <t>Ongoing</t>
@@ -1359,21 +1336,11 @@
       <c r="O6" t="n">
         <v>0.55</v>
       </c>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr">
         <is>
           <t>CLA Construction Incorporated</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="n">
         <v>0</v>
       </c>
@@ -1410,16 +1377,11 @@
       <c r="AL6" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM6" t="inlineStr"/>
-      <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr">
         <is>
           <t>SHEARLINE</t>
         </is>
       </c>
-      <c r="AP6" t="inlineStr"/>
-      <c r="AQ6" t="inlineStr"/>
-      <c r="AR6" t="inlineStr"/>
       <c r="AS6" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -1484,7 +1446,6 @@
           <t>1- NC</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
           <t>Not Yet Started</t>
@@ -1493,22 +1454,14 @@
       <c r="O7" t="n">
         <v>0</v>
       </c>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" s="2" t="n">
+      <c r="T7" s="3" t="n">
         <v>45639</v>
       </c>
-      <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr">
         <is>
           <t>January 28,2025</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
           <t>FOR AWARD</t>
@@ -1550,16 +1503,11 @@
       <c r="AL7" t="n">
         <v>0</v>
       </c>
-      <c r="AM7" t="inlineStr"/>
-      <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr">
         <is>
           <t>EARTHQUAKE (Mw 6.8 Sarangani, Davao Occidental)</t>
         </is>
       </c>
-      <c r="AP7" t="inlineStr"/>
-      <c r="AQ7" t="inlineStr"/>
-      <c r="AR7" t="inlineStr"/>
       <c r="AS7" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -1635,29 +1583,26 @@
       <c r="O8" t="n">
         <v>0.0108</v>
       </c>
-      <c r="P8" s="2" t="n">
+      <c r="P8" s="3" t="n">
         <v>45830</v>
       </c>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr">
         <is>
           <t>2025I-03-005</t>
         </is>
       </c>
-      <c r="T8" s="2" t="n">
+      <c r="T8" s="3" t="n">
         <v>45639</v>
       </c>
-      <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr">
         <is>
           <t>January 28,2025</t>
         </is>
       </c>
-      <c r="W8" s="2" t="n">
+      <c r="W8" s="3" t="n">
         <v>45735</v>
       </c>
-      <c r="X8" s="2" t="n">
+      <c r="X8" s="3" t="n">
         <v>45740</v>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1706,16 +1651,11 @@
       <c r="AL8" t="n">
         <v>0</v>
       </c>
-      <c r="AM8" t="inlineStr"/>
-      <c r="AN8" t="inlineStr"/>
       <c r="AO8" t="inlineStr">
         <is>
           <t>EARTHQUAKE (Mw 6.8 Sarangani, Davao Occidental)</t>
         </is>
       </c>
-      <c r="AP8" t="inlineStr"/>
-      <c r="AQ8" t="inlineStr"/>
-      <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -1780,7 +1720,6 @@
           <t>1- R</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
           <t>Not Yet Started</t>
@@ -1789,22 +1728,14 @@
       <c r="O9" t="n">
         <v>0</v>
       </c>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" s="2" t="n">
+      <c r="T9" s="3" t="n">
         <v>45693</v>
       </c>
-      <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr">
         <is>
           <t>February 25,2025</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
           <t>FOR AWARD</t>
@@ -1846,16 +1777,11 @@
       <c r="AL9" t="n">
         <v>0</v>
       </c>
-      <c r="AM9" t="inlineStr"/>
-      <c r="AN9" t="inlineStr"/>
       <c r="AO9" t="inlineStr">
         <is>
           <t>EARTHQUAKE (Mw 6.8 Sarangani, Davao Occidental)</t>
         </is>
       </c>
-      <c r="AP9" t="inlineStr"/>
-      <c r="AQ9" t="inlineStr"/>
-      <c r="AR9" t="inlineStr"/>
       <c r="AS9" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -1931,29 +1857,26 @@
       <c r="O10" t="n">
         <v>0.0226</v>
       </c>
-      <c r="P10" s="2" t="n">
+      <c r="P10" s="3" t="n">
         <v>45823</v>
       </c>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr">
         <is>
           <t>2025I-03-001</t>
         </is>
       </c>
-      <c r="T10" s="2" t="n">
+      <c r="T10" s="3" t="n">
         <v>45639</v>
       </c>
-      <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr">
         <is>
           <t>January 28,2025</t>
         </is>
       </c>
-      <c r="W10" s="2" t="n">
+      <c r="W10" s="3" t="n">
         <v>45727</v>
       </c>
-      <c r="X10" s="2" t="n">
+      <c r="X10" s="3" t="n">
         <v>45733</v>
       </c>
       <c r="Y10" t="inlineStr">
@@ -2002,16 +1925,11 @@
       <c r="AL10" t="n">
         <v>0</v>
       </c>
-      <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="inlineStr"/>
       <c r="AO10" t="inlineStr">
         <is>
           <t>EARTHQUAKE (Mw 6.8 Sarangani, Davao Occidental)</t>
         </is>
       </c>
-      <c r="AP10" t="inlineStr"/>
-      <c r="AQ10" t="inlineStr"/>
-      <c r="AR10" t="inlineStr"/>
       <c r="AS10" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -2076,7 +1994,6 @@
           <t>1- NC</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -2085,16 +2002,6 @@
       <c r="O11" t="n">
         <v>0</v>
       </c>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
           <t>Rebid</t>
@@ -2136,16 +2043,11 @@
       <c r="AL11" t="n">
         <v>0</v>
       </c>
-      <c r="AM11" t="inlineStr"/>
-      <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr">
         <is>
           <t>EARTHQUAKE (Mw 6.8 Sarangani, Davao Occidental)</t>
         </is>
       </c>
-      <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="inlineStr"/>
-      <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -2210,7 +2112,6 @@
           <t>1- NC</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
           <t>Not Yet Started</t>
@@ -2219,22 +2120,14 @@
       <c r="O12" t="n">
         <v>0</v>
       </c>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" s="2" t="n">
+      <c r="T12" s="3" t="n">
         <v>45639</v>
       </c>
-      <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr">
         <is>
           <t>January 28,2025</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
           <t>FOR AWARD</t>
@@ -2276,16 +2169,11 @@
       <c r="AL12" t="n">
         <v>0</v>
       </c>
-      <c r="AM12" t="inlineStr"/>
-      <c r="AN12" t="inlineStr"/>
       <c r="AO12" t="inlineStr">
         <is>
           <t>EARTHQUAKE (Mw 6.8 Sarangani, Davao Occidental)</t>
         </is>
       </c>
-      <c r="AP12" t="inlineStr"/>
-      <c r="AQ12" t="inlineStr"/>
-      <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -2350,7 +2238,6 @@
           <t>1- R</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
           <t>Not Yet Started</t>
@@ -2359,22 +2246,14 @@
       <c r="O13" t="n">
         <v>0</v>
       </c>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" s="2" t="n">
+      <c r="T13" s="3" t="n">
         <v>45639</v>
       </c>
-      <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr">
         <is>
           <t>January 28,2025</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
           <t>FOR AWARD</t>
@@ -2416,16 +2295,11 @@
       <c r="AL13" t="n">
         <v>0</v>
       </c>
-      <c r="AM13" t="inlineStr"/>
-      <c r="AN13" t="inlineStr"/>
       <c r="AO13" t="inlineStr">
         <is>
           <t>EARTHQUAKE (Mw 6.8 Sarangani, Davao Occidental)</t>
         </is>
       </c>
-      <c r="AP13" t="inlineStr"/>
-      <c r="AQ13" t="inlineStr"/>
-      <c r="AR13" t="inlineStr"/>
       <c r="AS13" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -2490,7 +2364,6 @@
           <t>1- R</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
           <t>Not Yet Started</t>
@@ -2499,22 +2372,14 @@
       <c r="O14" t="n">
         <v>0</v>
       </c>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" s="2" t="n">
+      <c r="T14" s="3" t="n">
         <v>45639</v>
       </c>
-      <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr">
         <is>
           <t>January 28,2025</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
           <t>FOR AWARD</t>
@@ -2556,16 +2421,11 @@
       <c r="AL14" t="n">
         <v>0</v>
       </c>
-      <c r="AM14" t="inlineStr"/>
-      <c r="AN14" t="inlineStr"/>
       <c r="AO14" t="inlineStr">
         <is>
           <t>EARTHQUAKE (Mw 6.8 Sarangani, Davao Occidental)</t>
         </is>
       </c>
-      <c r="AP14" t="inlineStr"/>
-      <c r="AQ14" t="inlineStr"/>
-      <c r="AR14" t="inlineStr"/>
       <c r="AS14" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -2630,7 +2490,6 @@
           <t>1- R</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
           <t>Not Yet Started</t>
@@ -2639,22 +2498,14 @@
       <c r="O15" t="n">
         <v>0</v>
       </c>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" s="2" t="n">
+      <c r="T15" s="3" t="n">
         <v>45693</v>
       </c>
-      <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr">
         <is>
           <t>February 25,2025</t>
         </is>
       </c>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
           <t>FOR AWARD</t>
@@ -2696,16 +2547,11 @@
       <c r="AL15" t="n">
         <v>0</v>
       </c>
-      <c r="AM15" t="inlineStr"/>
-      <c r="AN15" t="inlineStr"/>
       <c r="AO15" t="inlineStr">
         <is>
           <t>EARTHQUAKE (Mw 6.8 Sarangani, Davao Occidental)</t>
         </is>
       </c>
-      <c r="AP15" t="inlineStr"/>
-      <c r="AQ15" t="inlineStr"/>
-      <c r="AR15" t="inlineStr"/>
       <c r="AS15" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -2770,7 +2616,6 @@
           <t>1- R</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -2779,18 +2624,9 @@
       <c r="O16" t="n">
         <v>0</v>
       </c>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" s="2" t="n">
+      <c r="T16" s="3" t="n">
         <v>45762</v>
       </c>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
           <t>BID EVALUATION</t>
@@ -2832,16 +2668,11 @@
       <c r="AL16" t="n">
         <v>0</v>
       </c>
-      <c r="AM16" t="inlineStr"/>
-      <c r="AN16" t="inlineStr"/>
       <c r="AO16" t="inlineStr">
         <is>
           <t>EARTHQUAKE (Mw 6.8 Sarangani, Davao Occidental)</t>
         </is>
       </c>
-      <c r="AP16" t="inlineStr"/>
-      <c r="AQ16" t="inlineStr"/>
-      <c r="AR16" t="inlineStr"/>
       <c r="AS16" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -2917,29 +2748,26 @@
       <c r="O17" t="n">
         <v>0.0203</v>
       </c>
-      <c r="P17" s="2" t="n">
+      <c r="P17" s="3" t="n">
         <v>46007</v>
       </c>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr">
         <is>
           <t>2025I-03-003</t>
         </is>
       </c>
-      <c r="T17" s="2" t="n">
+      <c r="T17" s="3" t="n">
         <v>45639</v>
       </c>
-      <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr">
         <is>
           <t>January 28,2025</t>
         </is>
       </c>
-      <c r="W17" s="2" t="n">
+      <c r="W17" s="3" t="n">
         <v>45727</v>
       </c>
-      <c r="X17" s="2" t="n">
+      <c r="X17" s="3" t="n">
         <v>45737</v>
       </c>
       <c r="Y17" t="inlineStr">
@@ -2988,16 +2816,11 @@
       <c r="AL17" t="n">
         <v>0</v>
       </c>
-      <c r="AM17" t="inlineStr"/>
-      <c r="AN17" t="inlineStr"/>
       <c r="AO17" t="inlineStr">
         <is>
           <t>EARTHQUAKE (Mw 6.8 Sarangani, Davao Occidental)</t>
         </is>
       </c>
-      <c r="AP17" t="inlineStr"/>
-      <c r="AQ17" t="inlineStr"/>
-      <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -3062,7 +2885,6 @@
           <t>1- NC</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
           <t>Not Yet Started</t>
@@ -3071,22 +2893,14 @@
       <c r="O18" t="n">
         <v>0</v>
       </c>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" s="2" t="n">
+      <c r="T18" s="3" t="n">
         <v>45639</v>
       </c>
-      <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr">
         <is>
           <t>January 28,2025</t>
         </is>
       </c>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
           <t>FOR AWARD</t>
@@ -3128,16 +2942,11 @@
       <c r="AL18" t="n">
         <v>0</v>
       </c>
-      <c r="AM18" t="inlineStr"/>
-      <c r="AN18" t="inlineStr"/>
       <c r="AO18" t="inlineStr">
         <is>
           <t>EARTHQUAKE (Mw 6.8 Sarangani, Davao Occidental)</t>
         </is>
       </c>
-      <c r="AP18" t="inlineStr"/>
-      <c r="AQ18" t="inlineStr"/>
-      <c r="AR18" t="inlineStr"/>
       <c r="AS18" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -3202,7 +3011,6 @@
           <t>1- R</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -3211,18 +3019,9 @@
       <c r="O19" t="n">
         <v>0</v>
       </c>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" s="2" t="n">
+      <c r="V19" s="3" t="n">
         <v>45755</v>
       </c>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
           <t>BID EVALUATION</t>
@@ -3264,16 +3063,11 @@
       <c r="AL19" t="n">
         <v>0</v>
       </c>
-      <c r="AM19" t="inlineStr"/>
-      <c r="AN19" t="inlineStr"/>
       <c r="AO19" t="inlineStr">
         <is>
           <t>EARTHQUAKE (Mw 6.8 Sarangani, Davao Occidental)</t>
         </is>
       </c>
-      <c r="AP19" t="inlineStr"/>
-      <c r="AQ19" t="inlineStr"/>
-      <c r="AR19" t="inlineStr"/>
       <c r="AS19" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -3338,7 +3132,6 @@
           <t>1- R</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -3347,18 +3140,9 @@
       <c r="O20" t="n">
         <v>0</v>
       </c>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" s="2" t="n">
+      <c r="V20" s="3" t="n">
         <v>45762</v>
       </c>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
           <t>BID EVALUATION</t>
@@ -3400,16 +3184,11 @@
       <c r="AL20" t="n">
         <v>0</v>
       </c>
-      <c r="AM20" t="inlineStr"/>
-      <c r="AN20" t="inlineStr"/>
       <c r="AO20" t="inlineStr">
         <is>
           <t>EARTHQUAKE (Mw 6.8 Sarangani, Davao Occidental)</t>
         </is>
       </c>
-      <c r="AP20" t="inlineStr"/>
-      <c r="AQ20" t="inlineStr"/>
-      <c r="AR20" t="inlineStr"/>
       <c r="AS20" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -3474,7 +3253,6 @@
           <t>1- R</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -3483,18 +3261,9 @@
       <c r="O21" t="n">
         <v>0</v>
       </c>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" s="2" t="n">
+      <c r="V21" s="3" t="n">
         <v>45762</v>
       </c>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
           <t>BID EVALUATION</t>
@@ -3536,16 +3305,11 @@
       <c r="AL21" t="n">
         <v>0</v>
       </c>
-      <c r="AM21" t="inlineStr"/>
-      <c r="AN21" t="inlineStr"/>
       <c r="AO21" t="inlineStr">
         <is>
           <t>EARTHQUAKE (Mw 6.8 Sarangani, Davao Occidental)</t>
         </is>
       </c>
-      <c r="AP21" t="inlineStr"/>
-      <c r="AQ21" t="inlineStr"/>
-      <c r="AR21" t="inlineStr"/>
       <c r="AS21" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -3621,29 +3385,26 @@
       <c r="O22" t="n">
         <v>0.0227</v>
       </c>
-      <c r="P22" s="2" t="n">
+      <c r="P22" s="3" t="n">
         <v>45823</v>
       </c>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr">
         <is>
           <t>2025I-03-002</t>
         </is>
       </c>
-      <c r="T22" s="2" t="n">
+      <c r="T22" s="3" t="n">
         <v>45639</v>
       </c>
-      <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr">
         <is>
           <t>January 28,2025</t>
         </is>
       </c>
-      <c r="W22" s="2" t="n">
+      <c r="W22" s="3" t="n">
         <v>45727</v>
       </c>
-      <c r="X22" s="2" t="n">
+      <c r="X22" s="3" t="n">
         <v>45733</v>
       </c>
       <c r="Y22" t="inlineStr">
@@ -3692,16 +3453,11 @@
       <c r="AL22" t="n">
         <v>0</v>
       </c>
-      <c r="AM22" t="inlineStr"/>
-      <c r="AN22" t="inlineStr"/>
       <c r="AO22" t="inlineStr">
         <is>
           <t>EARTHQUAKE (Mw 6.8 Sarangani, Davao Occidental)</t>
         </is>
       </c>
-      <c r="AP22" t="inlineStr"/>
-      <c r="AQ22" t="inlineStr"/>
-      <c r="AR22" t="inlineStr"/>
       <c r="AS22" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -3766,7 +3522,6 @@
           <t>1- R</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -3775,18 +3530,9 @@
       <c r="O23" t="n">
         <v>0</v>
       </c>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" s="2" t="n">
+      <c r="V23" s="3" t="n">
         <v>45755</v>
       </c>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
           <t>BID EVALUATION</t>
@@ -3828,16 +3574,11 @@
       <c r="AL23" t="n">
         <v>0</v>
       </c>
-      <c r="AM23" t="inlineStr"/>
-      <c r="AN23" t="inlineStr"/>
       <c r="AO23" t="inlineStr">
         <is>
           <t>EARTHQUAKE (Mw 6.8 Sarangani, Davao Occidental)</t>
         </is>
       </c>
-      <c r="AP23" t="inlineStr"/>
-      <c r="AQ23" t="inlineStr"/>
-      <c r="AR23" t="inlineStr"/>
       <c r="AS23" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -3913,29 +3654,26 @@
       <c r="O24" t="n">
         <v>0.2182</v>
       </c>
-      <c r="P24" s="2" t="n">
+      <c r="P24" s="3" t="n">
         <v>45917</v>
       </c>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr">
         <is>
           <t>2025I-03-004</t>
         </is>
       </c>
-      <c r="T24" s="2" t="n">
+      <c r="T24" s="3" t="n">
         <v>45639</v>
       </c>
-      <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr">
         <is>
           <t>January 28,2025</t>
         </is>
       </c>
-      <c r="W24" s="2" t="n">
+      <c r="W24" s="3" t="n">
         <v>45727</v>
       </c>
-      <c r="X24" s="2" t="n">
+      <c r="X24" s="3" t="n">
         <v>45737</v>
       </c>
       <c r="Y24" t="inlineStr">
@@ -3984,16 +3722,11 @@
       <c r="AL24" t="n">
         <v>0</v>
       </c>
-      <c r="AM24" t="inlineStr"/>
-      <c r="AN24" t="inlineStr"/>
       <c r="AO24" t="inlineStr">
         <is>
           <t>EARTHQUAKE (Mw 6.8 Sarangani, Davao Occidental)</t>
         </is>
       </c>
-      <c r="AP24" t="inlineStr"/>
-      <c r="AQ24" t="inlineStr"/>
-      <c r="AR24" t="inlineStr"/>
       <c r="AS24" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -4058,7 +3791,6 @@
           <t>1- R</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
           <t>Not Yet Started</t>
@@ -4067,22 +3799,14 @@
       <c r="O25" t="n">
         <v>0</v>
       </c>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" s="2" t="n">
+      <c r="T25" s="3" t="n">
         <v>45693</v>
       </c>
-      <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr">
         <is>
           <t>February 25,2025</t>
         </is>
       </c>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
           <t>FOR AWARD</t>
@@ -4124,16 +3848,11 @@
       <c r="AL25" t="n">
         <v>0</v>
       </c>
-      <c r="AM25" t="inlineStr"/>
-      <c r="AN25" t="inlineStr"/>
       <c r="AO25" t="inlineStr">
         <is>
           <t>EARTHQUAKE (Mw 6.8 Sarangani, Davao Occidental)</t>
         </is>
       </c>
-      <c r="AP25" t="inlineStr"/>
-      <c r="AQ25" t="inlineStr"/>
-      <c r="AR25" t="inlineStr"/>
       <c r="AS25" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -4198,7 +3917,6 @@
           <t>1- R</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -4207,18 +3925,9 @@
       <c r="O26" t="n">
         <v>0</v>
       </c>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" s="2" t="n">
+      <c r="V26" s="3" t="n">
         <v>45762</v>
       </c>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
           <t>BID EVALUATION</t>
@@ -4260,16 +3969,11 @@
       <c r="AL26" t="n">
         <v>0</v>
       </c>
-      <c r="AM26" t="inlineStr"/>
-      <c r="AN26" t="inlineStr"/>
       <c r="AO26" t="inlineStr">
         <is>
           <t>EARTHQUAKE (Mw 6.8 Sarangani, Davao Occidental)</t>
         </is>
       </c>
-      <c r="AP26" t="inlineStr"/>
-      <c r="AQ26" t="inlineStr"/>
-      <c r="AR26" t="inlineStr"/>
       <c r="AS26" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -4345,17 +4049,6 @@
       <c r="O27" t="n">
         <v>0</v>
       </c>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="n">
         <v>0</v>
       </c>
@@ -4392,16 +4085,11 @@
       <c r="AL27" t="n">
         <v>0</v>
       </c>
-      <c r="AM27" t="inlineStr"/>
-      <c r="AN27" t="inlineStr"/>
       <c r="AO27" t="inlineStr">
         <is>
           <t>EARTHQUAKE (Mw 6.8 Sarangani, Davao Occidental)</t>
         </is>
       </c>
-      <c r="AP27" t="inlineStr"/>
-      <c r="AQ27" t="inlineStr"/>
-      <c r="AR27" t="inlineStr"/>
       <c r="AS27" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -4477,17 +4165,6 @@
       <c r="O28" t="n">
         <v>0</v>
       </c>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="n">
         <v>0</v>
       </c>
@@ -4524,16 +4201,11 @@
       <c r="AL28" t="n">
         <v>0</v>
       </c>
-      <c r="AM28" t="inlineStr"/>
-      <c r="AN28" t="inlineStr"/>
       <c r="AO28" t="inlineStr">
         <is>
           <t>EARTHQUAKE (Mw 6.8 Sarangani, Davao Occidental)</t>
         </is>
       </c>
-      <c r="AP28" t="inlineStr"/>
-      <c r="AQ28" t="inlineStr"/>
-      <c r="AR28" t="inlineStr"/>
       <c r="AS28" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -4609,17 +4281,6 @@
       <c r="O29" t="n">
         <v>0.08</v>
       </c>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="n">
         <v>0</v>
       </c>
@@ -4656,16 +4317,11 @@
       <c r="AL29" t="n">
         <v>0.08</v>
       </c>
-      <c r="AM29" t="inlineStr"/>
-      <c r="AN29" t="inlineStr"/>
       <c r="AO29" t="inlineStr">
         <is>
           <t>EARTHQUAKE (Mw 6.8 Sarangani, Davao Occidental)</t>
         </is>
       </c>
-      <c r="AP29" t="inlineStr"/>
-      <c r="AQ29" t="inlineStr"/>
-      <c r="AR29" t="inlineStr"/>
       <c r="AS29" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -4741,17 +4397,6 @@
       <c r="O30" t="n">
         <v>0.06</v>
       </c>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="n">
         <v>0</v>
       </c>
@@ -4788,16 +4433,11 @@
       <c r="AL30" t="n">
         <v>0.06</v>
       </c>
-      <c r="AM30" t="inlineStr"/>
-      <c r="AN30" t="inlineStr"/>
       <c r="AO30" t="inlineStr">
         <is>
           <t>EARTHQUAKE (Mw 6.8 Sarangani, Davao Occidental)</t>
         </is>
       </c>
-      <c r="AP30" t="inlineStr"/>
-      <c r="AQ30" t="inlineStr"/>
-      <c r="AR30" t="inlineStr"/>
       <c r="AS30" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -4873,17 +4513,6 @@
       <c r="O31" t="n">
         <v>0.02</v>
       </c>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="n">
         <v>0</v>
       </c>
@@ -4920,16 +4549,11 @@
       <c r="AL31" t="n">
         <v>0.02</v>
       </c>
-      <c r="AM31" t="inlineStr"/>
-      <c r="AN31" t="inlineStr"/>
       <c r="AO31" t="inlineStr">
         <is>
           <t>EARTHQUAKE (Mw 6.8 Sarangani, Davao Occidental)</t>
         </is>
       </c>
-      <c r="AP31" t="inlineStr"/>
-      <c r="AQ31" t="inlineStr"/>
-      <c r="AR31" t="inlineStr"/>
       <c r="AS31" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -5005,17 +4629,6 @@
       <c r="O32" t="n">
         <v>0.05</v>
       </c>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="n">
         <v>0</v>
       </c>
@@ -5052,16 +4665,11 @@
       <c r="AL32" t="n">
         <v>0.05</v>
       </c>
-      <c r="AM32" t="inlineStr"/>
-      <c r="AN32" t="inlineStr"/>
       <c r="AO32" t="inlineStr">
         <is>
           <t>EARTHQUAKE (Mw 6.8 Sarangani, Davao Occidental)</t>
         </is>
       </c>
-      <c r="AP32" t="inlineStr"/>
-      <c r="AQ32" t="inlineStr"/>
-      <c r="AR32" t="inlineStr"/>
       <c r="AS32" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -5137,10 +4745,10 @@
       <c r="O33" t="n">
         <v>1</v>
       </c>
-      <c r="P33" s="2" t="n">
+      <c r="P33" s="3" t="n">
         <v>45761</v>
       </c>
-      <c r="Q33" s="2" t="n">
+      <c r="Q33" s="3" t="n">
         <v>45740</v>
       </c>
       <c r="R33" t="inlineStr">
@@ -5153,19 +4761,19 @@
           <t>24-11-028</t>
         </is>
       </c>
-      <c r="T33" s="2" t="n">
+      <c r="T33" s="3" t="n">
         <v>45608</v>
       </c>
-      <c r="U33" s="2" t="n">
+      <c r="U33" s="3" t="n">
         <v>45616</v>
       </c>
-      <c r="V33" s="2" t="n">
+      <c r="V33" s="3" t="n">
         <v>45628</v>
       </c>
-      <c r="W33" s="2" t="n">
+      <c r="W33" s="3" t="n">
         <v>45636</v>
       </c>
-      <c r="X33" s="2" t="n">
+      <c r="X33" s="3" t="n">
         <v>45653</v>
       </c>
       <c r="Y33" t="inlineStr">
@@ -5173,7 +4781,6 @@
           <t>JV Constech</t>
         </is>
       </c>
-      <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="n">
         <v>0</v>
       </c>
@@ -5210,7 +4817,6 @@
       <c r="AL33" t="n">
         <v>0</v>
       </c>
-      <c r="AM33" t="inlineStr"/>
       <c r="AN33" t="n">
         <v>4.25</v>
       </c>
@@ -5219,9 +4825,6 @@
           <t>EARTHQUAKE (Mw 6.8 Sarangani, Davao Occidental)</t>
         </is>
       </c>
-      <c r="AP33" t="inlineStr"/>
-      <c r="AQ33" t="inlineStr"/>
-      <c r="AR33" t="inlineStr"/>
       <c r="AS33" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -5230,6 +4833,79 @@
       <c r="AT33" t="inlineStr">
         <is>
           <t>Completed</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="AU2:AU33" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0% - 10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>11% - 25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>26% - 50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>51% - 75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>76% - 90%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>91% - 99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>

--- a/Filtered_By_Region/Region XII/Region XII_QRF.xlsx
+++ b/Filtered_By_Region/Region XII/Region XII_QRF.xlsx
@@ -32,12 +32,18 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -58,15 +64,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -435,2951 +447,2981 @@
   <dimension ref="A1:AA33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="21" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="45" customWidth="1" min="5" max="5"/>
+    <col width="33" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="23" customWidth="1" min="9" max="9"/>
+    <col width="22" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="17" customWidth="1" min="13" max="13"/>
+    <col width="19" customWidth="1" min="14" max="14"/>
+    <col width="26" customWidth="1" min="15" max="15"/>
+    <col width="26" customWidth="1" min="16" max="16"/>
+    <col width="27" customWidth="1" min="17" max="17"/>
+    <col width="17" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="31" customWidth="1" min="20" max="20"/>
+    <col width="27" customWidth="1" min="21" max="21"/>
+    <col width="21" customWidth="1" min="22" max="22"/>
+    <col width="33" customWidth="1" min="23" max="23"/>
+    <col width="31" customWidth="1" min="24" max="24"/>
+    <col width="41" customWidth="1" min="25" max="25"/>
+    <col width="40" customWidth="1" min="26" max="26"/>
+    <col width="28" customWidth="1" min="27" max="27"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>CATEGORY</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>REGION</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>DIVISION</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL ID</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL NAME</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>MUNICIPALITY</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>LD</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>TOTAL NO. OF SITES</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>TOTAL PHYSICAL TARGET</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>SCOPE OF WORK</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>PROJECT ALLOCATION</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>BATCH</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>CONTRACT AMOUNT</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>PERCENTAGE OF COMPLETION</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Target Completion Date </t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" s="3" t="inlineStr">
         <is>
           <t>Actual Date of Completion</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" s="3" t="inlineStr">
         <is>
           <t>Project ID</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" s="3" t="inlineStr">
         <is>
           <t>Contract ID</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Invitation to Bid</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" s="3" t="inlineStr">
         <is>
           <t>Pre-Submission Conference</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" s="3" t="inlineStr">
         <is>
           <t>Bid Opening</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Resolution to Award</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Notice to Proceed</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" s="3" t="inlineStr">
         <is>
           <t>Name of Contractor</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" s="3" t="inlineStr">
         <is>
           <t>Other Remarks</t>
         </is>
       </c>
-      <c r="AA1" s="3" t="inlineStr">
-        <is>
-          <t>Status as of July 4, 2025</t>
+      <c r="AA1" s="4" t="inlineStr">
+        <is>
+          <t>Status as of July 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>North Cotabato</t>
         </is>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="5" t="n">
         <v>130297</v>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>Pigcawayan CES</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>PIGKAWAYAN</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H2" s="4" t="n">
+      <c r="H2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I2" s="4" t="n">
+      <c r="I2" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="J2" s="4" t="inlineStr">
+      <c r="J2" s="5" t="inlineStr">
         <is>
           <t>1STY6CL</t>
         </is>
       </c>
-      <c r="K2" s="4" t="n">
+      <c r="K2" s="5" t="n">
         <v>16500000</v>
       </c>
-      <c r="L2" s="4" t="inlineStr">
+      <c r="L2" s="5" t="inlineStr">
         <is>
           <t>2- NC</t>
         </is>
       </c>
-      <c r="M2" s="4" t="n">
+      <c r="M2" s="5" t="n">
         <v>13497000</v>
       </c>
-      <c r="N2" s="4" t="inlineStr">
+      <c r="N2" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O2" s="4" t="n">
+      <c r="O2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P2" s="5" t="n">
+      <c r="P2" s="6" t="n">
         <v>45554</v>
       </c>
-      <c r="Q2" s="4" t="inlineStr"/>
-      <c r="R2" s="4" t="inlineStr"/>
-      <c r="S2" s="4" t="inlineStr">
+      <c r="Q2" s="5" t="inlineStr"/>
+      <c r="R2" s="5" t="inlineStr"/>
+      <c r="S2" s="5" t="inlineStr">
         <is>
           <t>122-2023</t>
         </is>
       </c>
-      <c r="T2" s="5" t="n">
+      <c r="T2" s="6" t="n">
         <v>45239</v>
       </c>
-      <c r="U2" s="5" t="n">
+      <c r="U2" s="6" t="n">
         <v>45245</v>
       </c>
-      <c r="V2" s="5" t="n">
+      <c r="V2" s="6" t="n">
         <v>45261</v>
       </c>
-      <c r="W2" s="5" t="n">
+      <c r="W2" s="6" t="n">
         <v>45316</v>
       </c>
-      <c r="X2" s="5" t="n">
+      <c r="X2" s="6" t="n">
         <v>45341</v>
       </c>
-      <c r="Y2" s="4" t="inlineStr">
+      <c r="Y2" s="5" t="inlineStr">
         <is>
           <t>CABS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z2" s="4" t="inlineStr">
+      <c r="Z2" s="5" t="inlineStr">
         <is>
           <t>Completed subject for final inspection</t>
         </is>
       </c>
-      <c r="AA2" s="4" t="n"/>
+      <c r="AA2" s="7" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>General Santos City</t>
         </is>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="5" t="n">
         <v>131278</v>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="5" t="inlineStr">
         <is>
           <t>Labangal Elementary School</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>GENERAL SANTOS CITY (DADIANGAS)</t>
         </is>
       </c>
-      <c r="G3" s="4" t="inlineStr">
+      <c r="G3" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H3" s="4" t="n">
+      <c r="H3" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I3" s="4" t="n">
+      <c r="I3" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J3" s="4" t="inlineStr">
+      <c r="J3" s="5" t="inlineStr">
         <is>
           <t>1STY4CL</t>
         </is>
       </c>
-      <c r="K3" s="4" t="n">
+      <c r="K3" s="5" t="n">
         <v>11239295.18</v>
       </c>
-      <c r="L3" s="4" t="inlineStr">
+      <c r="L3" s="5" t="inlineStr">
         <is>
           <t>1- NC</t>
         </is>
       </c>
-      <c r="M3" s="4" t="n">
+      <c r="M3" s="5" t="n">
         <v>11239295.18</v>
       </c>
-      <c r="N3" s="4" t="inlineStr">
+      <c r="N3" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="O3" s="4" t="n">
+      <c r="O3" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="P3" s="4" t="inlineStr">
+      <c r="P3" s="5" t="inlineStr">
         <is>
           <t>150CD</t>
         </is>
       </c>
-      <c r="Q3" s="4" t="inlineStr"/>
-      <c r="R3" s="4" t="inlineStr">
+      <c r="Q3" s="5" t="inlineStr"/>
+      <c r="R3" s="5" t="inlineStr">
         <is>
           <t>003-2025</t>
         </is>
       </c>
-      <c r="S3" s="4" t="inlineStr"/>
-      <c r="T3" s="5" t="n">
+      <c r="S3" s="5" t="inlineStr"/>
+      <c r="T3" s="6" t="n">
         <v>45665</v>
       </c>
-      <c r="U3" s="5" t="n">
+      <c r="U3" s="6" t="n">
         <v>45665</v>
       </c>
-      <c r="V3" s="5" t="n">
+      <c r="V3" s="6" t="n">
         <v>45678</v>
       </c>
-      <c r="W3" s="5" t="n">
+      <c r="W3" s="6" t="n">
         <v>45692</v>
       </c>
-      <c r="X3" s="5" t="n">
+      <c r="X3" s="6" t="n">
         <v>45712</v>
       </c>
-      <c r="Y3" s="4" t="inlineStr">
+      <c r="Y3" s="5" t="inlineStr">
         <is>
           <t>LEIGHCHEEN CONSTRUCTION CORPORATION</t>
         </is>
       </c>
-      <c r="Z3" s="4" t="inlineStr">
+      <c r="Z3" s="5" t="inlineStr">
         <is>
           <t>On-Going Construction</t>
         </is>
       </c>
-      <c r="AA3" s="4" t="n"/>
+      <c r="AA3" s="7" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>General Santos City</t>
         </is>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="5" t="n">
         <v>131314</v>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="5" t="inlineStr">
         <is>
           <t>Pedro Acharon Sr. Central Elementary School</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>GENERAL SANTOS CITY (DADIANGAS)</t>
         </is>
       </c>
-      <c r="G4" s="4" t="inlineStr">
+      <c r="G4" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H4" s="4" t="n">
+      <c r="H4" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I4" s="4" t="n">
+      <c r="I4" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J4" s="4" t="inlineStr">
+      <c r="J4" s="5" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K4" s="4" t="n">
+      <c r="K4" s="5" t="n">
         <v>348546.5</v>
       </c>
-      <c r="L4" s="4" t="inlineStr">
+      <c r="L4" s="5" t="inlineStr">
         <is>
           <t>1- R</t>
         </is>
       </c>
-      <c r="M4" s="4" t="n">
+      <c r="M4" s="5" t="n">
         <v>348546.5</v>
       </c>
-      <c r="N4" s="4" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="O4" s="4" t="n">
+      <c r="O4" s="5" t="n">
         <v>0.75</v>
       </c>
-      <c r="P4" s="4" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>50CD</t>
         </is>
       </c>
-      <c r="Q4" s="4" t="inlineStr"/>
-      <c r="R4" s="4" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr"/>
+      <c r="R4" s="5" t="inlineStr">
         <is>
           <t>004-2025- Lot 1</t>
         </is>
       </c>
-      <c r="S4" s="4" t="inlineStr"/>
-      <c r="T4" s="5" t="n">
+      <c r="S4" s="5" t="inlineStr"/>
+      <c r="T4" s="6" t="n">
         <v>45665</v>
       </c>
-      <c r="U4" s="5" t="n">
+      <c r="U4" s="6" t="n">
         <v>45665</v>
       </c>
-      <c r="V4" s="5" t="n">
+      <c r="V4" s="6" t="n">
         <v>45678</v>
       </c>
-      <c r="W4" s="5" t="n">
+      <c r="W4" s="6" t="n">
         <v>45692</v>
       </c>
-      <c r="X4" s="5" t="n">
+      <c r="X4" s="6" t="n">
         <v>45742</v>
       </c>
-      <c r="Y4" s="4" t="inlineStr">
+      <c r="Y4" s="5" t="inlineStr">
         <is>
           <t>BEBCON BUILDERS AND SUPPLY</t>
         </is>
       </c>
-      <c r="Z4" s="4" t="inlineStr">
+      <c r="Z4" s="5" t="inlineStr">
         <is>
           <t>On-Going Construction</t>
         </is>
       </c>
-      <c r="AA4" s="4" t="n"/>
+      <c r="AA4" s="7" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>General Santos City</t>
         </is>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="5" t="n">
         <v>304637</v>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E5" s="5" t="inlineStr">
         <is>
           <t>Datu Andiam Manza National High School</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr">
         <is>
           <t>GENERAL SANTOS CITY (DADIANGAS)</t>
         </is>
       </c>
-      <c r="G5" s="4" t="inlineStr">
+      <c r="G5" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H5" s="4" t="n">
+      <c r="H5" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I5" s="4" t="n">
+      <c r="I5" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="J5" s="4" t="inlineStr">
+      <c r="J5" s="5" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K5" s="4" t="n">
+      <c r="K5" s="5" t="n">
         <v>190230.76</v>
       </c>
-      <c r="L5" s="4" t="inlineStr">
+      <c r="L5" s="5" t="inlineStr">
         <is>
           <t>1- R</t>
         </is>
       </c>
-      <c r="M5" s="4" t="n">
+      <c r="M5" s="5" t="n">
         <v>190230.76</v>
       </c>
-      <c r="N5" s="4" t="inlineStr">
+      <c r="N5" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="O5" s="4" t="n">
+      <c r="O5" s="5" t="n">
         <v>0.85</v>
       </c>
-      <c r="P5" s="4" t="inlineStr">
+      <c r="P5" s="5" t="inlineStr">
         <is>
           <t>45CD</t>
         </is>
       </c>
-      <c r="Q5" s="4" t="inlineStr"/>
-      <c r="R5" s="4" t="inlineStr">
+      <c r="Q5" s="5" t="inlineStr"/>
+      <c r="R5" s="5" t="inlineStr">
         <is>
           <t>004-2025- Lot 2</t>
         </is>
       </c>
-      <c r="S5" s="4" t="inlineStr"/>
-      <c r="T5" s="5" t="n">
+      <c r="S5" s="5" t="inlineStr"/>
+      <c r="T5" s="6" t="n">
         <v>45665</v>
       </c>
-      <c r="U5" s="5" t="n">
+      <c r="U5" s="6" t="n">
         <v>45665</v>
       </c>
-      <c r="V5" s="5" t="n">
+      <c r="V5" s="6" t="n">
         <v>45678</v>
       </c>
-      <c r="W5" s="5" t="n">
+      <c r="W5" s="6" t="n">
         <v>45692</v>
       </c>
-      <c r="X5" s="5" t="n">
+      <c r="X5" s="6" t="n">
         <v>45742</v>
       </c>
-      <c r="Y5" s="4" t="inlineStr">
+      <c r="Y5" s="5" t="inlineStr">
         <is>
           <t>BEBCON BUILDERS AND SUPPLY</t>
         </is>
       </c>
-      <c r="Z5" s="4" t="inlineStr">
+      <c r="Z5" s="5" t="inlineStr">
         <is>
           <t>On-Going Construction</t>
         </is>
       </c>
-      <c r="AA5" s="4" t="n"/>
+      <c r="AA5" s="7" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>North Cotabato</t>
         </is>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="5" t="n">
         <v>130197</v>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E6" s="5" t="inlineStr">
         <is>
           <t>DILANGALEN CENTRAL ELEMENTARY SCHOOL</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>MIDSAYAP</t>
         </is>
       </c>
-      <c r="G6" s="4" t="inlineStr">
+      <c r="G6" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H6" s="4" t="n">
+      <c r="H6" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I6" s="4" t="n">
+      <c r="I6" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J6" s="4" t="inlineStr">
+      <c r="J6" s="5" t="inlineStr">
         <is>
           <t>1STY3CL</t>
         </is>
       </c>
-      <c r="K6" s="4" t="n">
+      <c r="K6" s="5" t="n">
         <v>11342818.56</v>
       </c>
-      <c r="L6" s="4" t="inlineStr">
+      <c r="L6" s="5" t="inlineStr">
         <is>
           <t>1- NC</t>
         </is>
       </c>
-      <c r="M6" s="4" t="inlineStr"/>
-      <c r="N6" s="4" t="inlineStr">
+      <c r="M6" s="5" t="inlineStr"/>
+      <c r="N6" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="O6" s="4" t="n">
+      <c r="O6" s="5" t="n">
         <v>0.55</v>
       </c>
-      <c r="P6" s="4" t="inlineStr"/>
-      <c r="Q6" s="4" t="inlineStr"/>
-      <c r="R6" s="4" t="inlineStr"/>
-      <c r="S6" s="4" t="inlineStr"/>
-      <c r="T6" s="4" t="inlineStr"/>
-      <c r="U6" s="4" t="inlineStr"/>
-      <c r="V6" s="4" t="inlineStr"/>
-      <c r="W6" s="4" t="inlineStr"/>
-      <c r="X6" s="4" t="inlineStr"/>
-      <c r="Y6" s="4" t="inlineStr">
+      <c r="P6" s="5" t="inlineStr"/>
+      <c r="Q6" s="5" t="inlineStr"/>
+      <c r="R6" s="5" t="inlineStr"/>
+      <c r="S6" s="5" t="inlineStr"/>
+      <c r="T6" s="5" t="inlineStr"/>
+      <c r="U6" s="5" t="inlineStr"/>
+      <c r="V6" s="5" t="inlineStr"/>
+      <c r="W6" s="5" t="inlineStr"/>
+      <c r="X6" s="5" t="inlineStr"/>
+      <c r="Y6" s="5" t="inlineStr">
         <is>
           <t>CLA Construction Incorporated</t>
         </is>
       </c>
-      <c r="Z6" s="4" t="inlineStr"/>
-      <c r="AA6" s="4" t="n"/>
+      <c r="Z6" s="5" t="inlineStr"/>
+      <c r="AA6" s="7" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>Sarangani</t>
         </is>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="5" t="n">
         <v>130443</v>
       </c>
-      <c r="E7" s="4" t="inlineStr">
+      <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Baliton Elementary School</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t>GLAN</t>
         </is>
       </c>
-      <c r="G7" s="4" t="inlineStr">
+      <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H7" s="4" t="n">
+      <c r="H7" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I7" s="4" t="n">
+      <c r="I7" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J7" s="4" t="inlineStr">
+      <c r="J7" s="5" t="inlineStr">
         <is>
           <t>1STY2CL</t>
         </is>
       </c>
-      <c r="K7" s="4" t="n">
+      <c r="K7" s="5" t="n">
         <v>4892845.52</v>
       </c>
-      <c r="L7" s="4" t="inlineStr">
+      <c r="L7" s="5" t="inlineStr">
         <is>
           <t>1- NC</t>
         </is>
       </c>
-      <c r="M7" s="4" t="inlineStr"/>
-      <c r="N7" s="4" t="inlineStr">
+      <c r="M7" s="5" t="inlineStr"/>
+      <c r="N7" s="5" t="inlineStr">
         <is>
           <t>Not Yet Started</t>
         </is>
       </c>
-      <c r="O7" s="4" t="n">
+      <c r="O7" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P7" s="4" t="inlineStr"/>
-      <c r="Q7" s="4" t="inlineStr"/>
-      <c r="R7" s="4" t="inlineStr"/>
-      <c r="S7" s="4" t="inlineStr"/>
-      <c r="T7" s="5" t="n">
+      <c r="P7" s="5" t="inlineStr"/>
+      <c r="Q7" s="5" t="inlineStr"/>
+      <c r="R7" s="5" t="inlineStr"/>
+      <c r="S7" s="5" t="inlineStr"/>
+      <c r="T7" s="6" t="n">
         <v>45639</v>
       </c>
-      <c r="U7" s="4" t="inlineStr"/>
-      <c r="V7" s="4" t="inlineStr">
+      <c r="U7" s="5" t="inlineStr"/>
+      <c r="V7" s="5" t="inlineStr">
         <is>
           <t>January 28,2025</t>
         </is>
       </c>
-      <c r="W7" s="4" t="inlineStr"/>
-      <c r="X7" s="4" t="inlineStr"/>
-      <c r="Y7" s="4" t="inlineStr"/>
-      <c r="Z7" s="4" t="inlineStr">
+      <c r="W7" s="5" t="inlineStr"/>
+      <c r="X7" s="5" t="inlineStr"/>
+      <c r="Y7" s="5" t="inlineStr"/>
+      <c r="Z7" s="5" t="inlineStr">
         <is>
           <t>FOR AWARD</t>
         </is>
       </c>
-      <c r="AA7" s="4" t="n"/>
+      <c r="AA7" s="7" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="inlineStr">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>Sarangani</t>
         </is>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="5" t="n">
         <v>130450</v>
       </c>
-      <c r="E8" s="4" t="inlineStr">
+      <c r="E8" s="5" t="inlineStr">
         <is>
           <t>Calatungan ES</t>
         </is>
       </c>
-      <c r="F8" s="4" t="inlineStr">
+      <c r="F8" s="5" t="inlineStr">
         <is>
           <t>GLAN</t>
         </is>
       </c>
-      <c r="G8" s="4" t="inlineStr">
+      <c r="G8" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H8" s="4" t="n">
+      <c r="H8" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I8" s="4" t="n">
+      <c r="I8" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="J8" s="4" t="inlineStr">
+      <c r="J8" s="5" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K8" s="4" t="n">
+      <c r="K8" s="5" t="n">
         <v>6875408.92</v>
       </c>
-      <c r="L8" s="4" t="inlineStr">
+      <c r="L8" s="5" t="inlineStr">
         <is>
           <t>1- R</t>
         </is>
       </c>
-      <c r="M8" s="4" t="n">
+      <c r="M8" s="5" t="n">
         <v>5735236.09</v>
       </c>
-      <c r="N8" s="4" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="O8" s="4" t="n">
+      <c r="O8" s="5" t="n">
         <v>0.0108</v>
       </c>
-      <c r="P8" s="5" t="n">
+      <c r="P8" s="6" t="n">
         <v>45830</v>
       </c>
-      <c r="Q8" s="4" t="inlineStr"/>
-      <c r="R8" s="4" t="inlineStr"/>
-      <c r="S8" s="4" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr"/>
+      <c r="R8" s="5" t="inlineStr"/>
+      <c r="S8" s="5" t="inlineStr">
         <is>
           <t>2025I-03-005</t>
         </is>
       </c>
-      <c r="T8" s="5" t="n">
+      <c r="T8" s="6" t="n">
         <v>45639</v>
       </c>
-      <c r="U8" s="4" t="inlineStr"/>
-      <c r="V8" s="4" t="inlineStr">
+      <c r="U8" s="5" t="inlineStr"/>
+      <c r="V8" s="5" t="inlineStr">
         <is>
           <t>January 28,2025</t>
         </is>
       </c>
-      <c r="W8" s="5" t="n">
+      <c r="W8" s="6" t="n">
         <v>45735</v>
       </c>
-      <c r="X8" s="5" t="n">
+      <c r="X8" s="6" t="n">
         <v>45740</v>
       </c>
-      <c r="Y8" s="4" t="inlineStr">
+      <c r="Y8" s="5" t="inlineStr">
         <is>
           <t>E &amp; R ENTERPRISES AND CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z8" s="4" t="inlineStr">
+      <c r="Z8" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION ON GOING</t>
         </is>
       </c>
-      <c r="AA8" s="4" t="n"/>
+      <c r="AA8" s="7" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="inlineStr">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>Sarangani</t>
         </is>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="D9" s="5" t="n">
         <v>130467</v>
       </c>
-      <c r="E9" s="4" t="inlineStr">
+      <c r="E9" s="5" t="inlineStr">
         <is>
           <t>Macatimbol ES</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="F9" s="5" t="inlineStr">
         <is>
           <t>GLAN</t>
         </is>
       </c>
-      <c r="G9" s="4" t="inlineStr">
+      <c r="G9" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H9" s="4" t="n">
+      <c r="H9" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I9" s="4" t="n">
+      <c r="I9" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J9" s="4" t="inlineStr">
+      <c r="J9" s="5" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K9" s="4" t="n">
+      <c r="K9" s="5" t="n">
         <v>1015687.2</v>
       </c>
-      <c r="L9" s="4" t="inlineStr">
+      <c r="L9" s="5" t="inlineStr">
         <is>
           <t>1- R</t>
         </is>
       </c>
-      <c r="M9" s="4" t="inlineStr"/>
-      <c r="N9" s="4" t="inlineStr">
+      <c r="M9" s="5" t="inlineStr"/>
+      <c r="N9" s="5" t="inlineStr">
         <is>
           <t>Not Yet Started</t>
         </is>
       </c>
-      <c r="O9" s="4" t="n">
+      <c r="O9" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P9" s="4" t="inlineStr"/>
-      <c r="Q9" s="4" t="inlineStr"/>
-      <c r="R9" s="4" t="inlineStr"/>
-      <c r="S9" s="4" t="inlineStr"/>
-      <c r="T9" s="5" t="n">
+      <c r="P9" s="5" t="inlineStr"/>
+      <c r="Q9" s="5" t="inlineStr"/>
+      <c r="R9" s="5" t="inlineStr"/>
+      <c r="S9" s="5" t="inlineStr"/>
+      <c r="T9" s="6" t="n">
         <v>45693</v>
       </c>
-      <c r="U9" s="4" t="inlineStr"/>
-      <c r="V9" s="4" t="inlineStr">
+      <c r="U9" s="5" t="inlineStr"/>
+      <c r="V9" s="5" t="inlineStr">
         <is>
           <t>February 25,2025</t>
         </is>
       </c>
-      <c r="W9" s="4" t="inlineStr"/>
-      <c r="X9" s="4" t="inlineStr"/>
-      <c r="Y9" s="4" t="inlineStr"/>
-      <c r="Z9" s="4" t="inlineStr">
+      <c r="W9" s="5" t="inlineStr"/>
+      <c r="X9" s="5" t="inlineStr"/>
+      <c r="Y9" s="5" t="inlineStr"/>
+      <c r="Z9" s="5" t="inlineStr">
         <is>
           <t>FOR AWARD</t>
         </is>
       </c>
-      <c r="AA9" s="4" t="n"/>
+      <c r="AA9" s="7" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>Sarangani</t>
         </is>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="D10" s="5" t="n">
         <v>130474</v>
       </c>
-      <c r="E10" s="4" t="inlineStr">
+      <c r="E10" s="5" t="inlineStr">
         <is>
           <t>Pangyan Central ES</t>
         </is>
       </c>
-      <c r="F10" s="4" t="inlineStr">
+      <c r="F10" s="5" t="inlineStr">
         <is>
           <t>GLAN</t>
         </is>
       </c>
-      <c r="G10" s="4" t="inlineStr">
+      <c r="G10" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H10" s="4" t="n">
+      <c r="H10" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I10" s="4" t="n">
+      <c r="I10" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="J10" s="4" t="inlineStr">
+      <c r="J10" s="5" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K10" s="4" t="n">
+      <c r="K10" s="5" t="n">
         <v>5671478.609999999</v>
       </c>
-      <c r="L10" s="4" t="inlineStr">
+      <c r="L10" s="5" t="inlineStr">
         <is>
           <t>1- R</t>
         </is>
       </c>
-      <c r="M10" s="4" t="n">
+      <c r="M10" s="5" t="n">
         <v>3762023.97</v>
       </c>
-      <c r="N10" s="4" t="inlineStr">
+      <c r="N10" s="5" t="inlineStr">
         <is>
           <t>Not Yet Started</t>
         </is>
       </c>
-      <c r="O10" s="4" t="n">
+      <c r="O10" s="5" t="n">
         <v>0.0226</v>
       </c>
-      <c r="P10" s="5" t="n">
+      <c r="P10" s="6" t="n">
         <v>45823</v>
       </c>
-      <c r="Q10" s="4" t="inlineStr"/>
-      <c r="R10" s="4" t="inlineStr"/>
-      <c r="S10" s="4" t="inlineStr">
+      <c r="Q10" s="5" t="inlineStr"/>
+      <c r="R10" s="5" t="inlineStr"/>
+      <c r="S10" s="5" t="inlineStr">
         <is>
           <t>2025I-03-001</t>
         </is>
       </c>
-      <c r="T10" s="5" t="n">
+      <c r="T10" s="6" t="n">
         <v>45639</v>
       </c>
-      <c r="U10" s="4" t="inlineStr"/>
-      <c r="V10" s="4" t="inlineStr">
+      <c r="U10" s="5" t="inlineStr"/>
+      <c r="V10" s="5" t="inlineStr">
         <is>
           <t>January 28,2025</t>
         </is>
       </c>
-      <c r="W10" s="5" t="n">
+      <c r="W10" s="6" t="n">
         <v>45727</v>
       </c>
-      <c r="X10" s="5" t="n">
+      <c r="X10" s="6" t="n">
         <v>45733</v>
       </c>
-      <c r="Y10" s="4" t="inlineStr">
+      <c r="Y10" s="5" t="inlineStr">
         <is>
           <t>UPSCALE BUILDERS AND SUPPLY CORPORATION</t>
         </is>
       </c>
-      <c r="Z10" s="4" t="inlineStr">
+      <c r="Z10" s="5" t="inlineStr">
         <is>
           <t>FOR AWARD</t>
         </is>
       </c>
-      <c r="AA10" s="4" t="n"/>
+      <c r="AA10" s="7" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="inlineStr">
+      <c r="A11" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>Sarangani</t>
         </is>
       </c>
-      <c r="D11" s="4" t="n">
+      <c r="D11" s="5" t="n">
         <v>130487</v>
       </c>
-      <c r="E11" s="4" t="inlineStr">
+      <c r="E11" s="5" t="inlineStr">
         <is>
           <t>Bocay- Il ES</t>
         </is>
       </c>
-      <c r="F11" s="4" t="inlineStr">
+      <c r="F11" s="5" t="inlineStr">
         <is>
           <t>KIAMBA</t>
         </is>
       </c>
-      <c r="G11" s="4" t="inlineStr">
+      <c r="G11" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H11" s="4" t="n">
+      <c r="H11" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I11" s="4" t="n">
+      <c r="I11" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J11" s="4" t="inlineStr">
+      <c r="J11" s="5" t="inlineStr">
         <is>
           <t>1STY2CL</t>
         </is>
       </c>
-      <c r="K11" s="4" t="n">
+      <c r="K11" s="5" t="n">
         <v>4916342.86</v>
       </c>
-      <c r="L11" s="4" t="inlineStr">
+      <c r="L11" s="5" t="inlineStr">
         <is>
           <t>1- NC</t>
         </is>
       </c>
-      <c r="M11" s="4" t="inlineStr"/>
-      <c r="N11" s="4" t="inlineStr">
+      <c r="M11" s="5" t="inlineStr"/>
+      <c r="N11" s="5" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
       </c>
-      <c r="O11" s="4" t="n">
+      <c r="O11" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P11" s="4" t="inlineStr"/>
-      <c r="Q11" s="4" t="inlineStr"/>
-      <c r="R11" s="4" t="inlineStr"/>
-      <c r="S11" s="4" t="inlineStr"/>
-      <c r="T11" s="4" t="inlineStr"/>
-      <c r="U11" s="4" t="inlineStr"/>
-      <c r="V11" s="4" t="inlineStr"/>
-      <c r="W11" s="4" t="inlineStr"/>
-      <c r="X11" s="4" t="inlineStr"/>
-      <c r="Y11" s="4" t="inlineStr"/>
-      <c r="Z11" s="4" t="inlineStr">
+      <c r="P11" s="5" t="inlineStr"/>
+      <c r="Q11" s="5" t="inlineStr"/>
+      <c r="R11" s="5" t="inlineStr"/>
+      <c r="S11" s="5" t="inlineStr"/>
+      <c r="T11" s="5" t="inlineStr"/>
+      <c r="U11" s="5" t="inlineStr"/>
+      <c r="V11" s="5" t="inlineStr"/>
+      <c r="W11" s="5" t="inlineStr"/>
+      <c r="X11" s="5" t="inlineStr"/>
+      <c r="Y11" s="5" t="inlineStr"/>
+      <c r="Z11" s="5" t="inlineStr">
         <is>
           <t>Rebid</t>
         </is>
       </c>
-      <c r="AA11" s="4" t="n"/>
+      <c r="AA11" s="7" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="inlineStr">
+      <c r="A12" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>Sarangani</t>
         </is>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="D12" s="5" t="n">
         <v>130560</v>
       </c>
-      <c r="E12" s="4" t="inlineStr">
+      <c r="E12" s="5" t="inlineStr">
         <is>
           <t>Lun Padidu Central Elementary School</t>
         </is>
       </c>
-      <c r="F12" s="4" t="inlineStr">
+      <c r="F12" s="5" t="inlineStr">
         <is>
           <t>MALAPATAN</t>
         </is>
       </c>
-      <c r="G12" s="4" t="inlineStr">
+      <c r="G12" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H12" s="4" t="n">
+      <c r="H12" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I12" s="4" t="n">
+      <c r="I12" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="J12" s="4" t="inlineStr">
+      <c r="J12" s="5" t="inlineStr">
         <is>
           <t>2-UNITS 1STY3CL</t>
         </is>
       </c>
-      <c r="K12" s="4" t="n">
+      <c r="K12" s="5" t="n">
         <v>15224946.67</v>
       </c>
-      <c r="L12" s="4" t="inlineStr">
+      <c r="L12" s="5" t="inlineStr">
         <is>
           <t>1- NC</t>
         </is>
       </c>
-      <c r="M12" s="4" t="inlineStr"/>
-      <c r="N12" s="4" t="inlineStr">
+      <c r="M12" s="5" t="inlineStr"/>
+      <c r="N12" s="5" t="inlineStr">
         <is>
           <t>Not Yet Started</t>
         </is>
       </c>
-      <c r="O12" s="4" t="n">
+      <c r="O12" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P12" s="4" t="inlineStr"/>
-      <c r="Q12" s="4" t="inlineStr"/>
-      <c r="R12" s="4" t="inlineStr"/>
-      <c r="S12" s="4" t="inlineStr"/>
-      <c r="T12" s="5" t="n">
+      <c r="P12" s="5" t="inlineStr"/>
+      <c r="Q12" s="5" t="inlineStr"/>
+      <c r="R12" s="5" t="inlineStr"/>
+      <c r="S12" s="5" t="inlineStr"/>
+      <c r="T12" s="6" t="n">
         <v>45639</v>
       </c>
-      <c r="U12" s="4" t="inlineStr"/>
-      <c r="V12" s="4" t="inlineStr">
+      <c r="U12" s="5" t="inlineStr"/>
+      <c r="V12" s="5" t="inlineStr">
         <is>
           <t>January 28,2025</t>
         </is>
       </c>
-      <c r="W12" s="4" t="inlineStr"/>
-      <c r="X12" s="4" t="inlineStr"/>
-      <c r="Y12" s="4" t="inlineStr"/>
-      <c r="Z12" s="4" t="inlineStr">
+      <c r="W12" s="5" t="inlineStr"/>
+      <c r="X12" s="5" t="inlineStr"/>
+      <c r="Y12" s="5" t="inlineStr"/>
+      <c r="Z12" s="5" t="inlineStr">
         <is>
           <t>FOR AWARD</t>
         </is>
       </c>
-      <c r="AA12" s="4" t="n"/>
+      <c r="AA12" s="7" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="inlineStr">
+      <c r="A13" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>Sarangani</t>
         </is>
       </c>
-      <c r="D13" s="4" t="n">
+      <c r="D13" s="5" t="n">
         <v>130563</v>
       </c>
-      <c r="E13" s="4" t="inlineStr">
+      <c r="E13" s="5" t="inlineStr">
         <is>
           <t>Mama Nawa Elementary School</t>
         </is>
       </c>
-      <c r="F13" s="4" t="inlineStr">
+      <c r="F13" s="5" t="inlineStr">
         <is>
           <t>MALAPATAN</t>
         </is>
       </c>
-      <c r="G13" s="4" t="inlineStr">
+      <c r="G13" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H13" s="4" t="n">
+      <c r="H13" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I13" s="4" t="n">
+      <c r="I13" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="J13" s="4" t="inlineStr">
+      <c r="J13" s="5" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K13" s="4" t="n">
+      <c r="K13" s="5" t="n">
         <v>13605574.34</v>
       </c>
-      <c r="L13" s="4" t="inlineStr">
+      <c r="L13" s="5" t="inlineStr">
         <is>
           <t>1- R</t>
         </is>
       </c>
-      <c r="M13" s="4" t="inlineStr"/>
-      <c r="N13" s="4" t="inlineStr">
+      <c r="M13" s="5" t="inlineStr"/>
+      <c r="N13" s="5" t="inlineStr">
         <is>
           <t>Not Yet Started</t>
         </is>
       </c>
-      <c r="O13" s="4" t="n">
+      <c r="O13" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P13" s="4" t="inlineStr"/>
-      <c r="Q13" s="4" t="inlineStr"/>
-      <c r="R13" s="4" t="inlineStr"/>
-      <c r="S13" s="4" t="inlineStr"/>
-      <c r="T13" s="5" t="n">
+      <c r="P13" s="5" t="inlineStr"/>
+      <c r="Q13" s="5" t="inlineStr"/>
+      <c r="R13" s="5" t="inlineStr"/>
+      <c r="S13" s="5" t="inlineStr"/>
+      <c r="T13" s="6" t="n">
         <v>45639</v>
       </c>
-      <c r="U13" s="4" t="inlineStr"/>
-      <c r="V13" s="4" t="inlineStr">
+      <c r="U13" s="5" t="inlineStr"/>
+      <c r="V13" s="5" t="inlineStr">
         <is>
           <t>January 28,2025</t>
         </is>
       </c>
-      <c r="W13" s="4" t="inlineStr"/>
-      <c r="X13" s="4" t="inlineStr"/>
-      <c r="Y13" s="4" t="inlineStr"/>
-      <c r="Z13" s="4" t="inlineStr">
+      <c r="W13" s="5" t="inlineStr"/>
+      <c r="X13" s="5" t="inlineStr"/>
+      <c r="Y13" s="5" t="inlineStr"/>
+      <c r="Z13" s="5" t="inlineStr">
         <is>
           <t>FOR AWARD</t>
         </is>
       </c>
-      <c r="AA13" s="4" t="n"/>
+      <c r="AA13" s="7" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="inlineStr">
+      <c r="A14" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="C14" s="5" t="inlineStr">
         <is>
           <t>Sarangani</t>
         </is>
       </c>
-      <c r="D14" s="4" t="n">
+      <c r="D14" s="5" t="n">
         <v>130582</v>
       </c>
-      <c r="E14" s="4" t="inlineStr">
+      <c r="E14" s="5" t="inlineStr">
         <is>
           <t>Talus ES</t>
         </is>
       </c>
-      <c r="F14" s="4" t="inlineStr">
+      <c r="F14" s="5" t="inlineStr">
         <is>
           <t>MALUNGON</t>
         </is>
       </c>
-      <c r="G14" s="4" t="inlineStr">
+      <c r="G14" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H14" s="4" t="n">
+      <c r="H14" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I14" s="4" t="n">
+      <c r="I14" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="J14" s="4" t="inlineStr">
+      <c r="J14" s="5" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K14" s="4" t="n">
+      <c r="K14" s="5" t="n">
         <v>14907576.67</v>
       </c>
-      <c r="L14" s="4" t="inlineStr">
+      <c r="L14" s="5" t="inlineStr">
         <is>
           <t>1- R</t>
         </is>
       </c>
-      <c r="M14" s="4" t="inlineStr"/>
-      <c r="N14" s="4" t="inlineStr">
+      <c r="M14" s="5" t="inlineStr"/>
+      <c r="N14" s="5" t="inlineStr">
         <is>
           <t>Not Yet Started</t>
         </is>
       </c>
-      <c r="O14" s="4" t="n">
+      <c r="O14" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P14" s="4" t="inlineStr"/>
-      <c r="Q14" s="4" t="inlineStr"/>
-      <c r="R14" s="4" t="inlineStr"/>
-      <c r="S14" s="4" t="inlineStr"/>
-      <c r="T14" s="5" t="n">
+      <c r="P14" s="5" t="inlineStr"/>
+      <c r="Q14" s="5" t="inlineStr"/>
+      <c r="R14" s="5" t="inlineStr"/>
+      <c r="S14" s="5" t="inlineStr"/>
+      <c r="T14" s="6" t="n">
         <v>45639</v>
       </c>
-      <c r="U14" s="4" t="inlineStr"/>
-      <c r="V14" s="4" t="inlineStr">
+      <c r="U14" s="5" t="inlineStr"/>
+      <c r="V14" s="5" t="inlineStr">
         <is>
           <t>January 28,2025</t>
         </is>
       </c>
-      <c r="W14" s="4" t="inlineStr"/>
-      <c r="X14" s="4" t="inlineStr"/>
-      <c r="Y14" s="4" t="inlineStr"/>
-      <c r="Z14" s="4" t="inlineStr">
+      <c r="W14" s="5" t="inlineStr"/>
+      <c r="X14" s="5" t="inlineStr"/>
+      <c r="Y14" s="5" t="inlineStr"/>
+      <c r="Z14" s="5" t="inlineStr">
         <is>
           <t>FOR AWARD</t>
         </is>
       </c>
-      <c r="AA14" s="4" t="n"/>
+      <c r="AA14" s="7" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="inlineStr">
+      <c r="A15" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="B15" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C15" s="4" t="inlineStr">
+      <c r="C15" s="5" t="inlineStr">
         <is>
           <t>Sarangani</t>
         </is>
       </c>
-      <c r="D15" s="4" t="n">
+      <c r="D15" s="5" t="n">
         <v>304541</v>
       </c>
-      <c r="E15" s="4" t="inlineStr">
+      <c r="E15" s="5" t="inlineStr">
         <is>
           <t>Pangyan National High School</t>
         </is>
       </c>
-      <c r="F15" s="4" t="inlineStr">
+      <c r="F15" s="5" t="inlineStr">
         <is>
           <t>GLAN</t>
         </is>
       </c>
-      <c r="G15" s="4" t="inlineStr">
+      <c r="G15" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H15" s="4" t="n">
+      <c r="H15" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I15" s="4" t="n">
+      <c r="I15" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J15" s="4" t="inlineStr">
+      <c r="J15" s="5" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K15" s="4" t="n">
+      <c r="K15" s="5" t="n">
         <v>1188056.38</v>
       </c>
-      <c r="L15" s="4" t="inlineStr">
+      <c r="L15" s="5" t="inlineStr">
         <is>
           <t>1- R</t>
         </is>
       </c>
-      <c r="M15" s="4" t="inlineStr"/>
-      <c r="N15" s="4" t="inlineStr">
+      <c r="M15" s="5" t="inlineStr"/>
+      <c r="N15" s="5" t="inlineStr">
         <is>
           <t>Not Yet Started</t>
         </is>
       </c>
-      <c r="O15" s="4" t="n">
+      <c r="O15" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P15" s="4" t="inlineStr"/>
-      <c r="Q15" s="4" t="inlineStr"/>
-      <c r="R15" s="4" t="inlineStr"/>
-      <c r="S15" s="4" t="inlineStr"/>
-      <c r="T15" s="5" t="n">
+      <c r="P15" s="5" t="inlineStr"/>
+      <c r="Q15" s="5" t="inlineStr"/>
+      <c r="R15" s="5" t="inlineStr"/>
+      <c r="S15" s="5" t="inlineStr"/>
+      <c r="T15" s="6" t="n">
         <v>45693</v>
       </c>
-      <c r="U15" s="4" t="inlineStr"/>
-      <c r="V15" s="4" t="inlineStr">
+      <c r="U15" s="5" t="inlineStr"/>
+      <c r="V15" s="5" t="inlineStr">
         <is>
           <t>February 25,2025</t>
         </is>
       </c>
-      <c r="W15" s="4" t="inlineStr"/>
-      <c r="X15" s="4" t="inlineStr"/>
-      <c r="Y15" s="4" t="inlineStr"/>
-      <c r="Z15" s="4" t="inlineStr">
+      <c r="W15" s="5" t="inlineStr"/>
+      <c r="X15" s="5" t="inlineStr"/>
+      <c r="Y15" s="5" t="inlineStr"/>
+      <c r="Z15" s="5" t="inlineStr">
         <is>
           <t>FOR AWARD</t>
         </is>
       </c>
-      <c r="AA15" s="4" t="n"/>
+      <c r="AA15" s="7" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="inlineStr">
+      <c r="A16" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B16" s="4" t="inlineStr">
+      <c r="B16" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C16" s="4" t="inlineStr">
+      <c r="C16" s="5" t="inlineStr">
         <is>
           <t>Sarangani</t>
         </is>
       </c>
-      <c r="D16" s="4" t="n">
+      <c r="D16" s="5" t="n">
         <v>316604</v>
       </c>
-      <c r="E16" s="4" t="inlineStr">
+      <c r="E16" s="5" t="inlineStr">
         <is>
           <t>Amado M. Quirit Sr National High School</t>
         </is>
       </c>
-      <c r="F16" s="4" t="inlineStr">
+      <c r="F16" s="5" t="inlineStr">
         <is>
           <t>MALAPATAN</t>
         </is>
       </c>
-      <c r="G16" s="4" t="inlineStr">
+      <c r="G16" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H16" s="4" t="n">
+      <c r="H16" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I16" s="4" t="n">
+      <c r="I16" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="J16" s="4" t="inlineStr">
+      <c r="J16" s="5" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K16" s="4" t="n">
+      <c r="K16" s="5" t="n">
         <v>1475383.74</v>
       </c>
-      <c r="L16" s="4" t="inlineStr">
+      <c r="L16" s="5" t="inlineStr">
         <is>
           <t>1- R</t>
         </is>
       </c>
-      <c r="M16" s="4" t="inlineStr"/>
-      <c r="N16" s="4" t="inlineStr">
+      <c r="M16" s="5" t="inlineStr"/>
+      <c r="N16" s="5" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
       </c>
-      <c r="O16" s="4" t="n">
+      <c r="O16" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P16" s="4" t="inlineStr"/>
-      <c r="Q16" s="4" t="inlineStr"/>
-      <c r="R16" s="4" t="inlineStr"/>
-      <c r="S16" s="4" t="inlineStr"/>
-      <c r="T16" s="5" t="n">
+      <c r="P16" s="5" t="inlineStr"/>
+      <c r="Q16" s="5" t="inlineStr"/>
+      <c r="R16" s="5" t="inlineStr"/>
+      <c r="S16" s="5" t="inlineStr"/>
+      <c r="T16" s="6" t="n">
         <v>45762</v>
       </c>
-      <c r="U16" s="4" t="inlineStr"/>
-      <c r="V16" s="4" t="inlineStr"/>
-      <c r="W16" s="4" t="inlineStr"/>
-      <c r="X16" s="4" t="inlineStr"/>
-      <c r="Y16" s="4" t="inlineStr"/>
-      <c r="Z16" s="4" t="inlineStr">
+      <c r="U16" s="5" t="inlineStr"/>
+      <c r="V16" s="5" t="inlineStr"/>
+      <c r="W16" s="5" t="inlineStr"/>
+      <c r="X16" s="5" t="inlineStr"/>
+      <c r="Y16" s="5" t="inlineStr"/>
+      <c r="Z16" s="5" t="inlineStr">
         <is>
           <t>BID EVALUATION</t>
         </is>
       </c>
-      <c r="AA16" s="4" t="n"/>
+      <c r="AA16" s="7" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="inlineStr">
+      <c r="A17" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B17" s="4" t="inlineStr">
+      <c r="B17" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C17" s="4" t="inlineStr">
+      <c r="C17" s="5" t="inlineStr">
         <is>
           <t>Sarangani</t>
         </is>
       </c>
-      <c r="D17" s="4" t="n">
+      <c r="D17" s="5" t="n">
         <v>500260</v>
       </c>
-      <c r="E17" s="4" t="inlineStr">
+      <c r="E17" s="5" t="inlineStr">
         <is>
           <t>Lumigo Integrated School</t>
         </is>
       </c>
-      <c r="F17" s="4" t="inlineStr">
+      <c r="F17" s="5" t="inlineStr">
         <is>
           <t>GLAN</t>
         </is>
       </c>
-      <c r="G17" s="4" t="inlineStr">
+      <c r="G17" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H17" s="4" t="n">
+      <c r="H17" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I17" s="4" t="n">
+      <c r="I17" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="J17" s="4" t="inlineStr">
+      <c r="J17" s="5" t="inlineStr">
         <is>
           <t>3-UNITS 1STY3CL</t>
         </is>
       </c>
-      <c r="K17" s="4" t="n">
+      <c r="K17" s="5" t="n">
         <v>27304958.65</v>
       </c>
-      <c r="L17" s="4" t="inlineStr">
+      <c r="L17" s="5" t="inlineStr">
         <is>
           <t>1- NC</t>
         </is>
       </c>
-      <c r="M17" s="4" t="n">
+      <c r="M17" s="5" t="n">
         <v>27283547.41</v>
       </c>
-      <c r="N17" s="4" t="inlineStr">
+      <c r="N17" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="O17" s="4" t="n">
+      <c r="O17" s="5" t="n">
         <v>0.0203</v>
       </c>
-      <c r="P17" s="5" t="n">
+      <c r="P17" s="6" t="n">
         <v>46007</v>
       </c>
-      <c r="Q17" s="4" t="inlineStr"/>
-      <c r="R17" s="4" t="inlineStr"/>
-      <c r="S17" s="4" t="inlineStr">
+      <c r="Q17" s="5" t="inlineStr"/>
+      <c r="R17" s="5" t="inlineStr"/>
+      <c r="S17" s="5" t="inlineStr">
         <is>
           <t>2025I-03-003</t>
         </is>
       </c>
-      <c r="T17" s="5" t="n">
+      <c r="T17" s="6" t="n">
         <v>45639</v>
       </c>
-      <c r="U17" s="4" t="inlineStr"/>
-      <c r="V17" s="4" t="inlineStr">
+      <c r="U17" s="5" t="inlineStr"/>
+      <c r="V17" s="5" t="inlineStr">
         <is>
           <t>January 28,2025</t>
         </is>
       </c>
-      <c r="W17" s="5" t="n">
+      <c r="W17" s="6" t="n">
         <v>45727</v>
       </c>
-      <c r="X17" s="5" t="n">
+      <c r="X17" s="6" t="n">
         <v>45737</v>
       </c>
-      <c r="Y17" s="4" t="inlineStr">
+      <c r="Y17" s="5" t="inlineStr">
         <is>
           <t>MANUELA CONSTRUCTION SERVICES</t>
         </is>
       </c>
-      <c r="Z17" s="4" t="inlineStr">
+      <c r="Z17" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION ON GOING</t>
         </is>
       </c>
-      <c r="AA17" s="4" t="n"/>
+      <c r="AA17" s="7" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="inlineStr">
+      <c r="A18" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B18" s="4" t="inlineStr">
+      <c r="B18" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C18" s="4" t="inlineStr">
+      <c r="C18" s="5" t="inlineStr">
         <is>
           <t>Sarangani</t>
         </is>
       </c>
-      <c r="D18" s="4" t="n">
+      <c r="D18" s="5" t="n">
         <v>500261</v>
       </c>
-      <c r="E18" s="4" t="inlineStr">
+      <c r="E18" s="5" t="inlineStr">
         <is>
           <t>Roque Adarna Integrated  School</t>
         </is>
       </c>
-      <c r="F18" s="4" t="inlineStr">
+      <c r="F18" s="5" t="inlineStr">
         <is>
           <t>GLAN</t>
         </is>
       </c>
-      <c r="G18" s="4" t="inlineStr">
+      <c r="G18" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H18" s="4" t="n">
+      <c r="H18" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I18" s="4" t="n">
+      <c r="I18" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="J18" s="4" t="inlineStr">
+      <c r="J18" s="5" t="inlineStr">
         <is>
           <t>2-UNITS 1STY3CL</t>
         </is>
       </c>
-      <c r="K18" s="4" t="n">
+      <c r="K18" s="5" t="n">
         <v>15224946.67</v>
       </c>
-      <c r="L18" s="4" t="inlineStr">
+      <c r="L18" s="5" t="inlineStr">
         <is>
           <t>1- NC</t>
         </is>
       </c>
-      <c r="M18" s="4" t="inlineStr"/>
-      <c r="N18" s="4" t="inlineStr">
+      <c r="M18" s="5" t="inlineStr"/>
+      <c r="N18" s="5" t="inlineStr">
         <is>
           <t>Not Yet Started</t>
         </is>
       </c>
-      <c r="O18" s="4" t="n">
+      <c r="O18" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P18" s="4" t="inlineStr"/>
-      <c r="Q18" s="4" t="inlineStr"/>
-      <c r="R18" s="4" t="inlineStr"/>
-      <c r="S18" s="4" t="inlineStr"/>
-      <c r="T18" s="5" t="n">
+      <c r="P18" s="5" t="inlineStr"/>
+      <c r="Q18" s="5" t="inlineStr"/>
+      <c r="R18" s="5" t="inlineStr"/>
+      <c r="S18" s="5" t="inlineStr"/>
+      <c r="T18" s="6" t="n">
         <v>45639</v>
       </c>
-      <c r="U18" s="4" t="inlineStr"/>
-      <c r="V18" s="4" t="inlineStr">
+      <c r="U18" s="5" t="inlineStr"/>
+      <c r="V18" s="5" t="inlineStr">
         <is>
           <t>January 28,2025</t>
         </is>
       </c>
-      <c r="W18" s="4" t="inlineStr"/>
-      <c r="X18" s="4" t="inlineStr"/>
-      <c r="Y18" s="4" t="inlineStr"/>
-      <c r="Z18" s="4" t="inlineStr">
+      <c r="W18" s="5" t="inlineStr"/>
+      <c r="X18" s="5" t="inlineStr"/>
+      <c r="Y18" s="5" t="inlineStr"/>
+      <c r="Z18" s="5" t="inlineStr">
         <is>
           <t>FOR AWARD</t>
         </is>
       </c>
-      <c r="AA18" s="4" t="n"/>
+      <c r="AA18" s="7" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="inlineStr">
+      <c r="A19" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="C19" s="5" t="inlineStr">
         <is>
           <t>Sarangani</t>
         </is>
       </c>
-      <c r="D19" s="4" t="n">
+      <c r="D19" s="5" t="n">
         <v>500267</v>
       </c>
-      <c r="E19" s="4" t="inlineStr">
+      <c r="E19" s="5" t="inlineStr">
         <is>
           <t>Mangelen IS</t>
         </is>
       </c>
-      <c r="F19" s="4" t="inlineStr">
+      <c r="F19" s="5" t="inlineStr">
         <is>
           <t>MAASIM</t>
         </is>
       </c>
-      <c r="G19" s="4" t="inlineStr">
+      <c r="G19" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H19" s="4" t="n">
+      <c r="H19" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I19" s="4" t="n">
+      <c r="I19" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J19" s="4" t="inlineStr">
+      <c r="J19" s="5" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K19" s="4" t="n">
+      <c r="K19" s="5" t="n">
         <v>5121274.06</v>
       </c>
-      <c r="L19" s="4" t="inlineStr">
+      <c r="L19" s="5" t="inlineStr">
         <is>
           <t>1- R</t>
         </is>
       </c>
-      <c r="M19" s="4" t="inlineStr"/>
-      <c r="N19" s="4" t="inlineStr">
+      <c r="M19" s="5" t="inlineStr"/>
+      <c r="N19" s="5" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
       </c>
-      <c r="O19" s="4" t="n">
+      <c r="O19" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P19" s="4" t="inlineStr"/>
-      <c r="Q19" s="4" t="inlineStr"/>
-      <c r="R19" s="4" t="inlineStr"/>
-      <c r="S19" s="4" t="inlineStr"/>
-      <c r="T19" s="4" t="inlineStr"/>
-      <c r="U19" s="4" t="inlineStr"/>
-      <c r="V19" s="5" t="n">
+      <c r="P19" s="5" t="inlineStr"/>
+      <c r="Q19" s="5" t="inlineStr"/>
+      <c r="R19" s="5" t="inlineStr"/>
+      <c r="S19" s="5" t="inlineStr"/>
+      <c r="T19" s="5" t="inlineStr"/>
+      <c r="U19" s="5" t="inlineStr"/>
+      <c r="V19" s="6" t="n">
         <v>45755</v>
       </c>
-      <c r="W19" s="4" t="inlineStr"/>
-      <c r="X19" s="4" t="inlineStr"/>
-      <c r="Y19" s="4" t="inlineStr"/>
-      <c r="Z19" s="4" t="inlineStr">
+      <c r="W19" s="5" t="inlineStr"/>
+      <c r="X19" s="5" t="inlineStr"/>
+      <c r="Y19" s="5" t="inlineStr"/>
+      <c r="Z19" s="5" t="inlineStr">
         <is>
           <t>BID EVALUATION</t>
         </is>
       </c>
-      <c r="AA19" s="4" t="n"/>
+      <c r="AA19" s="7" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="inlineStr">
+      <c r="A20" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="B20" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
+      <c r="C20" s="5" t="inlineStr">
         <is>
           <t>Sarangani</t>
         </is>
       </c>
-      <c r="D20" s="4" t="n">
+      <c r="D20" s="5" t="n">
         <v>500285</v>
       </c>
-      <c r="E20" s="4" t="inlineStr">
+      <c r="E20" s="5" t="inlineStr">
         <is>
           <t>Tagaytay Integrated School</t>
         </is>
       </c>
-      <c r="F20" s="4" t="inlineStr">
+      <c r="F20" s="5" t="inlineStr">
         <is>
           <t>ALABEL (Capital)</t>
         </is>
       </c>
-      <c r="G20" s="4" t="inlineStr">
+      <c r="G20" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H20" s="4" t="n">
+      <c r="H20" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I20" s="4" t="n">
+      <c r="I20" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J20" s="4" t="inlineStr">
+      <c r="J20" s="5" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K20" s="4" t="n">
+      <c r="K20" s="5" t="n">
         <v>621384.02</v>
       </c>
-      <c r="L20" s="4" t="inlineStr">
+      <c r="L20" s="5" t="inlineStr">
         <is>
           <t>1- R</t>
         </is>
       </c>
-      <c r="M20" s="4" t="inlineStr"/>
-      <c r="N20" s="4" t="inlineStr">
+      <c r="M20" s="5" t="inlineStr"/>
+      <c r="N20" s="5" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
       </c>
-      <c r="O20" s="4" t="n">
+      <c r="O20" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P20" s="4" t="inlineStr"/>
-      <c r="Q20" s="4" t="inlineStr"/>
-      <c r="R20" s="4" t="inlineStr"/>
-      <c r="S20" s="4" t="inlineStr"/>
-      <c r="T20" s="4" t="inlineStr"/>
-      <c r="U20" s="4" t="inlineStr"/>
-      <c r="V20" s="5" t="n">
+      <c r="P20" s="5" t="inlineStr"/>
+      <c r="Q20" s="5" t="inlineStr"/>
+      <c r="R20" s="5" t="inlineStr"/>
+      <c r="S20" s="5" t="inlineStr"/>
+      <c r="T20" s="5" t="inlineStr"/>
+      <c r="U20" s="5" t="inlineStr"/>
+      <c r="V20" s="6" t="n">
         <v>45762</v>
       </c>
-      <c r="W20" s="4" t="inlineStr"/>
-      <c r="X20" s="4" t="inlineStr"/>
-      <c r="Y20" s="4" t="inlineStr"/>
-      <c r="Z20" s="4" t="inlineStr">
+      <c r="W20" s="5" t="inlineStr"/>
+      <c r="X20" s="5" t="inlineStr"/>
+      <c r="Y20" s="5" t="inlineStr"/>
+      <c r="Z20" s="5" t="inlineStr">
         <is>
           <t>BID EVALUATION</t>
         </is>
       </c>
-      <c r="AA20" s="4" t="n"/>
+      <c r="AA20" s="7" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="inlineStr">
+      <c r="A21" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B21" s="4" t="inlineStr">
+      <c r="B21" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C21" s="4" t="inlineStr">
+      <c r="C21" s="5" t="inlineStr">
         <is>
           <t>Sarangani</t>
         </is>
       </c>
-      <c r="D21" s="4" t="n">
+      <c r="D21" s="5" t="n">
         <v>500288</v>
       </c>
-      <c r="E21" s="4" t="inlineStr">
+      <c r="E21" s="5" t="inlineStr">
         <is>
           <t>Kinabalan Integrated School</t>
         </is>
       </c>
-      <c r="F21" s="4" t="inlineStr">
+      <c r="F21" s="5" t="inlineStr">
         <is>
           <t>MALUNGON</t>
         </is>
       </c>
-      <c r="G21" s="4" t="inlineStr">
+      <c r="G21" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H21" s="4" t="n">
+      <c r="H21" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I21" s="4" t="n">
+      <c r="I21" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J21" s="4" t="inlineStr">
+      <c r="J21" s="5" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K21" s="4" t="n">
+      <c r="K21" s="5" t="n">
         <v>684829.83</v>
       </c>
-      <c r="L21" s="4" t="inlineStr">
+      <c r="L21" s="5" t="inlineStr">
         <is>
           <t>1- R</t>
         </is>
       </c>
-      <c r="M21" s="4" t="inlineStr"/>
-      <c r="N21" s="4" t="inlineStr">
+      <c r="M21" s="5" t="inlineStr"/>
+      <c r="N21" s="5" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
       </c>
-      <c r="O21" s="4" t="n">
+      <c r="O21" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P21" s="4" t="inlineStr"/>
-      <c r="Q21" s="4" t="inlineStr"/>
-      <c r="R21" s="4" t="inlineStr"/>
-      <c r="S21" s="4" t="inlineStr"/>
-      <c r="T21" s="4" t="inlineStr"/>
-      <c r="U21" s="4" t="inlineStr"/>
-      <c r="V21" s="5" t="n">
+      <c r="P21" s="5" t="inlineStr"/>
+      <c r="Q21" s="5" t="inlineStr"/>
+      <c r="R21" s="5" t="inlineStr"/>
+      <c r="S21" s="5" t="inlineStr"/>
+      <c r="T21" s="5" t="inlineStr"/>
+      <c r="U21" s="5" t="inlineStr"/>
+      <c r="V21" s="6" t="n">
         <v>45762</v>
       </c>
-      <c r="W21" s="4" t="inlineStr"/>
-      <c r="X21" s="4" t="inlineStr"/>
-      <c r="Y21" s="4" t="inlineStr"/>
-      <c r="Z21" s="4" t="inlineStr">
+      <c r="W21" s="5" t="inlineStr"/>
+      <c r="X21" s="5" t="inlineStr"/>
+      <c r="Y21" s="5" t="inlineStr"/>
+      <c r="Z21" s="5" t="inlineStr">
         <is>
           <t>BID EVALUATION</t>
         </is>
       </c>
-      <c r="AA21" s="4" t="n"/>
+      <c r="AA21" s="7" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="inlineStr">
+      <c r="A22" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B22" s="4" t="inlineStr">
+      <c r="B22" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C22" s="4" t="inlineStr">
+      <c r="C22" s="5" t="inlineStr">
         <is>
           <t>Sarangani</t>
         </is>
       </c>
-      <c r="D22" s="4" t="n">
+      <c r="D22" s="5" t="n">
         <v>500707</v>
       </c>
-      <c r="E22" s="4" t="inlineStr">
+      <c r="E22" s="5" t="inlineStr">
         <is>
           <t>Tonga Lim Siao Sr. Integrated School</t>
         </is>
       </c>
-      <c r="F22" s="4" t="inlineStr">
+      <c r="F22" s="5" t="inlineStr">
         <is>
           <t>GLAN</t>
         </is>
       </c>
-      <c r="G22" s="4" t="inlineStr">
+      <c r="G22" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H22" s="4" t="n">
+      <c r="H22" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I22" s="4" t="n">
+      <c r="I22" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="J22" s="4" t="inlineStr">
+      <c r="J22" s="5" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K22" s="4" t="n">
+      <c r="K22" s="5" t="n">
         <v>6696299.069999999</v>
       </c>
-      <c r="L22" s="4" t="inlineStr">
+      <c r="L22" s="5" t="inlineStr">
         <is>
           <t>1- R</t>
         </is>
       </c>
-      <c r="M22" s="4" t="n">
+      <c r="M22" s="5" t="n">
         <v>3744129.63</v>
       </c>
-      <c r="N22" s="4" t="inlineStr">
+      <c r="N22" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="O22" s="4" t="n">
+      <c r="O22" s="5" t="n">
         <v>0.0227</v>
       </c>
-      <c r="P22" s="5" t="n">
+      <c r="P22" s="6" t="n">
         <v>45823</v>
       </c>
-      <c r="Q22" s="4" t="inlineStr"/>
-      <c r="R22" s="4" t="inlineStr"/>
-      <c r="S22" s="4" t="inlineStr">
+      <c r="Q22" s="5" t="inlineStr"/>
+      <c r="R22" s="5" t="inlineStr"/>
+      <c r="S22" s="5" t="inlineStr">
         <is>
           <t>2025I-03-002</t>
         </is>
       </c>
-      <c r="T22" s="5" t="n">
+      <c r="T22" s="6" t="n">
         <v>45639</v>
       </c>
-      <c r="U22" s="4" t="inlineStr"/>
-      <c r="V22" s="4" t="inlineStr">
+      <c r="U22" s="5" t="inlineStr"/>
+      <c r="V22" s="5" t="inlineStr">
         <is>
           <t>January 28,2025</t>
         </is>
       </c>
-      <c r="W22" s="5" t="n">
+      <c r="W22" s="6" t="n">
         <v>45727</v>
       </c>
-      <c r="X22" s="5" t="n">
+      <c r="X22" s="6" t="n">
         <v>45733</v>
       </c>
-      <c r="Y22" s="4" t="inlineStr">
+      <c r="Y22" s="5" t="inlineStr">
         <is>
           <t>UPSCALE BUILDERS AND SUPPLY CORPORATION</t>
         </is>
       </c>
-      <c r="Z22" s="4" t="inlineStr">
+      <c r="Z22" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION ON GOING</t>
         </is>
       </c>
-      <c r="AA22" s="4" t="n"/>
+      <c r="AA22" s="7" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="inlineStr">
+      <c r="A23" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B23" s="4" t="inlineStr">
+      <c r="B23" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C23" s="4" t="inlineStr">
+      <c r="C23" s="5" t="inlineStr">
         <is>
           <t>Sarangani</t>
         </is>
       </c>
-      <c r="D23" s="4" t="n">
+      <c r="D23" s="5" t="n">
         <v>500829</v>
       </c>
-      <c r="E23" s="4" t="inlineStr">
+      <c r="E23" s="5" t="inlineStr">
         <is>
           <t>Panambalan Integrated School</t>
         </is>
       </c>
-      <c r="F23" s="4" t="inlineStr">
+      <c r="F23" s="5" t="inlineStr">
         <is>
           <t>GLAN</t>
         </is>
       </c>
-      <c r="G23" s="4" t="inlineStr">
+      <c r="G23" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H23" s="4" t="n">
+      <c r="H23" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I23" s="4" t="n">
+      <c r="I23" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="J23" s="4" t="inlineStr">
+      <c r="J23" s="5" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K23" s="4" t="n">
+      <c r="K23" s="5" t="n">
         <v>13029145.87</v>
       </c>
-      <c r="L23" s="4" t="inlineStr">
+      <c r="L23" s="5" t="inlineStr">
         <is>
           <t>1- R</t>
         </is>
       </c>
-      <c r="M23" s="4" t="inlineStr"/>
-      <c r="N23" s="4" t="inlineStr">
+      <c r="M23" s="5" t="inlineStr"/>
+      <c r="N23" s="5" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
       </c>
-      <c r="O23" s="4" t="n">
+      <c r="O23" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P23" s="4" t="inlineStr"/>
-      <c r="Q23" s="4" t="inlineStr"/>
-      <c r="R23" s="4" t="inlineStr"/>
-      <c r="S23" s="4" t="inlineStr"/>
-      <c r="T23" s="4" t="inlineStr"/>
-      <c r="U23" s="4" t="inlineStr"/>
-      <c r="V23" s="5" t="n">
+      <c r="P23" s="5" t="inlineStr"/>
+      <c r="Q23" s="5" t="inlineStr"/>
+      <c r="R23" s="5" t="inlineStr"/>
+      <c r="S23" s="5" t="inlineStr"/>
+      <c r="T23" s="5" t="inlineStr"/>
+      <c r="U23" s="5" t="inlineStr"/>
+      <c r="V23" s="6" t="n">
         <v>45755</v>
       </c>
-      <c r="W23" s="4" t="inlineStr"/>
-      <c r="X23" s="4" t="inlineStr"/>
-      <c r="Y23" s="4" t="inlineStr"/>
-      <c r="Z23" s="4" t="inlineStr">
+      <c r="W23" s="5" t="inlineStr"/>
+      <c r="X23" s="5" t="inlineStr"/>
+      <c r="Y23" s="5" t="inlineStr"/>
+      <c r="Z23" s="5" t="inlineStr">
         <is>
           <t>BID EVALUATION</t>
         </is>
       </c>
-      <c r="AA23" s="4" t="n"/>
+      <c r="AA23" s="7" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="inlineStr">
+      <c r="A24" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr">
+      <c r="B24" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C24" s="4" t="inlineStr">
+      <c r="C24" s="5" t="inlineStr">
         <is>
           <t>Sarangani</t>
         </is>
       </c>
-      <c r="D24" s="4" t="n">
+      <c r="D24" s="5" t="n">
         <v>501281</v>
       </c>
-      <c r="E24" s="4" t="inlineStr">
+      <c r="E24" s="5" t="inlineStr">
         <is>
           <t>Prudencio Mariano Sr. Integrated School</t>
         </is>
       </c>
-      <c r="F24" s="4" t="inlineStr">
+      <c r="F24" s="5" t="inlineStr">
         <is>
           <t>GLAN</t>
         </is>
       </c>
-      <c r="G24" s="4" t="inlineStr">
+      <c r="G24" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H24" s="4" t="n">
+      <c r="H24" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I24" s="4" t="n">
+      <c r="I24" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="J24" s="4" t="inlineStr">
+      <c r="J24" s="5" t="inlineStr">
         <is>
           <t>1STY3CL 1STY2CL</t>
         </is>
       </c>
-      <c r="K24" s="4" t="n">
+      <c r="K24" s="5" t="n">
         <v>12309649.43</v>
       </c>
-      <c r="L24" s="4" t="inlineStr">
+      <c r="L24" s="5" t="inlineStr">
         <is>
           <t>1- NC</t>
         </is>
       </c>
-      <c r="M24" s="4" t="n">
+      <c r="M24" s="5" t="n">
         <v>12288654.75</v>
       </c>
-      <c r="N24" s="4" t="inlineStr">
+      <c r="N24" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="O24" s="4" t="n">
+      <c r="O24" s="5" t="n">
         <v>0.2182</v>
       </c>
-      <c r="P24" s="5" t="n">
+      <c r="P24" s="6" t="n">
         <v>45917</v>
       </c>
-      <c r="Q24" s="4" t="inlineStr"/>
-      <c r="R24" s="4" t="inlineStr"/>
-      <c r="S24" s="4" t="inlineStr">
+      <c r="Q24" s="5" t="inlineStr"/>
+      <c r="R24" s="5" t="inlineStr"/>
+      <c r="S24" s="5" t="inlineStr">
         <is>
           <t>2025I-03-004</t>
         </is>
       </c>
-      <c r="T24" s="5" t="n">
+      <c r="T24" s="6" t="n">
         <v>45639</v>
       </c>
-      <c r="U24" s="4" t="inlineStr"/>
-      <c r="V24" s="4" t="inlineStr">
+      <c r="U24" s="5" t="inlineStr"/>
+      <c r="V24" s="5" t="inlineStr">
         <is>
           <t>January 28,2025</t>
         </is>
       </c>
-      <c r="W24" s="5" t="n">
+      <c r="W24" s="6" t="n">
         <v>45727</v>
       </c>
-      <c r="X24" s="5" t="n">
+      <c r="X24" s="6" t="n">
         <v>45737</v>
       </c>
-      <c r="Y24" s="4" t="inlineStr">
+      <c r="Y24" s="5" t="inlineStr">
         <is>
           <t>MANUELA CONSTRUCTION SERVICES</t>
         </is>
       </c>
-      <c r="Z24" s="4" t="inlineStr">
+      <c r="Z24" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION ON GOING</t>
         </is>
       </c>
-      <c r="AA24" s="4" t="n"/>
+      <c r="AA24" s="7" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="inlineStr">
+      <c r="A25" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr">
+      <c r="B25" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C25" s="4" t="inlineStr">
+      <c r="C25" s="5" t="inlineStr">
         <is>
           <t>Sarangani</t>
         </is>
       </c>
-      <c r="D25" s="4" t="n">
+      <c r="D25" s="5" t="n">
         <v>502228</v>
       </c>
-      <c r="E25" s="4" t="inlineStr">
+      <c r="E25" s="5" t="inlineStr">
         <is>
           <t>CALONKAMBING INTEGRATED SCHOOL</t>
         </is>
       </c>
-      <c r="F25" s="4" t="inlineStr">
+      <c r="F25" s="5" t="inlineStr">
         <is>
           <t>GLAN</t>
         </is>
       </c>
-      <c r="G25" s="4" t="inlineStr">
+      <c r="G25" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H25" s="4" t="n">
+      <c r="H25" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I25" s="4" t="n">
+      <c r="I25" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J25" s="4" t="inlineStr">
+      <c r="J25" s="5" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K25" s="4" t="n">
+      <c r="K25" s="5" t="n">
         <v>1010642.25</v>
       </c>
-      <c r="L25" s="4" t="inlineStr">
+      <c r="L25" s="5" t="inlineStr">
         <is>
           <t>1- R</t>
         </is>
       </c>
-      <c r="M25" s="4" t="inlineStr"/>
-      <c r="N25" s="4" t="inlineStr">
+      <c r="M25" s="5" t="inlineStr"/>
+      <c r="N25" s="5" t="inlineStr">
         <is>
           <t>Not Yet Started</t>
         </is>
       </c>
-      <c r="O25" s="4" t="n">
+      <c r="O25" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P25" s="4" t="inlineStr"/>
-      <c r="Q25" s="4" t="inlineStr"/>
-      <c r="R25" s="4" t="inlineStr"/>
-      <c r="S25" s="4" t="inlineStr"/>
-      <c r="T25" s="5" t="n">
+      <c r="P25" s="5" t="inlineStr"/>
+      <c r="Q25" s="5" t="inlineStr"/>
+      <c r="R25" s="5" t="inlineStr"/>
+      <c r="S25" s="5" t="inlineStr"/>
+      <c r="T25" s="6" t="n">
         <v>45693</v>
       </c>
-      <c r="U25" s="4" t="inlineStr"/>
-      <c r="V25" s="4" t="inlineStr">
+      <c r="U25" s="5" t="inlineStr"/>
+      <c r="V25" s="5" t="inlineStr">
         <is>
           <t>February 25,2025</t>
         </is>
       </c>
-      <c r="W25" s="4" t="inlineStr"/>
-      <c r="X25" s="4" t="inlineStr"/>
-      <c r="Y25" s="4" t="inlineStr"/>
-      <c r="Z25" s="4" t="inlineStr">
+      <c r="W25" s="5" t="inlineStr"/>
+      <c r="X25" s="5" t="inlineStr"/>
+      <c r="Y25" s="5" t="inlineStr"/>
+      <c r="Z25" s="5" t="inlineStr">
         <is>
           <t>FOR AWARD</t>
         </is>
       </c>
-      <c r="AA25" s="4" t="n"/>
+      <c r="AA25" s="7" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="inlineStr">
+      <c r="A26" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B26" s="4" t="inlineStr">
+      <c r="B26" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C26" s="4" t="inlineStr">
+      <c r="C26" s="5" t="inlineStr">
         <is>
           <t>Sarangani</t>
         </is>
       </c>
-      <c r="D26" s="4" t="n">
+      <c r="D26" s="5" t="n">
         <v>304537</v>
       </c>
-      <c r="E26" s="4" t="inlineStr">
+      <c r="E26" s="5" t="inlineStr">
         <is>
           <t>Malapatan NHS</t>
         </is>
       </c>
-      <c r="F26" s="4" t="inlineStr">
+      <c r="F26" s="5" t="inlineStr">
         <is>
           <t>MALAPATAN</t>
         </is>
       </c>
-      <c r="G26" s="4" t="inlineStr">
+      <c r="G26" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H26" s="4" t="n">
+      <c r="H26" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I26" s="4" t="n">
+      <c r="I26" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="J26" s="4" t="inlineStr">
+      <c r="J26" s="5" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K26" s="4" t="n">
+      <c r="K26" s="5" t="n">
         <v>437548.03</v>
       </c>
-      <c r="L26" s="4" t="inlineStr">
+      <c r="L26" s="5" t="inlineStr">
         <is>
           <t>1- R</t>
         </is>
       </c>
-      <c r="M26" s="4" t="inlineStr"/>
-      <c r="N26" s="4" t="inlineStr">
+      <c r="M26" s="5" t="inlineStr"/>
+      <c r="N26" s="5" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
       </c>
-      <c r="O26" s="4" t="n">
+      <c r="O26" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P26" s="4" t="inlineStr"/>
-      <c r="Q26" s="4" t="inlineStr"/>
-      <c r="R26" s="4" t="inlineStr"/>
-      <c r="S26" s="4" t="inlineStr"/>
-      <c r="T26" s="4" t="inlineStr"/>
-      <c r="U26" s="4" t="inlineStr"/>
-      <c r="V26" s="5" t="n">
+      <c r="P26" s="5" t="inlineStr"/>
+      <c r="Q26" s="5" t="inlineStr"/>
+      <c r="R26" s="5" t="inlineStr"/>
+      <c r="S26" s="5" t="inlineStr"/>
+      <c r="T26" s="5" t="inlineStr"/>
+      <c r="U26" s="5" t="inlineStr"/>
+      <c r="V26" s="6" t="n">
         <v>45762</v>
       </c>
-      <c r="W26" s="4" t="inlineStr"/>
-      <c r="X26" s="4" t="inlineStr"/>
-      <c r="Y26" s="4" t="inlineStr"/>
-      <c r="Z26" s="4" t="inlineStr">
+      <c r="W26" s="5" t="inlineStr"/>
+      <c r="X26" s="5" t="inlineStr"/>
+      <c r="Y26" s="5" t="inlineStr"/>
+      <c r="Z26" s="5" t="inlineStr">
         <is>
           <t>BID EVALUATION</t>
         </is>
       </c>
-      <c r="AA26" s="4" t="n"/>
+      <c r="AA26" s="7" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="inlineStr">
+      <c r="A27" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B27" s="4" t="inlineStr">
+      <c r="B27" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C27" s="4" t="inlineStr">
+      <c r="C27" s="5" t="inlineStr">
         <is>
           <t>South Cotabato</t>
         </is>
       </c>
-      <c r="D27" s="4" t="n">
+      <c r="D27" s="5" t="n">
         <v>130693</v>
       </c>
-      <c r="E27" s="4" t="inlineStr">
+      <c r="E27" s="5" t="inlineStr">
         <is>
           <t>Ubo Elementary School</t>
         </is>
       </c>
-      <c r="F27" s="4" t="inlineStr">
+      <c r="F27" s="5" t="inlineStr">
         <is>
           <t>LAKE SEBU</t>
         </is>
       </c>
-      <c r="G27" s="4" t="inlineStr">
+      <c r="G27" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H27" s="4" t="n">
+      <c r="H27" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I27" s="4" t="n">
+      <c r="I27" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J27" s="4" t="inlineStr">
+      <c r="J27" s="5" t="inlineStr">
         <is>
           <t>2-UNITS 1STY2CL</t>
         </is>
       </c>
-      <c r="K27" s="4" t="n">
+      <c r="K27" s="5" t="n">
         <v>11873019.44</v>
       </c>
-      <c r="L27" s="4" t="inlineStr">
+      <c r="L27" s="5" t="inlineStr">
         <is>
           <t>1- NC</t>
         </is>
       </c>
-      <c r="M27" s="4" t="n">
+      <c r="M27" s="5" t="n">
         <v>9669539.93</v>
       </c>
-      <c r="N27" s="4" t="inlineStr">
+      <c r="N27" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="O27" s="4" t="n">
+      <c r="O27" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P27" s="4" t="inlineStr"/>
-      <c r="Q27" s="4" t="inlineStr"/>
-      <c r="R27" s="4" t="inlineStr"/>
-      <c r="S27" s="4" t="inlineStr"/>
-      <c r="T27" s="4" t="inlineStr"/>
-      <c r="U27" s="4" t="inlineStr"/>
-      <c r="V27" s="4" t="inlineStr"/>
-      <c r="W27" s="4" t="inlineStr"/>
-      <c r="X27" s="4" t="inlineStr"/>
-      <c r="Y27" s="4" t="inlineStr"/>
-      <c r="Z27" s="4" t="inlineStr"/>
-      <c r="AA27" s="4" t="n"/>
+      <c r="P27" s="5" t="inlineStr"/>
+      <c r="Q27" s="5" t="inlineStr"/>
+      <c r="R27" s="5" t="inlineStr"/>
+      <c r="S27" s="5" t="inlineStr"/>
+      <c r="T27" s="5" t="inlineStr"/>
+      <c r="U27" s="5" t="inlineStr"/>
+      <c r="V27" s="5" t="inlineStr"/>
+      <c r="W27" s="5" t="inlineStr"/>
+      <c r="X27" s="5" t="inlineStr"/>
+      <c r="Y27" s="5" t="inlineStr"/>
+      <c r="Z27" s="5" t="inlineStr"/>
+      <c r="AA27" s="7" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="inlineStr">
+      <c r="A28" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B28" s="4" t="inlineStr">
+      <c r="B28" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C28" s="4" t="inlineStr">
+      <c r="C28" s="5" t="inlineStr">
         <is>
           <t>South Cotabato</t>
         </is>
       </c>
-      <c r="D28" s="4" t="n">
+      <c r="D28" s="5" t="n">
         <v>130860</v>
       </c>
-      <c r="E28" s="4" t="inlineStr">
+      <c r="E28" s="5" t="inlineStr">
         <is>
           <t>Lampitak Elementary School</t>
         </is>
       </c>
-      <c r="F28" s="4" t="inlineStr">
+      <c r="F28" s="5" t="inlineStr">
         <is>
           <t>TAMPAKAN</t>
         </is>
       </c>
-      <c r="G28" s="4" t="inlineStr">
+      <c r="G28" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H28" s="4" t="n">
+      <c r="H28" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I28" s="4" t="n">
+      <c r="I28" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J28" s="4" t="inlineStr">
+      <c r="J28" s="5" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K28" s="4" t="n">
+      <c r="K28" s="5" t="n">
         <v>2964223.54</v>
       </c>
-      <c r="L28" s="4" t="inlineStr">
+      <c r="L28" s="5" t="inlineStr">
         <is>
           <t>1- R</t>
         </is>
       </c>
-      <c r="M28" s="4" t="n">
+      <c r="M28" s="5" t="n">
         <v>2103002.51</v>
       </c>
-      <c r="N28" s="4" t="inlineStr">
+      <c r="N28" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="O28" s="4" t="n">
+      <c r="O28" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P28" s="4" t="inlineStr"/>
-      <c r="Q28" s="4" t="inlineStr"/>
-      <c r="R28" s="4" t="inlineStr"/>
-      <c r="S28" s="4" t="inlineStr"/>
-      <c r="T28" s="4" t="inlineStr"/>
-      <c r="U28" s="4" t="inlineStr"/>
-      <c r="V28" s="4" t="inlineStr"/>
-      <c r="W28" s="4" t="inlineStr"/>
-      <c r="X28" s="4" t="inlineStr"/>
-      <c r="Y28" s="4" t="inlineStr"/>
-      <c r="Z28" s="4" t="inlineStr"/>
-      <c r="AA28" s="4" t="n"/>
+      <c r="P28" s="5" t="inlineStr"/>
+      <c r="Q28" s="5" t="inlineStr"/>
+      <c r="R28" s="5" t="inlineStr"/>
+      <c r="S28" s="5" t="inlineStr"/>
+      <c r="T28" s="5" t="inlineStr"/>
+      <c r="U28" s="5" t="inlineStr"/>
+      <c r="V28" s="5" t="inlineStr"/>
+      <c r="W28" s="5" t="inlineStr"/>
+      <c r="X28" s="5" t="inlineStr"/>
+      <c r="Y28" s="5" t="inlineStr"/>
+      <c r="Z28" s="5" t="inlineStr"/>
+      <c r="AA28" s="7" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="inlineStr">
+      <c r="A29" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B29" s="4" t="inlineStr">
+      <c r="B29" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C29" s="4" t="inlineStr">
+      <c r="C29" s="5" t="inlineStr">
         <is>
           <t>South Cotabato</t>
         </is>
       </c>
-      <c r="D29" s="4" t="n">
+      <c r="D29" s="5" t="n">
         <v>130869</v>
       </c>
-      <c r="E29" s="4" t="inlineStr">
+      <c r="E29" s="5" t="inlineStr">
         <is>
           <t>Eleonor D. Belotindos Elementary School</t>
         </is>
       </c>
-      <c r="F29" s="4" t="inlineStr">
+      <c r="F29" s="5" t="inlineStr">
         <is>
           <t>TANTANGAN</t>
         </is>
       </c>
-      <c r="G29" s="4" t="inlineStr">
+      <c r="G29" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H29" s="4" t="n">
+      <c r="H29" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I29" s="4" t="n">
+      <c r="I29" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J29" s="4" t="inlineStr">
+      <c r="J29" s="5" t="inlineStr">
         <is>
           <t>1STY2CL</t>
         </is>
       </c>
-      <c r="K29" s="4" t="n">
+      <c r="K29" s="5" t="n">
         <v>5805259.72</v>
       </c>
-      <c r="L29" s="4" t="inlineStr">
+      <c r="L29" s="5" t="inlineStr">
         <is>
           <t>1- NC</t>
         </is>
       </c>
-      <c r="M29" s="4" t="n">
+      <c r="M29" s="5" t="n">
         <v>4884842.52</v>
       </c>
-      <c r="N29" s="4" t="inlineStr">
+      <c r="N29" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="O29" s="4" t="n">
+      <c r="O29" s="5" t="n">
         <v>0.08</v>
       </c>
-      <c r="P29" s="4" t="inlineStr"/>
-      <c r="Q29" s="4" t="inlineStr"/>
-      <c r="R29" s="4" t="inlineStr"/>
-      <c r="S29" s="4" t="inlineStr"/>
-      <c r="T29" s="4" t="inlineStr"/>
-      <c r="U29" s="4" t="inlineStr"/>
-      <c r="V29" s="4" t="inlineStr"/>
-      <c r="W29" s="4" t="inlineStr"/>
-      <c r="X29" s="4" t="inlineStr"/>
-      <c r="Y29" s="4" t="inlineStr"/>
-      <c r="Z29" s="4" t="inlineStr"/>
-      <c r="AA29" s="4" t="n"/>
+      <c r="P29" s="5" t="inlineStr"/>
+      <c r="Q29" s="5" t="inlineStr"/>
+      <c r="R29" s="5" t="inlineStr"/>
+      <c r="S29" s="5" t="inlineStr"/>
+      <c r="T29" s="5" t="inlineStr"/>
+      <c r="U29" s="5" t="inlineStr"/>
+      <c r="V29" s="5" t="inlineStr"/>
+      <c r="W29" s="5" t="inlineStr"/>
+      <c r="X29" s="5" t="inlineStr"/>
+      <c r="Y29" s="5" t="inlineStr"/>
+      <c r="Z29" s="5" t="inlineStr"/>
+      <c r="AA29" s="7" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="inlineStr">
+      <c r="A30" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B30" s="4" t="inlineStr">
+      <c r="B30" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C30" s="4" t="inlineStr">
+      <c r="C30" s="5" t="inlineStr">
         <is>
           <t>South Cotabato</t>
         </is>
       </c>
-      <c r="D30" s="4" t="n">
+      <c r="D30" s="5" t="n">
         <v>304560</v>
       </c>
-      <c r="E30" s="4" t="inlineStr">
+      <c r="E30" s="5" t="inlineStr">
         <is>
           <t>Polomolok National High School</t>
         </is>
       </c>
-      <c r="F30" s="4" t="inlineStr">
+      <c r="F30" s="5" t="inlineStr">
         <is>
           <t>POLOMOLOK</t>
         </is>
       </c>
-      <c r="G30" s="4" t="inlineStr">
+      <c r="G30" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H30" s="4" t="n">
+      <c r="H30" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I30" s="4" t="n">
+      <c r="I30" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="J30" s="4" t="inlineStr">
+      <c r="J30" s="5" t="inlineStr">
         <is>
           <t>1STY3CL AND 2STY6CL</t>
         </is>
       </c>
-      <c r="K30" s="4" t="n">
+      <c r="K30" s="5" t="n">
         <v>26103951.7</v>
       </c>
-      <c r="L30" s="4" t="inlineStr">
+      <c r="L30" s="5" t="inlineStr">
         <is>
           <t>1- NC</t>
         </is>
       </c>
-      <c r="M30" s="4" t="n">
+      <c r="M30" s="5" t="n">
         <v>23232517</v>
       </c>
-      <c r="N30" s="4" t="inlineStr">
+      <c r="N30" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="O30" s="4" t="n">
+      <c r="O30" s="5" t="n">
         <v>0.06</v>
       </c>
-      <c r="P30" s="4" t="inlineStr"/>
-      <c r="Q30" s="4" t="inlineStr"/>
-      <c r="R30" s="4" t="inlineStr"/>
-      <c r="S30" s="4" t="inlineStr"/>
-      <c r="T30" s="4" t="inlineStr"/>
-      <c r="U30" s="4" t="inlineStr"/>
-      <c r="V30" s="4" t="inlineStr"/>
-      <c r="W30" s="4" t="inlineStr"/>
-      <c r="X30" s="4" t="inlineStr"/>
-      <c r="Y30" s="4" t="inlineStr"/>
-      <c r="Z30" s="4" t="inlineStr"/>
-      <c r="AA30" s="4" t="n"/>
+      <c r="P30" s="5" t="inlineStr"/>
+      <c r="Q30" s="5" t="inlineStr"/>
+      <c r="R30" s="5" t="inlineStr"/>
+      <c r="S30" s="5" t="inlineStr"/>
+      <c r="T30" s="5" t="inlineStr"/>
+      <c r="U30" s="5" t="inlineStr"/>
+      <c r="V30" s="5" t="inlineStr"/>
+      <c r="W30" s="5" t="inlineStr"/>
+      <c r="X30" s="5" t="inlineStr"/>
+      <c r="Y30" s="5" t="inlineStr"/>
+      <c r="Z30" s="5" t="inlineStr"/>
+      <c r="AA30" s="7" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="inlineStr">
+      <c r="A31" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B31" s="4" t="inlineStr">
+      <c r="B31" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C31" s="4" t="inlineStr">
+      <c r="C31" s="5" t="inlineStr">
         <is>
           <t>South Cotabato</t>
         </is>
       </c>
-      <c r="D31" s="4" t="n">
+      <c r="D31" s="5" t="n">
         <v>501991</v>
       </c>
-      <c r="E31" s="4" t="inlineStr">
+      <c r="E31" s="5" t="inlineStr">
         <is>
           <t>Dumadalig Integrated School</t>
         </is>
       </c>
-      <c r="F31" s="4" t="inlineStr">
+      <c r="F31" s="5" t="inlineStr">
         <is>
           <t>TANTANGAN</t>
         </is>
       </c>
-      <c r="G31" s="4" t="inlineStr">
+      <c r="G31" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H31" s="4" t="n">
+      <c r="H31" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I31" s="4" t="n">
+      <c r="I31" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J31" s="4" t="inlineStr">
+      <c r="J31" s="5" t="inlineStr">
         <is>
           <t>1STY2CL</t>
         </is>
       </c>
-      <c r="K31" s="4" t="n">
+      <c r="K31" s="5" t="n">
         <v>5805259.72</v>
       </c>
-      <c r="L31" s="4" t="inlineStr">
+      <c r="L31" s="5" t="inlineStr">
         <is>
           <t>1- NC</t>
         </is>
       </c>
-      <c r="M31" s="4" t="n">
+      <c r="M31" s="5" t="n">
         <v>5114680.91</v>
       </c>
-      <c r="N31" s="4" t="inlineStr">
+      <c r="N31" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="O31" s="4" t="n">
+      <c r="O31" s="5" t="n">
         <v>0.02</v>
       </c>
-      <c r="P31" s="4" t="inlineStr"/>
-      <c r="Q31" s="4" t="inlineStr"/>
-      <c r="R31" s="4" t="inlineStr"/>
-      <c r="S31" s="4" t="inlineStr"/>
-      <c r="T31" s="4" t="inlineStr"/>
-      <c r="U31" s="4" t="inlineStr"/>
-      <c r="V31" s="4" t="inlineStr"/>
-      <c r="W31" s="4" t="inlineStr"/>
-      <c r="X31" s="4" t="inlineStr"/>
-      <c r="Y31" s="4" t="inlineStr"/>
-      <c r="Z31" s="4" t="inlineStr"/>
-      <c r="AA31" s="4" t="n"/>
+      <c r="P31" s="5" t="inlineStr"/>
+      <c r="Q31" s="5" t="inlineStr"/>
+      <c r="R31" s="5" t="inlineStr"/>
+      <c r="S31" s="5" t="inlineStr"/>
+      <c r="T31" s="5" t="inlineStr"/>
+      <c r="U31" s="5" t="inlineStr"/>
+      <c r="V31" s="5" t="inlineStr"/>
+      <c r="W31" s="5" t="inlineStr"/>
+      <c r="X31" s="5" t="inlineStr"/>
+      <c r="Y31" s="5" t="inlineStr"/>
+      <c r="Z31" s="5" t="inlineStr"/>
+      <c r="AA31" s="7" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="inlineStr">
+      <c r="A32" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B32" s="4" t="inlineStr">
+      <c r="B32" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C32" s="4" t="inlineStr">
+      <c r="C32" s="5" t="inlineStr">
         <is>
           <t>South Cotabato</t>
         </is>
       </c>
-      <c r="D32" s="4" t="n">
+      <c r="D32" s="5" t="n">
         <v>502376</v>
       </c>
-      <c r="E32" s="4" t="inlineStr">
+      <c r="E32" s="5" t="inlineStr">
         <is>
           <t>Cinco Integrated School</t>
         </is>
       </c>
-      <c r="F32" s="4" t="inlineStr">
+      <c r="F32" s="5" t="inlineStr">
         <is>
           <t>BANGA</t>
         </is>
       </c>
-      <c r="G32" s="4" t="inlineStr">
+      <c r="G32" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H32" s="4" t="n">
+      <c r="H32" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I32" s="4" t="n">
+      <c r="I32" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J32" s="4" t="inlineStr">
+      <c r="J32" s="5" t="inlineStr">
         <is>
           <t>1STY2CL</t>
         </is>
       </c>
-      <c r="K32" s="4" t="n">
+      <c r="K32" s="5" t="n">
         <v>5805259.72</v>
       </c>
-      <c r="L32" s="4" t="inlineStr">
+      <c r="L32" s="5" t="inlineStr">
         <is>
           <t>1- NC</t>
         </is>
       </c>
-      <c r="M32" s="4" t="n">
+      <c r="M32" s="5" t="n">
         <v>4329799.25</v>
       </c>
-      <c r="N32" s="4" t="inlineStr">
+      <c r="N32" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="O32" s="4" t="n">
+      <c r="O32" s="5" t="n">
         <v>0.05</v>
       </c>
-      <c r="P32" s="4" t="inlineStr"/>
-      <c r="Q32" s="4" t="inlineStr"/>
-      <c r="R32" s="4" t="inlineStr"/>
-      <c r="S32" s="4" t="inlineStr"/>
-      <c r="T32" s="4" t="inlineStr"/>
-      <c r="U32" s="4" t="inlineStr"/>
-      <c r="V32" s="4" t="inlineStr"/>
-      <c r="W32" s="4" t="inlineStr"/>
-      <c r="X32" s="4" t="inlineStr"/>
-      <c r="Y32" s="4" t="inlineStr"/>
-      <c r="Z32" s="4" t="inlineStr"/>
-      <c r="AA32" s="4" t="n"/>
+      <c r="P32" s="5" t="inlineStr"/>
+      <c r="Q32" s="5" t="inlineStr"/>
+      <c r="R32" s="5" t="inlineStr"/>
+      <c r="S32" s="5" t="inlineStr"/>
+      <c r="T32" s="5" t="inlineStr"/>
+      <c r="U32" s="5" t="inlineStr"/>
+      <c r="V32" s="5" t="inlineStr"/>
+      <c r="W32" s="5" t="inlineStr"/>
+      <c r="X32" s="5" t="inlineStr"/>
+      <c r="Y32" s="5" t="inlineStr"/>
+      <c r="Z32" s="5" t="inlineStr"/>
+      <c r="AA32" s="7" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="inlineStr">
+      <c r="A33" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B33" s="4" t="inlineStr">
+      <c r="B33" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C33" s="4" t="inlineStr">
+      <c r="C33" s="5" t="inlineStr">
         <is>
           <t>Sultan Kudarat</t>
         </is>
       </c>
-      <c r="D33" s="4" t="n">
+      <c r="D33" s="5" t="n">
         <v>304605</v>
       </c>
-      <c r="E33" s="4" t="inlineStr">
+      <c r="E33" s="5" t="inlineStr">
         <is>
           <t>Lebak Legislated National High School</t>
         </is>
       </c>
-      <c r="F33" s="4" t="inlineStr">
+      <c r="F33" s="5" t="inlineStr">
         <is>
           <t>LEBAK</t>
         </is>
       </c>
-      <c r="G33" s="4" t="inlineStr">
+      <c r="G33" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H33" s="4" t="n">
+      <c r="H33" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I33" s="4" t="n">
+      <c r="I33" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="J33" s="4" t="inlineStr">
+      <c r="J33" s="5" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K33" s="4" t="n">
+      <c r="K33" s="5" t="n">
         <v>1794219.49</v>
       </c>
-      <c r="L33" s="4" t="inlineStr">
+      <c r="L33" s="5" t="inlineStr">
         <is>
           <t>1- R</t>
         </is>
       </c>
-      <c r="M33" s="4" t="n">
+      <c r="M33" s="5" t="n">
         <v>1739342.82</v>
       </c>
-      <c r="N33" s="4" t="inlineStr">
+      <c r="N33" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O33" s="4" t="n">
+      <c r="O33" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P33" s="5" t="n">
+      <c r="P33" s="6" t="n">
         <v>45761</v>
       </c>
-      <c r="Q33" s="5" t="n">
+      <c r="Q33" s="6" t="n">
         <v>45740</v>
       </c>
-      <c r="R33" s="4" t="inlineStr">
+      <c r="R33" s="5" t="inlineStr">
         <is>
           <t>24-11-028</t>
         </is>
       </c>
-      <c r="S33" s="4" t="inlineStr">
+      <c r="S33" s="5" t="inlineStr">
         <is>
           <t>24-11-028</t>
         </is>
       </c>
-      <c r="T33" s="5" t="n">
+      <c r="T33" s="6" t="n">
         <v>45608</v>
       </c>
-      <c r="U33" s="5" t="n">
+      <c r="U33" s="6" t="n">
         <v>45616</v>
       </c>
-      <c r="V33" s="5" t="n">
+      <c r="V33" s="6" t="n">
         <v>45628</v>
       </c>
-      <c r="W33" s="5" t="n">
+      <c r="W33" s="6" t="n">
         <v>45636</v>
       </c>
-      <c r="X33" s="5" t="n">
+      <c r="X33" s="6" t="n">
         <v>45653</v>
       </c>
-      <c r="Y33" s="4" t="inlineStr">
+      <c r="Y33" s="5" t="inlineStr">
         <is>
           <t>JV Constech</t>
         </is>
       </c>
-      <c r="Z33" s="4" t="inlineStr"/>
-      <c r="AA33" s="4" t="n"/>
+      <c r="Z33" s="5" t="inlineStr"/>
+      <c r="AA33" s="7" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Filtered_By_Region/Region XII/Region XII_QRF.xlsx
+++ b/Filtered_By_Region/Region XII/Region XII_QRF.xlsx
@@ -490,7 +490,7 @@
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
-          <t>REGION</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="C1" s="3" t="inlineStr">

--- a/Filtered_By_Region/Region XII/Region XII_QRF.xlsx
+++ b/Filtered_By_Region/Region XII/Region XII_QRF.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA33"/>
+  <dimension ref="A1:AB33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -453,645 +453,665 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="21" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="45" customWidth="1" min="5" max="5"/>
-    <col width="33" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="23" customWidth="1" min="9" max="9"/>
-    <col width="22" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="17" customWidth="1" min="13" max="13"/>
-    <col width="19" customWidth="1" min="14" max="14"/>
-    <col width="26" customWidth="1" min="15" max="15"/>
+    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="45" customWidth="1" min="6" max="6"/>
+    <col width="33" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="23" customWidth="1" min="10" max="10"/>
+    <col width="22" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="17" customWidth="1" min="14" max="14"/>
+    <col width="19" customWidth="1" min="15" max="15"/>
     <col width="26" customWidth="1" min="16" max="16"/>
-    <col width="27" customWidth="1" min="17" max="17"/>
-    <col width="17" customWidth="1" min="18" max="18"/>
-    <col width="14" customWidth="1" min="19" max="19"/>
-    <col width="31" customWidth="1" min="20" max="20"/>
-    <col width="27" customWidth="1" min="21" max="21"/>
-    <col width="21" customWidth="1" min="22" max="22"/>
-    <col width="33" customWidth="1" min="23" max="23"/>
-    <col width="31" customWidth="1" min="24" max="24"/>
-    <col width="41" customWidth="1" min="25" max="25"/>
-    <col width="40" customWidth="1" min="26" max="26"/>
-    <col width="28" customWidth="1" min="27" max="27"/>
+    <col width="26" customWidth="1" min="17" max="17"/>
+    <col width="27" customWidth="1" min="18" max="18"/>
+    <col width="17" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="31" customWidth="1" min="21" max="21"/>
+    <col width="27" customWidth="1" min="22" max="22"/>
+    <col width="21" customWidth="1" min="23" max="23"/>
+    <col width="33" customWidth="1" min="24" max="24"/>
+    <col width="31" customWidth="1" min="25" max="25"/>
+    <col width="41" customWidth="1" min="26" max="26"/>
+    <col width="40" customWidth="1" min="27" max="27"/>
+    <col width="28" customWidth="1" min="28" max="28"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
+          <t>INDEX (DO NOT MODIFY)</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
           <t>CATEGORY</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Region</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>DIVISION</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL ID</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL NAME</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>MUNICIPALITY</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>LD</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>TOTAL NO. OF SITES</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>TOTAL PHYSICAL TARGET</t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>SCOPE OF WORK</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>PROJECT ALLOCATION</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>BATCH</t>
         </is>
       </c>
-      <c r="M1" s="3" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>CONTRACT AMOUNT</t>
         </is>
       </c>
-      <c r="N1" s="3" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="O1" s="3" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t>PERCENTAGE OF COMPLETION</t>
         </is>
       </c>
-      <c r="P1" s="3" t="inlineStr">
+      <c r="Q1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Target Completion Date </t>
         </is>
       </c>
-      <c r="Q1" s="3" t="inlineStr">
+      <c r="R1" s="3" t="inlineStr">
         <is>
           <t>Actual Date of Completion</t>
         </is>
       </c>
-      <c r="R1" s="3" t="inlineStr">
+      <c r="S1" s="3" t="inlineStr">
         <is>
           <t>Project ID</t>
         </is>
       </c>
-      <c r="S1" s="3" t="inlineStr">
+      <c r="T1" s="3" t="inlineStr">
         <is>
           <t>Contract ID</t>
         </is>
       </c>
-      <c r="T1" s="3" t="inlineStr">
+      <c r="U1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Invitation to Bid</t>
         </is>
       </c>
-      <c r="U1" s="3" t="inlineStr">
+      <c r="V1" s="3" t="inlineStr">
         <is>
           <t>Pre-Submission Conference</t>
         </is>
       </c>
-      <c r="V1" s="3" t="inlineStr">
+      <c r="W1" s="3" t="inlineStr">
         <is>
           <t>Bid Opening</t>
         </is>
       </c>
-      <c r="W1" s="3" t="inlineStr">
+      <c r="X1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Resolution to Award</t>
         </is>
       </c>
-      <c r="X1" s="3" t="inlineStr">
+      <c r="Y1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Notice to Proceed</t>
         </is>
       </c>
-      <c r="Y1" s="3" t="inlineStr">
+      <c r="Z1" s="3" t="inlineStr">
         <is>
           <t>Name of Contractor</t>
         </is>
       </c>
-      <c r="Z1" s="3" t="inlineStr">
+      <c r="AA1" s="3" t="inlineStr">
         <is>
           <t>Other Remarks</t>
         </is>
       </c>
-      <c r="AA1" s="4" t="inlineStr">
+      <c r="AB1" s="4" t="inlineStr">
         <is>
           <t>Status as of July 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="inlineStr">
+      <c r="A2" s="5" t="n">
+        <v>3110</v>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>North Cotabato</t>
         </is>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="E2" s="5" t="n">
         <v>130297</v>
       </c>
-      <c r="E2" s="5" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>Pigcawayan CES</t>
         </is>
       </c>
-      <c r="F2" s="5" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>PIGKAWAYAN</t>
         </is>
       </c>
-      <c r="G2" s="5" t="inlineStr">
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H2" s="5" t="n">
+      <c r="I2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I2" s="5" t="n">
+      <c r="J2" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="J2" s="5" t="inlineStr">
+      <c r="K2" s="5" t="inlineStr">
         <is>
           <t>1STY6CL</t>
         </is>
       </c>
-      <c r="K2" s="5" t="n">
+      <c r="L2" s="5" t="n">
         <v>16500000</v>
       </c>
-      <c r="L2" s="5" t="inlineStr">
+      <c r="M2" s="5" t="inlineStr">
         <is>
           <t>2- NC</t>
         </is>
       </c>
-      <c r="M2" s="5" t="n">
+      <c r="N2" s="5" t="n">
         <v>13497000</v>
       </c>
-      <c r="N2" s="5" t="inlineStr">
+      <c r="O2" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O2" s="5" t="n">
+      <c r="P2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P2" s="6" t="n">
+      <c r="Q2" s="6" t="n">
         <v>45554</v>
       </c>
-      <c r="Q2" s="5" t="inlineStr"/>
       <c r="R2" s="5" t="inlineStr"/>
-      <c r="S2" s="5" t="inlineStr">
+      <c r="S2" s="5" t="inlineStr"/>
+      <c r="T2" s="5" t="inlineStr">
         <is>
           <t>122-2023</t>
         </is>
       </c>
-      <c r="T2" s="6" t="n">
+      <c r="U2" s="6" t="n">
         <v>45239</v>
       </c>
-      <c r="U2" s="6" t="n">
+      <c r="V2" s="6" t="n">
         <v>45245</v>
       </c>
-      <c r="V2" s="6" t="n">
+      <c r="W2" s="6" t="n">
         <v>45261</v>
       </c>
-      <c r="W2" s="6" t="n">
+      <c r="X2" s="6" t="n">
         <v>45316</v>
       </c>
-      <c r="X2" s="6" t="n">
+      <c r="Y2" s="6" t="n">
         <v>45341</v>
       </c>
-      <c r="Y2" s="5" t="inlineStr">
+      <c r="Z2" s="5" t="inlineStr">
         <is>
           <t>CABS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z2" s="5" t="inlineStr">
+      <c r="AA2" s="5" t="inlineStr">
         <is>
           <t>Completed subject for final inspection</t>
         </is>
       </c>
-      <c r="AA2" s="7" t="n"/>
+      <c r="AB2" s="7" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="inlineStr">
+      <c r="A3" s="5" t="n">
+        <v>3249</v>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="D3" s="5" t="inlineStr">
         <is>
           <t>General Santos City</t>
         </is>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="E3" s="5" t="n">
         <v>131278</v>
       </c>
-      <c r="E3" s="5" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>Labangal Elementary School</t>
         </is>
       </c>
-      <c r="F3" s="5" t="inlineStr">
+      <c r="G3" s="5" t="inlineStr">
         <is>
           <t>GENERAL SANTOS CITY (DADIANGAS)</t>
         </is>
       </c>
-      <c r="G3" s="5" t="inlineStr">
+      <c r="H3" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H3" s="5" t="n">
+      <c r="I3" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I3" s="5" t="n">
+      <c r="J3" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J3" s="5" t="inlineStr">
+      <c r="K3" s="5" t="inlineStr">
         <is>
           <t>1STY4CL</t>
         </is>
       </c>
-      <c r="K3" s="5" t="n">
+      <c r="L3" s="5" t="n">
         <v>11239295.18</v>
       </c>
-      <c r="L3" s="5" t="inlineStr">
+      <c r="M3" s="5" t="inlineStr">
         <is>
           <t>1- NC</t>
         </is>
       </c>
-      <c r="M3" s="5" t="n">
+      <c r="N3" s="5" t="n">
         <v>11239295.18</v>
       </c>
-      <c r="N3" s="5" t="inlineStr">
+      <c r="O3" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="O3" s="5" t="n">
+      <c r="P3" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="P3" s="5" t="inlineStr">
+      <c r="Q3" s="5" t="inlineStr">
         <is>
           <t>150CD</t>
         </is>
       </c>
-      <c r="Q3" s="5" t="inlineStr"/>
-      <c r="R3" s="5" t="inlineStr">
+      <c r="R3" s="5" t="inlineStr"/>
+      <c r="S3" s="5" t="inlineStr">
         <is>
           <t>003-2025</t>
         </is>
       </c>
-      <c r="S3" s="5" t="inlineStr"/>
-      <c r="T3" s="6" t="n">
-        <v>45665</v>
-      </c>
+      <c r="T3" s="5" t="inlineStr"/>
       <c r="U3" s="6" t="n">
         <v>45665</v>
       </c>
       <c r="V3" s="6" t="n">
+        <v>45665</v>
+      </c>
+      <c r="W3" s="6" t="n">
         <v>45678</v>
       </c>
-      <c r="W3" s="6" t="n">
+      <c r="X3" s="6" t="n">
         <v>45692</v>
       </c>
-      <c r="X3" s="6" t="n">
+      <c r="Y3" s="6" t="n">
         <v>45712</v>
       </c>
-      <c r="Y3" s="5" t="inlineStr">
+      <c r="Z3" s="5" t="inlineStr">
         <is>
           <t>LEIGHCHEEN CONSTRUCTION CORPORATION</t>
         </is>
       </c>
-      <c r="Z3" s="5" t="inlineStr">
+      <c r="AA3" s="5" t="inlineStr">
         <is>
           <t>On-Going Construction</t>
         </is>
       </c>
-      <c r="AA3" s="7" t="n"/>
+      <c r="AB3" s="7" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="inlineStr">
+      <c r="A4" s="5" t="n">
+        <v>3250</v>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="D4" s="5" t="inlineStr">
         <is>
           <t>General Santos City</t>
         </is>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="E4" s="5" t="n">
         <v>131314</v>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>Pedro Acharon Sr. Central Elementary School</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="G4" s="5" t="inlineStr">
         <is>
           <t>GENERAL SANTOS CITY (DADIANGAS)</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="H4" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
-      </c>
-      <c r="H4" s="5" t="n">
-        <v>1</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J4" s="5" t="inlineStr">
+      <c r="J4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="5" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K4" s="5" t="n">
+      <c r="L4" s="5" t="n">
         <v>348546.5</v>
       </c>
-      <c r="L4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>1- R</t>
         </is>
       </c>
-      <c r="M4" s="5" t="n">
+      <c r="N4" s="5" t="n">
         <v>348546.5</v>
       </c>
-      <c r="N4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="O4" s="5" t="n">
+      <c r="P4" s="5" t="n">
         <v>0.75</v>
       </c>
-      <c r="P4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>50CD</t>
         </is>
       </c>
-      <c r="Q4" s="5" t="inlineStr"/>
-      <c r="R4" s="5" t="inlineStr">
+      <c r="R4" s="5" t="inlineStr"/>
+      <c r="S4" s="5" t="inlineStr">
         <is>
           <t>004-2025- Lot 1</t>
         </is>
       </c>
-      <c r="S4" s="5" t="inlineStr"/>
-      <c r="T4" s="6" t="n">
-        <v>45665</v>
-      </c>
+      <c r="T4" s="5" t="inlineStr"/>
       <c r="U4" s="6" t="n">
         <v>45665</v>
       </c>
       <c r="V4" s="6" t="n">
+        <v>45665</v>
+      </c>
+      <c r="W4" s="6" t="n">
         <v>45678</v>
       </c>
-      <c r="W4" s="6" t="n">
+      <c r="X4" s="6" t="n">
         <v>45692</v>
       </c>
-      <c r="X4" s="6" t="n">
+      <c r="Y4" s="6" t="n">
         <v>45742</v>
       </c>
-      <c r="Y4" s="5" t="inlineStr">
+      <c r="Z4" s="5" t="inlineStr">
         <is>
           <t>BEBCON BUILDERS AND SUPPLY</t>
         </is>
       </c>
-      <c r="Z4" s="5" t="inlineStr">
+      <c r="AA4" s="5" t="inlineStr">
         <is>
           <t>On-Going Construction</t>
         </is>
       </c>
-      <c r="AA4" s="7" t="n"/>
+      <c r="AB4" s="7" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="inlineStr">
+      <c r="A5" s="5" t="n">
+        <v>3251</v>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="D5" s="5" t="inlineStr">
         <is>
           <t>General Santos City</t>
         </is>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="E5" s="5" t="n">
         <v>304637</v>
       </c>
-      <c r="E5" s="5" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr">
         <is>
           <t>Datu Andiam Manza National High School</t>
         </is>
       </c>
-      <c r="F5" s="5" t="inlineStr">
+      <c r="G5" s="5" t="inlineStr">
         <is>
           <t>GENERAL SANTOS CITY (DADIANGAS)</t>
         </is>
       </c>
-      <c r="G5" s="5" t="inlineStr">
+      <c r="H5" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H5" s="5" t="n">
+      <c r="I5" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I5" s="5" t="n">
+      <c r="J5" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="J5" s="5" t="inlineStr">
+      <c r="K5" s="5" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K5" s="5" t="n">
+      <c r="L5" s="5" t="n">
         <v>190230.76</v>
       </c>
-      <c r="L5" s="5" t="inlineStr">
+      <c r="M5" s="5" t="inlineStr">
         <is>
           <t>1- R</t>
         </is>
       </c>
-      <c r="M5" s="5" t="n">
+      <c r="N5" s="5" t="n">
         <v>190230.76</v>
       </c>
-      <c r="N5" s="5" t="inlineStr">
+      <c r="O5" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="O5" s="5" t="n">
+      <c r="P5" s="5" t="n">
         <v>0.85</v>
       </c>
-      <c r="P5" s="5" t="inlineStr">
+      <c r="Q5" s="5" t="inlineStr">
         <is>
           <t>45CD</t>
         </is>
       </c>
-      <c r="Q5" s="5" t="inlineStr"/>
-      <c r="R5" s="5" t="inlineStr">
+      <c r="R5" s="5" t="inlineStr"/>
+      <c r="S5" s="5" t="inlineStr">
         <is>
           <t>004-2025- Lot 2</t>
         </is>
       </c>
-      <c r="S5" s="5" t="inlineStr"/>
-      <c r="T5" s="6" t="n">
-        <v>45665</v>
-      </c>
+      <c r="T5" s="5" t="inlineStr"/>
       <c r="U5" s="6" t="n">
         <v>45665</v>
       </c>
       <c r="V5" s="6" t="n">
+        <v>45665</v>
+      </c>
+      <c r="W5" s="6" t="n">
         <v>45678</v>
       </c>
-      <c r="W5" s="6" t="n">
+      <c r="X5" s="6" t="n">
         <v>45692</v>
       </c>
-      <c r="X5" s="6" t="n">
+      <c r="Y5" s="6" t="n">
         <v>45742</v>
       </c>
-      <c r="Y5" s="5" t="inlineStr">
+      <c r="Z5" s="5" t="inlineStr">
         <is>
           <t>BEBCON BUILDERS AND SUPPLY</t>
         </is>
       </c>
-      <c r="Z5" s="5" t="inlineStr">
+      <c r="AA5" s="5" t="inlineStr">
         <is>
           <t>On-Going Construction</t>
         </is>
       </c>
-      <c r="AA5" s="7" t="n"/>
+      <c r="AB5" s="7" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="inlineStr">
+      <c r="A6" s="5" t="n">
+        <v>3252</v>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="D6" s="5" t="inlineStr">
         <is>
           <t>North Cotabato</t>
         </is>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="E6" s="5" t="n">
         <v>130197</v>
       </c>
-      <c r="E6" s="5" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>DILANGALEN CENTRAL ELEMENTARY SCHOOL</t>
         </is>
       </c>
-      <c r="F6" s="5" t="inlineStr">
+      <c r="G6" s="5" t="inlineStr">
         <is>
           <t>MIDSAYAP</t>
         </is>
       </c>
-      <c r="G6" s="5" t="inlineStr">
+      <c r="H6" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H6" s="5" t="n">
+      <c r="I6" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I6" s="5" t="n">
+      <c r="J6" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J6" s="5" t="inlineStr">
+      <c r="K6" s="5" t="inlineStr">
         <is>
           <t>1STY3CL</t>
         </is>
       </c>
-      <c r="K6" s="5" t="n">
+      <c r="L6" s="5" t="n">
         <v>11342818.56</v>
       </c>
-      <c r="L6" s="5" t="inlineStr">
+      <c r="M6" s="5" t="inlineStr">
         <is>
           <t>1- NC</t>
         </is>
       </c>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr">
+      <c r="N6" s="5" t="inlineStr"/>
+      <c r="O6" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="O6" s="5" t="n">
+      <c r="P6" s="5" t="n">
         <v>0.55</v>
       </c>
-      <c r="P6" s="5" t="inlineStr"/>
       <c r="Q6" s="5" t="inlineStr"/>
       <c r="R6" s="5" t="inlineStr"/>
       <c r="S6" s="5" t="inlineStr"/>
@@ -1100,449 +1120,464 @@
       <c r="V6" s="5" t="inlineStr"/>
       <c r="W6" s="5" t="inlineStr"/>
       <c r="X6" s="5" t="inlineStr"/>
-      <c r="Y6" s="5" t="inlineStr">
+      <c r="Y6" s="5" t="inlineStr"/>
+      <c r="Z6" s="5" t="inlineStr">
         <is>
           <t>CLA Construction Incorporated</t>
         </is>
       </c>
-      <c r="Z6" s="5" t="inlineStr"/>
-      <c r="AA6" s="7" t="n"/>
+      <c r="AA6" s="5" t="inlineStr"/>
+      <c r="AB6" s="7" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="inlineStr">
+      <c r="A7" s="5" t="n">
+        <v>3253</v>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Sarangani</t>
         </is>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="E7" s="5" t="n">
         <v>130443</v>
       </c>
-      <c r="E7" s="5" t="inlineStr">
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Baliton Elementary School</t>
         </is>
       </c>
-      <c r="F7" s="5" t="inlineStr">
+      <c r="G7" s="5" t="inlineStr">
         <is>
           <t>GLAN</t>
         </is>
       </c>
-      <c r="G7" s="5" t="inlineStr">
+      <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H7" s="5" t="n">
+      <c r="I7" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I7" s="5" t="n">
+      <c r="J7" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J7" s="5" t="inlineStr">
+      <c r="K7" s="5" t="inlineStr">
         <is>
           <t>1STY2CL</t>
         </is>
       </c>
-      <c r="K7" s="5" t="n">
+      <c r="L7" s="5" t="n">
         <v>4892845.52</v>
       </c>
-      <c r="L7" s="5" t="inlineStr">
+      <c r="M7" s="5" t="inlineStr">
         <is>
           <t>1- NC</t>
         </is>
       </c>
-      <c r="M7" s="5" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr">
+      <c r="N7" s="5" t="inlineStr"/>
+      <c r="O7" s="5" t="inlineStr">
         <is>
           <t>Not Yet Started</t>
         </is>
       </c>
-      <c r="O7" s="5" t="n">
+      <c r="P7" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P7" s="5" t="inlineStr"/>
       <c r="Q7" s="5" t="inlineStr"/>
       <c r="R7" s="5" t="inlineStr"/>
       <c r="S7" s="5" t="inlineStr"/>
-      <c r="T7" s="6" t="n">
+      <c r="T7" s="5" t="inlineStr"/>
+      <c r="U7" s="6" t="n">
         <v>45639</v>
       </c>
-      <c r="U7" s="5" t="inlineStr"/>
-      <c r="V7" s="5" t="inlineStr">
+      <c r="V7" s="5" t="inlineStr"/>
+      <c r="W7" s="5" t="inlineStr">
         <is>
           <t>January 28,2025</t>
         </is>
       </c>
-      <c r="W7" s="5" t="inlineStr"/>
       <c r="X7" s="5" t="inlineStr"/>
       <c r="Y7" s="5" t="inlineStr"/>
-      <c r="Z7" s="5" t="inlineStr">
+      <c r="Z7" s="5" t="inlineStr"/>
+      <c r="AA7" s="5" t="inlineStr">
         <is>
           <t>FOR AWARD</t>
         </is>
       </c>
-      <c r="AA7" s="7" t="n"/>
+      <c r="AB7" s="7" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="A8" s="5" t="n">
+        <v>3254</v>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr">
+      <c r="D8" s="5" t="inlineStr">
         <is>
           <t>Sarangani</t>
         </is>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="E8" s="5" t="n">
         <v>130450</v>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="F8" s="5" t="inlineStr">
         <is>
           <t>Calatungan ES</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="G8" s="5" t="inlineStr">
         <is>
           <t>GLAN</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="H8" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H8" s="5" t="n">
+      <c r="I8" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I8" s="5" t="n">
+      <c r="J8" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="J8" s="5" t="inlineStr">
+      <c r="K8" s="5" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K8" s="5" t="n">
+      <c r="L8" s="5" t="n">
         <v>6875408.92</v>
       </c>
-      <c r="L8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>1- R</t>
         </is>
       </c>
-      <c r="M8" s="5" t="n">
+      <c r="N8" s="5" t="n">
         <v>5735236.09</v>
       </c>
-      <c r="N8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="O8" s="5" t="n">
+      <c r="P8" s="5" t="n">
         <v>0.0108</v>
       </c>
-      <c r="P8" s="6" t="n">
+      <c r="Q8" s="6" t="n">
         <v>45830</v>
       </c>
-      <c r="Q8" s="5" t="inlineStr"/>
       <c r="R8" s="5" t="inlineStr"/>
-      <c r="S8" s="5" t="inlineStr">
+      <c r="S8" s="5" t="inlineStr"/>
+      <c r="T8" s="5" t="inlineStr">
         <is>
           <t>2025I-03-005</t>
         </is>
       </c>
-      <c r="T8" s="6" t="n">
+      <c r="U8" s="6" t="n">
         <v>45639</v>
       </c>
-      <c r="U8" s="5" t="inlineStr"/>
-      <c r="V8" s="5" t="inlineStr">
+      <c r="V8" s="5" t="inlineStr"/>
+      <c r="W8" s="5" t="inlineStr">
         <is>
           <t>January 28,2025</t>
         </is>
       </c>
-      <c r="W8" s="6" t="n">
+      <c r="X8" s="6" t="n">
         <v>45735</v>
       </c>
-      <c r="X8" s="6" t="n">
+      <c r="Y8" s="6" t="n">
         <v>45740</v>
       </c>
-      <c r="Y8" s="5" t="inlineStr">
+      <c r="Z8" s="5" t="inlineStr">
         <is>
           <t>E &amp; R ENTERPRISES AND CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z8" s="5" t="inlineStr">
+      <c r="AA8" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION ON GOING</t>
         </is>
       </c>
-      <c r="AA8" s="7" t="n"/>
+      <c r="AB8" s="7" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="A9" s="5" t="n">
+        <v>3255</v>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B9" s="5" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr">
+      <c r="D9" s="5" t="inlineStr">
         <is>
           <t>Sarangani</t>
         </is>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="E9" s="5" t="n">
         <v>130467</v>
       </c>
-      <c r="E9" s="5" t="inlineStr">
+      <c r="F9" s="5" t="inlineStr">
         <is>
           <t>Macatimbol ES</t>
         </is>
       </c>
-      <c r="F9" s="5" t="inlineStr">
+      <c r="G9" s="5" t="inlineStr">
         <is>
           <t>GLAN</t>
         </is>
       </c>
-      <c r="G9" s="5" t="inlineStr">
+      <c r="H9" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H9" s="5" t="n">
+      <c r="I9" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I9" s="5" t="n">
+      <c r="J9" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J9" s="5" t="inlineStr">
+      <c r="K9" s="5" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K9" s="5" t="n">
+      <c r="L9" s="5" t="n">
         <v>1015687.2</v>
       </c>
-      <c r="L9" s="5" t="inlineStr">
+      <c r="M9" s="5" t="inlineStr">
         <is>
           <t>1- R</t>
         </is>
       </c>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr">
+      <c r="N9" s="5" t="inlineStr"/>
+      <c r="O9" s="5" t="inlineStr">
         <is>
           <t>Not Yet Started</t>
         </is>
       </c>
-      <c r="O9" s="5" t="n">
+      <c r="P9" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P9" s="5" t="inlineStr"/>
       <c r="Q9" s="5" t="inlineStr"/>
       <c r="R9" s="5" t="inlineStr"/>
       <c r="S9" s="5" t="inlineStr"/>
-      <c r="T9" s="6" t="n">
+      <c r="T9" s="5" t="inlineStr"/>
+      <c r="U9" s="6" t="n">
         <v>45693</v>
       </c>
-      <c r="U9" s="5" t="inlineStr"/>
-      <c r="V9" s="5" t="inlineStr">
+      <c r="V9" s="5" t="inlineStr"/>
+      <c r="W9" s="5" t="inlineStr">
         <is>
           <t>February 25,2025</t>
         </is>
       </c>
-      <c r="W9" s="5" t="inlineStr"/>
       <c r="X9" s="5" t="inlineStr"/>
       <c r="Y9" s="5" t="inlineStr"/>
-      <c r="Z9" s="5" t="inlineStr">
+      <c r="Z9" s="5" t="inlineStr"/>
+      <c r="AA9" s="5" t="inlineStr">
         <is>
           <t>FOR AWARD</t>
         </is>
       </c>
-      <c r="AA9" s="7" t="n"/>
+      <c r="AB9" s="7" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="A10" s="5" t="n">
+        <v>3256</v>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B10" s="5" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr">
+      <c r="D10" s="5" t="inlineStr">
         <is>
           <t>Sarangani</t>
         </is>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="E10" s="5" t="n">
         <v>130474</v>
       </c>
-      <c r="E10" s="5" t="inlineStr">
+      <c r="F10" s="5" t="inlineStr">
         <is>
           <t>Pangyan Central ES</t>
         </is>
       </c>
-      <c r="F10" s="5" t="inlineStr">
+      <c r="G10" s="5" t="inlineStr">
         <is>
           <t>GLAN</t>
         </is>
       </c>
-      <c r="G10" s="5" t="inlineStr">
+      <c r="H10" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H10" s="5" t="n">
+      <c r="I10" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I10" s="5" t="n">
+      <c r="J10" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="J10" s="5" t="inlineStr">
+      <c r="K10" s="5" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K10" s="5" t="n">
+      <c r="L10" s="5" t="n">
         <v>5671478.609999999</v>
       </c>
-      <c r="L10" s="5" t="inlineStr">
+      <c r="M10" s="5" t="inlineStr">
         <is>
           <t>1- R</t>
         </is>
       </c>
-      <c r="M10" s="5" t="n">
+      <c r="N10" s="5" t="n">
         <v>3762023.97</v>
       </c>
-      <c r="N10" s="5" t="inlineStr">
+      <c r="O10" s="5" t="inlineStr">
         <is>
           <t>Not Yet Started</t>
         </is>
       </c>
-      <c r="O10" s="5" t="n">
+      <c r="P10" s="5" t="n">
         <v>0.0226</v>
       </c>
-      <c r="P10" s="6" t="n">
+      <c r="Q10" s="6" t="n">
         <v>45823</v>
       </c>
-      <c r="Q10" s="5" t="inlineStr"/>
       <c r="R10" s="5" t="inlineStr"/>
-      <c r="S10" s="5" t="inlineStr">
+      <c r="S10" s="5" t="inlineStr"/>
+      <c r="T10" s="5" t="inlineStr">
         <is>
           <t>2025I-03-001</t>
         </is>
       </c>
-      <c r="T10" s="6" t="n">
+      <c r="U10" s="6" t="n">
         <v>45639</v>
       </c>
-      <c r="U10" s="5" t="inlineStr"/>
-      <c r="V10" s="5" t="inlineStr">
+      <c r="V10" s="5" t="inlineStr"/>
+      <c r="W10" s="5" t="inlineStr">
         <is>
           <t>January 28,2025</t>
         </is>
       </c>
-      <c r="W10" s="6" t="n">
+      <c r="X10" s="6" t="n">
         <v>45727</v>
       </c>
-      <c r="X10" s="6" t="n">
+      <c r="Y10" s="6" t="n">
         <v>45733</v>
       </c>
-      <c r="Y10" s="5" t="inlineStr">
+      <c r="Z10" s="5" t="inlineStr">
         <is>
           <t>UPSCALE BUILDERS AND SUPPLY CORPORATION</t>
         </is>
       </c>
-      <c r="Z10" s="5" t="inlineStr">
+      <c r="AA10" s="5" t="inlineStr">
         <is>
           <t>FOR AWARD</t>
         </is>
       </c>
-      <c r="AA10" s="7" t="n"/>
+      <c r="AB10" s="7" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="A11" s="5" t="n">
+        <v>3257</v>
+      </c>
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B11" s="5" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr">
+      <c r="D11" s="5" t="inlineStr">
         <is>
           <t>Sarangani</t>
         </is>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="E11" s="5" t="n">
         <v>130487</v>
       </c>
-      <c r="E11" s="5" t="inlineStr">
+      <c r="F11" s="5" t="inlineStr">
         <is>
           <t>Bocay- Il ES</t>
         </is>
       </c>
-      <c r="F11" s="5" t="inlineStr">
+      <c r="G11" s="5" t="inlineStr">
         <is>
           <t>KIAMBA</t>
         </is>
       </c>
-      <c r="G11" s="5" t="inlineStr">
+      <c r="H11" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H11" s="5" t="n">
+      <c r="I11" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I11" s="5" t="n">
+      <c r="J11" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J11" s="5" t="inlineStr">
+      <c r="K11" s="5" t="inlineStr">
         <is>
           <t>1STY2CL</t>
         </is>
       </c>
-      <c r="K11" s="5" t="n">
+      <c r="L11" s="5" t="n">
         <v>4916342.86</v>
       </c>
-      <c r="L11" s="5" t="inlineStr">
+      <c r="M11" s="5" t="inlineStr">
         <is>
           <t>1- NC</t>
         </is>
       </c>
-      <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="inlineStr">
+      <c r="N11" s="5" t="inlineStr"/>
+      <c r="O11" s="5" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
       </c>
-      <c r="O11" s="5" t="n">
+      <c r="P11" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P11" s="5" t="inlineStr"/>
       <c r="Q11" s="5" t="inlineStr"/>
       <c r="R11" s="5" t="inlineStr"/>
       <c r="S11" s="5" t="inlineStr"/>
@@ -1552,1377 +1587,1425 @@
       <c r="W11" s="5" t="inlineStr"/>
       <c r="X11" s="5" t="inlineStr"/>
       <c r="Y11" s="5" t="inlineStr"/>
-      <c r="Z11" s="5" t="inlineStr">
+      <c r="Z11" s="5" t="inlineStr"/>
+      <c r="AA11" s="5" t="inlineStr">
         <is>
           <t>Rebid</t>
         </is>
       </c>
-      <c r="AA11" s="7" t="n"/>
+      <c r="AB11" s="7" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="inlineStr">
+      <c r="A12" s="5" t="n">
+        <v>3258</v>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B12" s="5" t="inlineStr">
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr">
+      <c r="D12" s="5" t="inlineStr">
         <is>
           <t>Sarangani</t>
         </is>
       </c>
-      <c r="D12" s="5" t="n">
+      <c r="E12" s="5" t="n">
         <v>130560</v>
       </c>
-      <c r="E12" s="5" t="inlineStr">
+      <c r="F12" s="5" t="inlineStr">
         <is>
           <t>Lun Padidu Central Elementary School</t>
         </is>
       </c>
-      <c r="F12" s="5" t="inlineStr">
+      <c r="G12" s="5" t="inlineStr">
         <is>
           <t>MALAPATAN</t>
         </is>
       </c>
-      <c r="G12" s="5" t="inlineStr">
+      <c r="H12" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H12" s="5" t="n">
+      <c r="I12" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I12" s="5" t="n">
+      <c r="J12" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="J12" s="5" t="inlineStr">
+      <c r="K12" s="5" t="inlineStr">
         <is>
           <t>2-UNITS 1STY3CL</t>
         </is>
       </c>
-      <c r="K12" s="5" t="n">
+      <c r="L12" s="5" t="n">
         <v>15224946.67</v>
       </c>
-      <c r="L12" s="5" t="inlineStr">
+      <c r="M12" s="5" t="inlineStr">
         <is>
           <t>1- NC</t>
         </is>
       </c>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="inlineStr">
+      <c r="N12" s="5" t="inlineStr"/>
+      <c r="O12" s="5" t="inlineStr">
         <is>
           <t>Not Yet Started</t>
         </is>
       </c>
-      <c r="O12" s="5" t="n">
+      <c r="P12" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P12" s="5" t="inlineStr"/>
       <c r="Q12" s="5" t="inlineStr"/>
       <c r="R12" s="5" t="inlineStr"/>
       <c r="S12" s="5" t="inlineStr"/>
-      <c r="T12" s="6" t="n">
+      <c r="T12" s="5" t="inlineStr"/>
+      <c r="U12" s="6" t="n">
         <v>45639</v>
       </c>
-      <c r="U12" s="5" t="inlineStr"/>
-      <c r="V12" s="5" t="inlineStr">
+      <c r="V12" s="5" t="inlineStr"/>
+      <c r="W12" s="5" t="inlineStr">
         <is>
           <t>January 28,2025</t>
         </is>
       </c>
-      <c r="W12" s="5" t="inlineStr"/>
       <c r="X12" s="5" t="inlineStr"/>
       <c r="Y12" s="5" t="inlineStr"/>
-      <c r="Z12" s="5" t="inlineStr">
+      <c r="Z12" s="5" t="inlineStr"/>
+      <c r="AA12" s="5" t="inlineStr">
         <is>
           <t>FOR AWARD</t>
         </is>
       </c>
-      <c r="AA12" s="7" t="n"/>
+      <c r="AB12" s="7" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="inlineStr">
+      <c r="A13" s="5" t="n">
+        <v>3259</v>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B13" s="5" t="inlineStr">
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr">
+      <c r="D13" s="5" t="inlineStr">
         <is>
           <t>Sarangani</t>
         </is>
       </c>
-      <c r="D13" s="5" t="n">
+      <c r="E13" s="5" t="n">
         <v>130563</v>
       </c>
-      <c r="E13" s="5" t="inlineStr">
+      <c r="F13" s="5" t="inlineStr">
         <is>
           <t>Mama Nawa Elementary School</t>
         </is>
       </c>
-      <c r="F13" s="5" t="inlineStr">
+      <c r="G13" s="5" t="inlineStr">
         <is>
           <t>MALAPATAN</t>
         </is>
       </c>
-      <c r="G13" s="5" t="inlineStr">
+      <c r="H13" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H13" s="5" t="n">
+      <c r="I13" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I13" s="5" t="n">
+      <c r="J13" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="J13" s="5" t="inlineStr">
+      <c r="K13" s="5" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K13" s="5" t="n">
+      <c r="L13" s="5" t="n">
         <v>13605574.34</v>
       </c>
-      <c r="L13" s="5" t="inlineStr">
+      <c r="M13" s="5" t="inlineStr">
         <is>
           <t>1- R</t>
         </is>
       </c>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr">
+      <c r="N13" s="5" t="inlineStr"/>
+      <c r="O13" s="5" t="inlineStr">
         <is>
           <t>Not Yet Started</t>
         </is>
       </c>
-      <c r="O13" s="5" t="n">
+      <c r="P13" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P13" s="5" t="inlineStr"/>
       <c r="Q13" s="5" t="inlineStr"/>
       <c r="R13" s="5" t="inlineStr"/>
       <c r="S13" s="5" t="inlineStr"/>
-      <c r="T13" s="6" t="n">
+      <c r="T13" s="5" t="inlineStr"/>
+      <c r="U13" s="6" t="n">
         <v>45639</v>
       </c>
-      <c r="U13" s="5" t="inlineStr"/>
-      <c r="V13" s="5" t="inlineStr">
+      <c r="V13" s="5" t="inlineStr"/>
+      <c r="W13" s="5" t="inlineStr">
         <is>
           <t>January 28,2025</t>
         </is>
       </c>
-      <c r="W13" s="5" t="inlineStr"/>
       <c r="X13" s="5" t="inlineStr"/>
       <c r="Y13" s="5" t="inlineStr"/>
-      <c r="Z13" s="5" t="inlineStr">
+      <c r="Z13" s="5" t="inlineStr"/>
+      <c r="AA13" s="5" t="inlineStr">
         <is>
           <t>FOR AWARD</t>
         </is>
       </c>
-      <c r="AA13" s="7" t="n"/>
+      <c r="AB13" s="7" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="inlineStr">
+      <c r="A14" s="5" t="n">
+        <v>3260</v>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B14" s="5" t="inlineStr">
+      <c r="C14" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr">
+      <c r="D14" s="5" t="inlineStr">
         <is>
           <t>Sarangani</t>
         </is>
       </c>
-      <c r="D14" s="5" t="n">
+      <c r="E14" s="5" t="n">
         <v>130582</v>
       </c>
-      <c r="E14" s="5" t="inlineStr">
+      <c r="F14" s="5" t="inlineStr">
         <is>
           <t>Talus ES</t>
         </is>
       </c>
-      <c r="F14" s="5" t="inlineStr">
+      <c r="G14" s="5" t="inlineStr">
         <is>
           <t>MALUNGON</t>
         </is>
       </c>
-      <c r="G14" s="5" t="inlineStr">
+      <c r="H14" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H14" s="5" t="n">
+      <c r="I14" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I14" s="5" t="n">
+      <c r="J14" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="J14" s="5" t="inlineStr">
+      <c r="K14" s="5" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K14" s="5" t="n">
+      <c r="L14" s="5" t="n">
         <v>14907576.67</v>
       </c>
-      <c r="L14" s="5" t="inlineStr">
+      <c r="M14" s="5" t="inlineStr">
         <is>
           <t>1- R</t>
         </is>
       </c>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr">
+      <c r="N14" s="5" t="inlineStr"/>
+      <c r="O14" s="5" t="inlineStr">
         <is>
           <t>Not Yet Started</t>
         </is>
       </c>
-      <c r="O14" s="5" t="n">
+      <c r="P14" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P14" s="5" t="inlineStr"/>
       <c r="Q14" s="5" t="inlineStr"/>
       <c r="R14" s="5" t="inlineStr"/>
       <c r="S14" s="5" t="inlineStr"/>
-      <c r="T14" s="6" t="n">
+      <c r="T14" s="5" t="inlineStr"/>
+      <c r="U14" s="6" t="n">
         <v>45639</v>
       </c>
-      <c r="U14" s="5" t="inlineStr"/>
-      <c r="V14" s="5" t="inlineStr">
+      <c r="V14" s="5" t="inlineStr"/>
+      <c r="W14" s="5" t="inlineStr">
         <is>
           <t>January 28,2025</t>
         </is>
       </c>
-      <c r="W14" s="5" t="inlineStr"/>
       <c r="X14" s="5" t="inlineStr"/>
       <c r="Y14" s="5" t="inlineStr"/>
-      <c r="Z14" s="5" t="inlineStr">
+      <c r="Z14" s="5" t="inlineStr"/>
+      <c r="AA14" s="5" t="inlineStr">
         <is>
           <t>FOR AWARD</t>
         </is>
       </c>
-      <c r="AA14" s="7" t="n"/>
+      <c r="AB14" s="7" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="inlineStr">
+      <c r="A15" s="5" t="n">
+        <v>3261</v>
+      </c>
+      <c r="B15" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B15" s="5" t="inlineStr">
+      <c r="C15" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr">
+      <c r="D15" s="5" t="inlineStr">
         <is>
           <t>Sarangani</t>
         </is>
       </c>
-      <c r="D15" s="5" t="n">
+      <c r="E15" s="5" t="n">
         <v>304541</v>
       </c>
-      <c r="E15" s="5" t="inlineStr">
+      <c r="F15" s="5" t="inlineStr">
         <is>
           <t>Pangyan National High School</t>
         </is>
       </c>
-      <c r="F15" s="5" t="inlineStr">
+      <c r="G15" s="5" t="inlineStr">
         <is>
           <t>GLAN</t>
         </is>
       </c>
-      <c r="G15" s="5" t="inlineStr">
+      <c r="H15" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H15" s="5" t="n">
+      <c r="I15" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I15" s="5" t="n">
+      <c r="J15" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J15" s="5" t="inlineStr">
+      <c r="K15" s="5" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K15" s="5" t="n">
+      <c r="L15" s="5" t="n">
         <v>1188056.38</v>
       </c>
-      <c r="L15" s="5" t="inlineStr">
+      <c r="M15" s="5" t="inlineStr">
         <is>
           <t>1- R</t>
         </is>
       </c>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr">
+      <c r="N15" s="5" t="inlineStr"/>
+      <c r="O15" s="5" t="inlineStr">
         <is>
           <t>Not Yet Started</t>
         </is>
       </c>
-      <c r="O15" s="5" t="n">
+      <c r="P15" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P15" s="5" t="inlineStr"/>
       <c r="Q15" s="5" t="inlineStr"/>
       <c r="R15" s="5" t="inlineStr"/>
       <c r="S15" s="5" t="inlineStr"/>
-      <c r="T15" s="6" t="n">
+      <c r="T15" s="5" t="inlineStr"/>
+      <c r="U15" s="6" t="n">
         <v>45693</v>
       </c>
-      <c r="U15" s="5" t="inlineStr"/>
-      <c r="V15" s="5" t="inlineStr">
+      <c r="V15" s="5" t="inlineStr"/>
+      <c r="W15" s="5" t="inlineStr">
         <is>
           <t>February 25,2025</t>
         </is>
       </c>
-      <c r="W15" s="5" t="inlineStr"/>
       <c r="X15" s="5" t="inlineStr"/>
       <c r="Y15" s="5" t="inlineStr"/>
-      <c r="Z15" s="5" t="inlineStr">
+      <c r="Z15" s="5" t="inlineStr"/>
+      <c r="AA15" s="5" t="inlineStr">
         <is>
           <t>FOR AWARD</t>
         </is>
       </c>
-      <c r="AA15" s="7" t="n"/>
+      <c r="AB15" s="7" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="inlineStr">
+      <c r="A16" s="5" t="n">
+        <v>3262</v>
+      </c>
+      <c r="B16" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B16" s="5" t="inlineStr">
+      <c r="C16" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr">
+      <c r="D16" s="5" t="inlineStr">
         <is>
           <t>Sarangani</t>
         </is>
       </c>
-      <c r="D16" s="5" t="n">
+      <c r="E16" s="5" t="n">
         <v>316604</v>
       </c>
-      <c r="E16" s="5" t="inlineStr">
+      <c r="F16" s="5" t="inlineStr">
         <is>
           <t>Amado M. Quirit Sr National High School</t>
         </is>
       </c>
-      <c r="F16" s="5" t="inlineStr">
+      <c r="G16" s="5" t="inlineStr">
         <is>
           <t>MALAPATAN</t>
         </is>
       </c>
-      <c r="G16" s="5" t="inlineStr">
+      <c r="H16" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H16" s="5" t="n">
+      <c r="I16" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I16" s="5" t="n">
+      <c r="J16" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="J16" s="5" t="inlineStr">
+      <c r="K16" s="5" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K16" s="5" t="n">
+      <c r="L16" s="5" t="n">
         <v>1475383.74</v>
       </c>
-      <c r="L16" s="5" t="inlineStr">
+      <c r="M16" s="5" t="inlineStr">
         <is>
           <t>1- R</t>
         </is>
       </c>
-      <c r="M16" s="5" t="inlineStr"/>
-      <c r="N16" s="5" t="inlineStr">
+      <c r="N16" s="5" t="inlineStr"/>
+      <c r="O16" s="5" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
       </c>
-      <c r="O16" s="5" t="n">
+      <c r="P16" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P16" s="5" t="inlineStr"/>
       <c r="Q16" s="5" t="inlineStr"/>
       <c r="R16" s="5" t="inlineStr"/>
       <c r="S16" s="5" t="inlineStr"/>
-      <c r="T16" s="6" t="n">
+      <c r="T16" s="5" t="inlineStr"/>
+      <c r="U16" s="6" t="n">
         <v>45762</v>
       </c>
-      <c r="U16" s="5" t="inlineStr"/>
       <c r="V16" s="5" t="inlineStr"/>
       <c r="W16" s="5" t="inlineStr"/>
       <c r="X16" s="5" t="inlineStr"/>
       <c r="Y16" s="5" t="inlineStr"/>
-      <c r="Z16" s="5" t="inlineStr">
+      <c r="Z16" s="5" t="inlineStr"/>
+      <c r="AA16" s="5" t="inlineStr">
         <is>
           <t>BID EVALUATION</t>
         </is>
       </c>
-      <c r="AA16" s="7" t="n"/>
+      <c r="AB16" s="7" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="inlineStr">
+      <c r="A17" s="5" t="n">
+        <v>3263</v>
+      </c>
+      <c r="B17" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B17" s="5" t="inlineStr">
+      <c r="C17" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr">
+      <c r="D17" s="5" t="inlineStr">
         <is>
           <t>Sarangani</t>
         </is>
       </c>
-      <c r="D17" s="5" t="n">
+      <c r="E17" s="5" t="n">
         <v>500260</v>
       </c>
-      <c r="E17" s="5" t="inlineStr">
+      <c r="F17" s="5" t="inlineStr">
         <is>
           <t>Lumigo Integrated School</t>
         </is>
       </c>
-      <c r="F17" s="5" t="inlineStr">
+      <c r="G17" s="5" t="inlineStr">
         <is>
           <t>GLAN</t>
         </is>
       </c>
-      <c r="G17" s="5" t="inlineStr">
+      <c r="H17" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H17" s="5" t="n">
+      <c r="I17" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I17" s="5" t="n">
+      <c r="J17" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="J17" s="5" t="inlineStr">
+      <c r="K17" s="5" t="inlineStr">
         <is>
           <t>3-UNITS 1STY3CL</t>
         </is>
       </c>
-      <c r="K17" s="5" t="n">
+      <c r="L17" s="5" t="n">
         <v>27304958.65</v>
       </c>
-      <c r="L17" s="5" t="inlineStr">
+      <c r="M17" s="5" t="inlineStr">
         <is>
           <t>1- NC</t>
         </is>
       </c>
-      <c r="M17" s="5" t="n">
+      <c r="N17" s="5" t="n">
         <v>27283547.41</v>
       </c>
-      <c r="N17" s="5" t="inlineStr">
+      <c r="O17" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="O17" s="5" t="n">
+      <c r="P17" s="5" t="n">
         <v>0.0203</v>
       </c>
-      <c r="P17" s="6" t="n">
+      <c r="Q17" s="6" t="n">
         <v>46007</v>
       </c>
-      <c r="Q17" s="5" t="inlineStr"/>
       <c r="R17" s="5" t="inlineStr"/>
-      <c r="S17" s="5" t="inlineStr">
+      <c r="S17" s="5" t="inlineStr"/>
+      <c r="T17" s="5" t="inlineStr">
         <is>
           <t>2025I-03-003</t>
         </is>
       </c>
-      <c r="T17" s="6" t="n">
+      <c r="U17" s="6" t="n">
         <v>45639</v>
       </c>
-      <c r="U17" s="5" t="inlineStr"/>
-      <c r="V17" s="5" t="inlineStr">
+      <c r="V17" s="5" t="inlineStr"/>
+      <c r="W17" s="5" t="inlineStr">
         <is>
           <t>January 28,2025</t>
         </is>
       </c>
-      <c r="W17" s="6" t="n">
+      <c r="X17" s="6" t="n">
         <v>45727</v>
       </c>
-      <c r="X17" s="6" t="n">
+      <c r="Y17" s="6" t="n">
         <v>45737</v>
       </c>
-      <c r="Y17" s="5" t="inlineStr">
+      <c r="Z17" s="5" t="inlineStr">
         <is>
           <t>MANUELA CONSTRUCTION SERVICES</t>
         </is>
       </c>
-      <c r="Z17" s="5" t="inlineStr">
+      <c r="AA17" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION ON GOING</t>
         </is>
       </c>
-      <c r="AA17" s="7" t="n"/>
+      <c r="AB17" s="7" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="inlineStr">
+      <c r="A18" s="5" t="n">
+        <v>3264</v>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B18" s="5" t="inlineStr">
+      <c r="C18" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr">
+      <c r="D18" s="5" t="inlineStr">
         <is>
           <t>Sarangani</t>
         </is>
       </c>
-      <c r="D18" s="5" t="n">
+      <c r="E18" s="5" t="n">
         <v>500261</v>
       </c>
-      <c r="E18" s="5" t="inlineStr">
+      <c r="F18" s="5" t="inlineStr">
         <is>
           <t>Roque Adarna Integrated  School</t>
         </is>
       </c>
-      <c r="F18" s="5" t="inlineStr">
+      <c r="G18" s="5" t="inlineStr">
         <is>
           <t>GLAN</t>
         </is>
       </c>
-      <c r="G18" s="5" t="inlineStr">
+      <c r="H18" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H18" s="5" t="n">
+      <c r="I18" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I18" s="5" t="n">
+      <c r="J18" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="J18" s="5" t="inlineStr">
+      <c r="K18" s="5" t="inlineStr">
         <is>
           <t>2-UNITS 1STY3CL</t>
         </is>
       </c>
-      <c r="K18" s="5" t="n">
+      <c r="L18" s="5" t="n">
         <v>15224946.67</v>
       </c>
-      <c r="L18" s="5" t="inlineStr">
+      <c r="M18" s="5" t="inlineStr">
         <is>
           <t>1- NC</t>
         </is>
       </c>
-      <c r="M18" s="5" t="inlineStr"/>
-      <c r="N18" s="5" t="inlineStr">
+      <c r="N18" s="5" t="inlineStr"/>
+      <c r="O18" s="5" t="inlineStr">
         <is>
           <t>Not Yet Started</t>
         </is>
       </c>
-      <c r="O18" s="5" t="n">
+      <c r="P18" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P18" s="5" t="inlineStr"/>
       <c r="Q18" s="5" t="inlineStr"/>
       <c r="R18" s="5" t="inlineStr"/>
       <c r="S18" s="5" t="inlineStr"/>
-      <c r="T18" s="6" t="n">
+      <c r="T18" s="5" t="inlineStr"/>
+      <c r="U18" s="6" t="n">
         <v>45639</v>
       </c>
-      <c r="U18" s="5" t="inlineStr"/>
-      <c r="V18" s="5" t="inlineStr">
+      <c r="V18" s="5" t="inlineStr"/>
+      <c r="W18" s="5" t="inlineStr">
         <is>
           <t>January 28,2025</t>
         </is>
       </c>
-      <c r="W18" s="5" t="inlineStr"/>
       <c r="X18" s="5" t="inlineStr"/>
       <c r="Y18" s="5" t="inlineStr"/>
-      <c r="Z18" s="5" t="inlineStr">
+      <c r="Z18" s="5" t="inlineStr"/>
+      <c r="AA18" s="5" t="inlineStr">
         <is>
           <t>FOR AWARD</t>
         </is>
       </c>
-      <c r="AA18" s="7" t="n"/>
+      <c r="AB18" s="7" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="inlineStr">
+      <c r="A19" s="5" t="n">
+        <v>3265</v>
+      </c>
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B19" s="5" t="inlineStr">
+      <c r="C19" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr">
+      <c r="D19" s="5" t="inlineStr">
         <is>
           <t>Sarangani</t>
         </is>
       </c>
-      <c r="D19" s="5" t="n">
+      <c r="E19" s="5" t="n">
         <v>500267</v>
       </c>
-      <c r="E19" s="5" t="inlineStr">
+      <c r="F19" s="5" t="inlineStr">
         <is>
           <t>Mangelen IS</t>
         </is>
       </c>
-      <c r="F19" s="5" t="inlineStr">
+      <c r="G19" s="5" t="inlineStr">
         <is>
           <t>MAASIM</t>
         </is>
       </c>
-      <c r="G19" s="5" t="inlineStr">
+      <c r="H19" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H19" s="5" t="n">
+      <c r="I19" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I19" s="5" t="n">
+      <c r="J19" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J19" s="5" t="inlineStr">
+      <c r="K19" s="5" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K19" s="5" t="n">
+      <c r="L19" s="5" t="n">
         <v>5121274.06</v>
       </c>
-      <c r="L19" s="5" t="inlineStr">
+      <c r="M19" s="5" t="inlineStr">
         <is>
           <t>1- R</t>
         </is>
       </c>
-      <c r="M19" s="5" t="inlineStr"/>
-      <c r="N19" s="5" t="inlineStr">
+      <c r="N19" s="5" t="inlineStr"/>
+      <c r="O19" s="5" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
       </c>
-      <c r="O19" s="5" t="n">
+      <c r="P19" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P19" s="5" t="inlineStr"/>
       <c r="Q19" s="5" t="inlineStr"/>
       <c r="R19" s="5" t="inlineStr"/>
       <c r="S19" s="5" t="inlineStr"/>
       <c r="T19" s="5" t="inlineStr"/>
       <c r="U19" s="5" t="inlineStr"/>
-      <c r="V19" s="6" t="n">
+      <c r="V19" s="5" t="inlineStr"/>
+      <c r="W19" s="6" t="n">
         <v>45755</v>
       </c>
-      <c r="W19" s="5" t="inlineStr"/>
       <c r="X19" s="5" t="inlineStr"/>
       <c r="Y19" s="5" t="inlineStr"/>
-      <c r="Z19" s="5" t="inlineStr">
+      <c r="Z19" s="5" t="inlineStr"/>
+      <c r="AA19" s="5" t="inlineStr">
         <is>
           <t>BID EVALUATION</t>
         </is>
       </c>
-      <c r="AA19" s="7" t="n"/>
+      <c r="AB19" s="7" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="inlineStr">
+      <c r="A20" s="5" t="n">
+        <v>3266</v>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B20" s="5" t="inlineStr">
+      <c r="C20" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr">
+      <c r="D20" s="5" t="inlineStr">
         <is>
           <t>Sarangani</t>
         </is>
       </c>
-      <c r="D20" s="5" t="n">
+      <c r="E20" s="5" t="n">
         <v>500285</v>
       </c>
-      <c r="E20" s="5" t="inlineStr">
+      <c r="F20" s="5" t="inlineStr">
         <is>
           <t>Tagaytay Integrated School</t>
         </is>
       </c>
-      <c r="F20" s="5" t="inlineStr">
+      <c r="G20" s="5" t="inlineStr">
         <is>
           <t>ALABEL (Capital)</t>
         </is>
       </c>
-      <c r="G20" s="5" t="inlineStr">
+      <c r="H20" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H20" s="5" t="n">
+      <c r="I20" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I20" s="5" t="n">
+      <c r="J20" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J20" s="5" t="inlineStr">
+      <c r="K20" s="5" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K20" s="5" t="n">
+      <c r="L20" s="5" t="n">
         <v>621384.02</v>
       </c>
-      <c r="L20" s="5" t="inlineStr">
+      <c r="M20" s="5" t="inlineStr">
         <is>
           <t>1- R</t>
         </is>
       </c>
-      <c r="M20" s="5" t="inlineStr"/>
-      <c r="N20" s="5" t="inlineStr">
+      <c r="N20" s="5" t="inlineStr"/>
+      <c r="O20" s="5" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
       </c>
-      <c r="O20" s="5" t="n">
+      <c r="P20" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P20" s="5" t="inlineStr"/>
       <c r="Q20" s="5" t="inlineStr"/>
       <c r="R20" s="5" t="inlineStr"/>
       <c r="S20" s="5" t="inlineStr"/>
       <c r="T20" s="5" t="inlineStr"/>
       <c r="U20" s="5" t="inlineStr"/>
-      <c r="V20" s="6" t="n">
+      <c r="V20" s="5" t="inlineStr"/>
+      <c r="W20" s="6" t="n">
         <v>45762</v>
       </c>
-      <c r="W20" s="5" t="inlineStr"/>
       <c r="X20" s="5" t="inlineStr"/>
       <c r="Y20" s="5" t="inlineStr"/>
-      <c r="Z20" s="5" t="inlineStr">
+      <c r="Z20" s="5" t="inlineStr"/>
+      <c r="AA20" s="5" t="inlineStr">
         <is>
           <t>BID EVALUATION</t>
         </is>
       </c>
-      <c r="AA20" s="7" t="n"/>
+      <c r="AB20" s="7" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="inlineStr">
+      <c r="A21" s="5" t="n">
+        <v>3267</v>
+      </c>
+      <c r="B21" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B21" s="5" t="inlineStr">
+      <c r="C21" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr">
+      <c r="D21" s="5" t="inlineStr">
         <is>
           <t>Sarangani</t>
         </is>
       </c>
-      <c r="D21" s="5" t="n">
+      <c r="E21" s="5" t="n">
         <v>500288</v>
       </c>
-      <c r="E21" s="5" t="inlineStr">
+      <c r="F21" s="5" t="inlineStr">
         <is>
           <t>Kinabalan Integrated School</t>
         </is>
       </c>
-      <c r="F21" s="5" t="inlineStr">
+      <c r="G21" s="5" t="inlineStr">
         <is>
           <t>MALUNGON</t>
         </is>
       </c>
-      <c r="G21" s="5" t="inlineStr">
+      <c r="H21" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H21" s="5" t="n">
+      <c r="I21" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I21" s="5" t="n">
+      <c r="J21" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J21" s="5" t="inlineStr">
+      <c r="K21" s="5" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K21" s="5" t="n">
+      <c r="L21" s="5" t="n">
         <v>684829.83</v>
       </c>
-      <c r="L21" s="5" t="inlineStr">
+      <c r="M21" s="5" t="inlineStr">
         <is>
           <t>1- R</t>
         </is>
       </c>
-      <c r="M21" s="5" t="inlineStr"/>
-      <c r="N21" s="5" t="inlineStr">
+      <c r="N21" s="5" t="inlineStr"/>
+      <c r="O21" s="5" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
       </c>
-      <c r="O21" s="5" t="n">
+      <c r="P21" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P21" s="5" t="inlineStr"/>
       <c r="Q21" s="5" t="inlineStr"/>
       <c r="R21" s="5" t="inlineStr"/>
       <c r="S21" s="5" t="inlineStr"/>
       <c r="T21" s="5" t="inlineStr"/>
       <c r="U21" s="5" t="inlineStr"/>
-      <c r="V21" s="6" t="n">
+      <c r="V21" s="5" t="inlineStr"/>
+      <c r="W21" s="6" t="n">
         <v>45762</v>
       </c>
-      <c r="W21" s="5" t="inlineStr"/>
       <c r="X21" s="5" t="inlineStr"/>
       <c r="Y21" s="5" t="inlineStr"/>
-      <c r="Z21" s="5" t="inlineStr">
+      <c r="Z21" s="5" t="inlineStr"/>
+      <c r="AA21" s="5" t="inlineStr">
         <is>
           <t>BID EVALUATION</t>
         </is>
       </c>
-      <c r="AA21" s="7" t="n"/>
+      <c r="AB21" s="7" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="inlineStr">
+      <c r="A22" s="5" t="n">
+        <v>3268</v>
+      </c>
+      <c r="B22" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B22" s="5" t="inlineStr">
+      <c r="C22" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr">
+      <c r="D22" s="5" t="inlineStr">
         <is>
           <t>Sarangani</t>
         </is>
       </c>
-      <c r="D22" s="5" t="n">
+      <c r="E22" s="5" t="n">
         <v>500707</v>
       </c>
-      <c r="E22" s="5" t="inlineStr">
+      <c r="F22" s="5" t="inlineStr">
         <is>
           <t>Tonga Lim Siao Sr. Integrated School</t>
         </is>
       </c>
-      <c r="F22" s="5" t="inlineStr">
+      <c r="G22" s="5" t="inlineStr">
         <is>
           <t>GLAN</t>
         </is>
       </c>
-      <c r="G22" s="5" t="inlineStr">
+      <c r="H22" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H22" s="5" t="n">
+      <c r="I22" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I22" s="5" t="n">
+      <c r="J22" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="J22" s="5" t="inlineStr">
+      <c r="K22" s="5" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K22" s="5" t="n">
+      <c r="L22" s="5" t="n">
         <v>6696299.069999999</v>
       </c>
-      <c r="L22" s="5" t="inlineStr">
+      <c r="M22" s="5" t="inlineStr">
         <is>
           <t>1- R</t>
         </is>
       </c>
-      <c r="M22" s="5" t="n">
+      <c r="N22" s="5" t="n">
         <v>3744129.63</v>
       </c>
-      <c r="N22" s="5" t="inlineStr">
+      <c r="O22" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="O22" s="5" t="n">
+      <c r="P22" s="5" t="n">
         <v>0.0227</v>
       </c>
-      <c r="P22" s="6" t="n">
+      <c r="Q22" s="6" t="n">
         <v>45823</v>
       </c>
-      <c r="Q22" s="5" t="inlineStr"/>
       <c r="R22" s="5" t="inlineStr"/>
-      <c r="S22" s="5" t="inlineStr">
+      <c r="S22" s="5" t="inlineStr"/>
+      <c r="T22" s="5" t="inlineStr">
         <is>
           <t>2025I-03-002</t>
         </is>
       </c>
-      <c r="T22" s="6" t="n">
+      <c r="U22" s="6" t="n">
         <v>45639</v>
       </c>
-      <c r="U22" s="5" t="inlineStr"/>
-      <c r="V22" s="5" t="inlineStr">
+      <c r="V22" s="5" t="inlineStr"/>
+      <c r="W22" s="5" t="inlineStr">
         <is>
           <t>January 28,2025</t>
         </is>
       </c>
-      <c r="W22" s="6" t="n">
+      <c r="X22" s="6" t="n">
         <v>45727</v>
       </c>
-      <c r="X22" s="6" t="n">
+      <c r="Y22" s="6" t="n">
         <v>45733</v>
       </c>
-      <c r="Y22" s="5" t="inlineStr">
+      <c r="Z22" s="5" t="inlineStr">
         <is>
           <t>UPSCALE BUILDERS AND SUPPLY CORPORATION</t>
         </is>
       </c>
-      <c r="Z22" s="5" t="inlineStr">
+      <c r="AA22" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION ON GOING</t>
         </is>
       </c>
-      <c r="AA22" s="7" t="n"/>
+      <c r="AB22" s="7" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="inlineStr">
+      <c r="A23" s="5" t="n">
+        <v>3269</v>
+      </c>
+      <c r="B23" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B23" s="5" t="inlineStr">
+      <c r="C23" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr">
+      <c r="D23" s="5" t="inlineStr">
         <is>
           <t>Sarangani</t>
         </is>
       </c>
-      <c r="D23" s="5" t="n">
+      <c r="E23" s="5" t="n">
         <v>500829</v>
       </c>
-      <c r="E23" s="5" t="inlineStr">
+      <c r="F23" s="5" t="inlineStr">
         <is>
           <t>Panambalan Integrated School</t>
         </is>
       </c>
-      <c r="F23" s="5" t="inlineStr">
+      <c r="G23" s="5" t="inlineStr">
         <is>
           <t>GLAN</t>
         </is>
       </c>
-      <c r="G23" s="5" t="inlineStr">
+      <c r="H23" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H23" s="5" t="n">
+      <c r="I23" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I23" s="5" t="n">
+      <c r="J23" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="J23" s="5" t="inlineStr">
+      <c r="K23" s="5" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K23" s="5" t="n">
+      <c r="L23" s="5" t="n">
         <v>13029145.87</v>
       </c>
-      <c r="L23" s="5" t="inlineStr">
+      <c r="M23" s="5" t="inlineStr">
         <is>
           <t>1- R</t>
         </is>
       </c>
-      <c r="M23" s="5" t="inlineStr"/>
-      <c r="N23" s="5" t="inlineStr">
+      <c r="N23" s="5" t="inlineStr"/>
+      <c r="O23" s="5" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
       </c>
-      <c r="O23" s="5" t="n">
+      <c r="P23" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P23" s="5" t="inlineStr"/>
       <c r="Q23" s="5" t="inlineStr"/>
       <c r="R23" s="5" t="inlineStr"/>
       <c r="S23" s="5" t="inlineStr"/>
       <c r="T23" s="5" t="inlineStr"/>
       <c r="U23" s="5" t="inlineStr"/>
-      <c r="V23" s="6" t="n">
+      <c r="V23" s="5" t="inlineStr"/>
+      <c r="W23" s="6" t="n">
         <v>45755</v>
       </c>
-      <c r="W23" s="5" t="inlineStr"/>
       <c r="X23" s="5" t="inlineStr"/>
       <c r="Y23" s="5" t="inlineStr"/>
-      <c r="Z23" s="5" t="inlineStr">
+      <c r="Z23" s="5" t="inlineStr"/>
+      <c r="AA23" s="5" t="inlineStr">
         <is>
           <t>BID EVALUATION</t>
         </is>
       </c>
-      <c r="AA23" s="7" t="n"/>
+      <c r="AB23" s="7" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="inlineStr">
+      <c r="A24" s="5" t="n">
+        <v>3270</v>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B24" s="5" t="inlineStr">
+      <c r="C24" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr">
+      <c r="D24" s="5" t="inlineStr">
         <is>
           <t>Sarangani</t>
         </is>
       </c>
-      <c r="D24" s="5" t="n">
+      <c r="E24" s="5" t="n">
         <v>501281</v>
       </c>
-      <c r="E24" s="5" t="inlineStr">
+      <c r="F24" s="5" t="inlineStr">
         <is>
           <t>Prudencio Mariano Sr. Integrated School</t>
         </is>
       </c>
-      <c r="F24" s="5" t="inlineStr">
+      <c r="G24" s="5" t="inlineStr">
         <is>
           <t>GLAN</t>
         </is>
       </c>
-      <c r="G24" s="5" t="inlineStr">
+      <c r="H24" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H24" s="5" t="n">
+      <c r="I24" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I24" s="5" t="n">
+      <c r="J24" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="J24" s="5" t="inlineStr">
+      <c r="K24" s="5" t="inlineStr">
         <is>
           <t>1STY3CL 1STY2CL</t>
         </is>
       </c>
-      <c r="K24" s="5" t="n">
+      <c r="L24" s="5" t="n">
         <v>12309649.43</v>
       </c>
-      <c r="L24" s="5" t="inlineStr">
+      <c r="M24" s="5" t="inlineStr">
         <is>
           <t>1- NC</t>
         </is>
       </c>
-      <c r="M24" s="5" t="n">
+      <c r="N24" s="5" t="n">
         <v>12288654.75</v>
       </c>
-      <c r="N24" s="5" t="inlineStr">
+      <c r="O24" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="O24" s="5" t="n">
+      <c r="P24" s="5" t="n">
         <v>0.2182</v>
       </c>
-      <c r="P24" s="6" t="n">
+      <c r="Q24" s="6" t="n">
         <v>45917</v>
       </c>
-      <c r="Q24" s="5" t="inlineStr"/>
       <c r="R24" s="5" t="inlineStr"/>
-      <c r="S24" s="5" t="inlineStr">
+      <c r="S24" s="5" t="inlineStr"/>
+      <c r="T24" s="5" t="inlineStr">
         <is>
           <t>2025I-03-004</t>
         </is>
       </c>
-      <c r="T24" s="6" t="n">
+      <c r="U24" s="6" t="n">
         <v>45639</v>
       </c>
-      <c r="U24" s="5" t="inlineStr"/>
-      <c r="V24" s="5" t="inlineStr">
+      <c r="V24" s="5" t="inlineStr"/>
+      <c r="W24" s="5" t="inlineStr">
         <is>
           <t>January 28,2025</t>
         </is>
       </c>
-      <c r="W24" s="6" t="n">
+      <c r="X24" s="6" t="n">
         <v>45727</v>
       </c>
-      <c r="X24" s="6" t="n">
+      <c r="Y24" s="6" t="n">
         <v>45737</v>
       </c>
-      <c r="Y24" s="5" t="inlineStr">
+      <c r="Z24" s="5" t="inlineStr">
         <is>
           <t>MANUELA CONSTRUCTION SERVICES</t>
         </is>
       </c>
-      <c r="Z24" s="5" t="inlineStr">
+      <c r="AA24" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION ON GOING</t>
         </is>
       </c>
-      <c r="AA24" s="7" t="n"/>
+      <c r="AB24" s="7" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="inlineStr">
+      <c r="A25" s="5" t="n">
+        <v>3271</v>
+      </c>
+      <c r="B25" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B25" s="5" t="inlineStr">
+      <c r="C25" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C25" s="5" t="inlineStr">
+      <c r="D25" s="5" t="inlineStr">
         <is>
           <t>Sarangani</t>
         </is>
       </c>
-      <c r="D25" s="5" t="n">
+      <c r="E25" s="5" t="n">
         <v>502228</v>
       </c>
-      <c r="E25" s="5" t="inlineStr">
+      <c r="F25" s="5" t="inlineStr">
         <is>
           <t>CALONKAMBING INTEGRATED SCHOOL</t>
         </is>
       </c>
-      <c r="F25" s="5" t="inlineStr">
+      <c r="G25" s="5" t="inlineStr">
         <is>
           <t>GLAN</t>
         </is>
       </c>
-      <c r="G25" s="5" t="inlineStr">
+      <c r="H25" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H25" s="5" t="n">
+      <c r="I25" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I25" s="5" t="n">
+      <c r="J25" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J25" s="5" t="inlineStr">
+      <c r="K25" s="5" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K25" s="5" t="n">
+      <c r="L25" s="5" t="n">
         <v>1010642.25</v>
       </c>
-      <c r="L25" s="5" t="inlineStr">
+      <c r="M25" s="5" t="inlineStr">
         <is>
           <t>1- R</t>
         </is>
       </c>
-      <c r="M25" s="5" t="inlineStr"/>
-      <c r="N25" s="5" t="inlineStr">
+      <c r="N25" s="5" t="inlineStr"/>
+      <c r="O25" s="5" t="inlineStr">
         <is>
           <t>Not Yet Started</t>
         </is>
       </c>
-      <c r="O25" s="5" t="n">
+      <c r="P25" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P25" s="5" t="inlineStr"/>
       <c r="Q25" s="5" t="inlineStr"/>
       <c r="R25" s="5" t="inlineStr"/>
       <c r="S25" s="5" t="inlineStr"/>
-      <c r="T25" s="6" t="n">
+      <c r="T25" s="5" t="inlineStr"/>
+      <c r="U25" s="6" t="n">
         <v>45693</v>
       </c>
-      <c r="U25" s="5" t="inlineStr"/>
-      <c r="V25" s="5" t="inlineStr">
+      <c r="V25" s="5" t="inlineStr"/>
+      <c r="W25" s="5" t="inlineStr">
         <is>
           <t>February 25,2025</t>
         </is>
       </c>
-      <c r="W25" s="5" t="inlineStr"/>
       <c r="X25" s="5" t="inlineStr"/>
       <c r="Y25" s="5" t="inlineStr"/>
-      <c r="Z25" s="5" t="inlineStr">
+      <c r="Z25" s="5" t="inlineStr"/>
+      <c r="AA25" s="5" t="inlineStr">
         <is>
           <t>FOR AWARD</t>
         </is>
       </c>
-      <c r="AA25" s="7" t="n"/>
+      <c r="AB25" s="7" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="5" t="inlineStr">
+      <c r="A26" s="5" t="n">
+        <v>3272</v>
+      </c>
+      <c r="B26" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B26" s="5" t="inlineStr">
+      <c r="C26" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C26" s="5" t="inlineStr">
+      <c r="D26" s="5" t="inlineStr">
         <is>
           <t>Sarangani</t>
         </is>
       </c>
-      <c r="D26" s="5" t="n">
+      <c r="E26" s="5" t="n">
         <v>304537</v>
       </c>
-      <c r="E26" s="5" t="inlineStr">
+      <c r="F26" s="5" t="inlineStr">
         <is>
           <t>Malapatan NHS</t>
         </is>
       </c>
-      <c r="F26" s="5" t="inlineStr">
+      <c r="G26" s="5" t="inlineStr">
         <is>
           <t>MALAPATAN</t>
         </is>
       </c>
-      <c r="G26" s="5" t="inlineStr">
+      <c r="H26" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H26" s="5" t="n">
+      <c r="I26" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I26" s="5" t="n">
+      <c r="J26" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="J26" s="5" t="inlineStr">
+      <c r="K26" s="5" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K26" s="5" t="n">
+      <c r="L26" s="5" t="n">
         <v>437548.03</v>
       </c>
-      <c r="L26" s="5" t="inlineStr">
+      <c r="M26" s="5" t="inlineStr">
         <is>
           <t>1- R</t>
         </is>
       </c>
-      <c r="M26" s="5" t="inlineStr"/>
-      <c r="N26" s="5" t="inlineStr">
+      <c r="N26" s="5" t="inlineStr"/>
+      <c r="O26" s="5" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
       </c>
-      <c r="O26" s="5" t="n">
+      <c r="P26" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P26" s="5" t="inlineStr"/>
       <c r="Q26" s="5" t="inlineStr"/>
       <c r="R26" s="5" t="inlineStr"/>
       <c r="S26" s="5" t="inlineStr"/>
       <c r="T26" s="5" t="inlineStr"/>
       <c r="U26" s="5" t="inlineStr"/>
-      <c r="V26" s="6" t="n">
+      <c r="V26" s="5" t="inlineStr"/>
+      <c r="W26" s="6" t="n">
         <v>45762</v>
       </c>
-      <c r="W26" s="5" t="inlineStr"/>
       <c r="X26" s="5" t="inlineStr"/>
       <c r="Y26" s="5" t="inlineStr"/>
-      <c r="Z26" s="5" t="inlineStr">
+      <c r="Z26" s="5" t="inlineStr"/>
+      <c r="AA26" s="5" t="inlineStr">
         <is>
           <t>BID EVALUATION</t>
         </is>
       </c>
-      <c r="AA26" s="7" t="n"/>
+      <c r="AB26" s="7" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="inlineStr">
+      <c r="A27" s="5" t="n">
+        <v>3273</v>
+      </c>
+      <c r="B27" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B27" s="5" t="inlineStr">
+      <c r="C27" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C27" s="5" t="inlineStr">
+      <c r="D27" s="5" t="inlineStr">
         <is>
           <t>South Cotabato</t>
         </is>
       </c>
-      <c r="D27" s="5" t="n">
+      <c r="E27" s="5" t="n">
         <v>130693</v>
       </c>
-      <c r="E27" s="5" t="inlineStr">
+      <c r="F27" s="5" t="inlineStr">
         <is>
           <t>Ubo Elementary School</t>
         </is>
       </c>
-      <c r="F27" s="5" t="inlineStr">
+      <c r="G27" s="5" t="inlineStr">
         <is>
           <t>LAKE SEBU</t>
         </is>
       </c>
-      <c r="G27" s="5" t="inlineStr">
+      <c r="H27" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H27" s="5" t="n">
+      <c r="I27" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I27" s="5" t="n">
+      <c r="J27" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J27" s="5" t="inlineStr">
+      <c r="K27" s="5" t="inlineStr">
         <is>
           <t>2-UNITS 1STY2CL</t>
         </is>
       </c>
-      <c r="K27" s="5" t="n">
+      <c r="L27" s="5" t="n">
         <v>11873019.44</v>
       </c>
-      <c r="L27" s="5" t="inlineStr">
+      <c r="M27" s="5" t="inlineStr">
         <is>
           <t>1- NC</t>
         </is>
       </c>
-      <c r="M27" s="5" t="n">
+      <c r="N27" s="5" t="n">
         <v>9669539.93</v>
       </c>
-      <c r="N27" s="5" t="inlineStr">
+      <c r="O27" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="O27" s="5" t="n">
+      <c r="P27" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P27" s="5" t="inlineStr"/>
       <c r="Q27" s="5" t="inlineStr"/>
       <c r="R27" s="5" t="inlineStr"/>
       <c r="S27" s="5" t="inlineStr"/>
@@ -2933,73 +3016,76 @@
       <c r="X27" s="5" t="inlineStr"/>
       <c r="Y27" s="5" t="inlineStr"/>
       <c r="Z27" s="5" t="inlineStr"/>
-      <c r="AA27" s="7" t="n"/>
+      <c r="AA27" s="5" t="inlineStr"/>
+      <c r="AB27" s="7" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="5" t="inlineStr">
+      <c r="A28" s="5" t="n">
+        <v>3274</v>
+      </c>
+      <c r="B28" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B28" s="5" t="inlineStr">
+      <c r="C28" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C28" s="5" t="inlineStr">
+      <c r="D28" s="5" t="inlineStr">
         <is>
           <t>South Cotabato</t>
         </is>
       </c>
-      <c r="D28" s="5" t="n">
+      <c r="E28" s="5" t="n">
         <v>130860</v>
       </c>
-      <c r="E28" s="5" t="inlineStr">
+      <c r="F28" s="5" t="inlineStr">
         <is>
           <t>Lampitak Elementary School</t>
         </is>
       </c>
-      <c r="F28" s="5" t="inlineStr">
+      <c r="G28" s="5" t="inlineStr">
         <is>
           <t>TAMPAKAN</t>
         </is>
       </c>
-      <c r="G28" s="5" t="inlineStr">
+      <c r="H28" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H28" s="5" t="n">
+      <c r="I28" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I28" s="5" t="n">
+      <c r="J28" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J28" s="5" t="inlineStr">
+      <c r="K28" s="5" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K28" s="5" t="n">
+      <c r="L28" s="5" t="n">
         <v>2964223.54</v>
       </c>
-      <c r="L28" s="5" t="inlineStr">
+      <c r="M28" s="5" t="inlineStr">
         <is>
           <t>1- R</t>
         </is>
       </c>
-      <c r="M28" s="5" t="n">
+      <c r="N28" s="5" t="n">
         <v>2103002.51</v>
       </c>
-      <c r="N28" s="5" t="inlineStr">
+      <c r="O28" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="O28" s="5" t="n">
+      <c r="P28" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P28" s="5" t="inlineStr"/>
       <c r="Q28" s="5" t="inlineStr"/>
       <c r="R28" s="5" t="inlineStr"/>
       <c r="S28" s="5" t="inlineStr"/>
@@ -3010,73 +3096,76 @@
       <c r="X28" s="5" t="inlineStr"/>
       <c r="Y28" s="5" t="inlineStr"/>
       <c r="Z28" s="5" t="inlineStr"/>
-      <c r="AA28" s="7" t="n"/>
+      <c r="AA28" s="5" t="inlineStr"/>
+      <c r="AB28" s="7" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="5" t="inlineStr">
+      <c r="A29" s="5" t="n">
+        <v>3275</v>
+      </c>
+      <c r="B29" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B29" s="5" t="inlineStr">
+      <c r="C29" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C29" s="5" t="inlineStr">
+      <c r="D29" s="5" t="inlineStr">
         <is>
           <t>South Cotabato</t>
         </is>
       </c>
-      <c r="D29" s="5" t="n">
+      <c r="E29" s="5" t="n">
         <v>130869</v>
       </c>
-      <c r="E29" s="5" t="inlineStr">
+      <c r="F29" s="5" t="inlineStr">
         <is>
           <t>Eleonor D. Belotindos Elementary School</t>
         </is>
       </c>
-      <c r="F29" s="5" t="inlineStr">
+      <c r="G29" s="5" t="inlineStr">
         <is>
           <t>TANTANGAN</t>
         </is>
       </c>
-      <c r="G29" s="5" t="inlineStr">
+      <c r="H29" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H29" s="5" t="n">
+      <c r="I29" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I29" s="5" t="n">
+      <c r="J29" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J29" s="5" t="inlineStr">
+      <c r="K29" s="5" t="inlineStr">
         <is>
           <t>1STY2CL</t>
         </is>
       </c>
-      <c r="K29" s="5" t="n">
+      <c r="L29" s="5" t="n">
         <v>5805259.72</v>
       </c>
-      <c r="L29" s="5" t="inlineStr">
+      <c r="M29" s="5" t="inlineStr">
         <is>
           <t>1- NC</t>
         </is>
       </c>
-      <c r="M29" s="5" t="n">
+      <c r="N29" s="5" t="n">
         <v>4884842.52</v>
       </c>
-      <c r="N29" s="5" t="inlineStr">
+      <c r="O29" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="O29" s="5" t="n">
+      <c r="P29" s="5" t="n">
         <v>0.08</v>
       </c>
-      <c r="P29" s="5" t="inlineStr"/>
       <c r="Q29" s="5" t="inlineStr"/>
       <c r="R29" s="5" t="inlineStr"/>
       <c r="S29" s="5" t="inlineStr"/>
@@ -3087,73 +3176,76 @@
       <c r="X29" s="5" t="inlineStr"/>
       <c r="Y29" s="5" t="inlineStr"/>
       <c r="Z29" s="5" t="inlineStr"/>
-      <c r="AA29" s="7" t="n"/>
+      <c r="AA29" s="5" t="inlineStr"/>
+      <c r="AB29" s="7" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="5" t="inlineStr">
+      <c r="A30" s="5" t="n">
+        <v>3276</v>
+      </c>
+      <c r="B30" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B30" s="5" t="inlineStr">
+      <c r="C30" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C30" s="5" t="inlineStr">
+      <c r="D30" s="5" t="inlineStr">
         <is>
           <t>South Cotabato</t>
         </is>
       </c>
-      <c r="D30" s="5" t="n">
+      <c r="E30" s="5" t="n">
         <v>304560</v>
       </c>
-      <c r="E30" s="5" t="inlineStr">
+      <c r="F30" s="5" t="inlineStr">
         <is>
           <t>Polomolok National High School</t>
         </is>
       </c>
-      <c r="F30" s="5" t="inlineStr">
+      <c r="G30" s="5" t="inlineStr">
         <is>
           <t>POLOMOLOK</t>
         </is>
       </c>
-      <c r="G30" s="5" t="inlineStr">
+      <c r="H30" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H30" s="5" t="n">
+      <c r="I30" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I30" s="5" t="n">
+      <c r="J30" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="J30" s="5" t="inlineStr">
+      <c r="K30" s="5" t="inlineStr">
         <is>
           <t>1STY3CL AND 2STY6CL</t>
         </is>
       </c>
-      <c r="K30" s="5" t="n">
+      <c r="L30" s="5" t="n">
         <v>26103951.7</v>
       </c>
-      <c r="L30" s="5" t="inlineStr">
+      <c r="M30" s="5" t="inlineStr">
         <is>
           <t>1- NC</t>
         </is>
       </c>
-      <c r="M30" s="5" t="n">
+      <c r="N30" s="5" t="n">
         <v>23232517</v>
       </c>
-      <c r="N30" s="5" t="inlineStr">
+      <c r="O30" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="O30" s="5" t="n">
+      <c r="P30" s="5" t="n">
         <v>0.06</v>
       </c>
-      <c r="P30" s="5" t="inlineStr"/>
       <c r="Q30" s="5" t="inlineStr"/>
       <c r="R30" s="5" t="inlineStr"/>
       <c r="S30" s="5" t="inlineStr"/>
@@ -3164,73 +3256,76 @@
       <c r="X30" s="5" t="inlineStr"/>
       <c r="Y30" s="5" t="inlineStr"/>
       <c r="Z30" s="5" t="inlineStr"/>
-      <c r="AA30" s="7" t="n"/>
+      <c r="AA30" s="5" t="inlineStr"/>
+      <c r="AB30" s="7" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="5" t="inlineStr">
+      <c r="A31" s="5" t="n">
+        <v>3277</v>
+      </c>
+      <c r="B31" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B31" s="5" t="inlineStr">
+      <c r="C31" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C31" s="5" t="inlineStr">
+      <c r="D31" s="5" t="inlineStr">
         <is>
           <t>South Cotabato</t>
         </is>
       </c>
-      <c r="D31" s="5" t="n">
+      <c r="E31" s="5" t="n">
         <v>501991</v>
       </c>
-      <c r="E31" s="5" t="inlineStr">
+      <c r="F31" s="5" t="inlineStr">
         <is>
           <t>Dumadalig Integrated School</t>
         </is>
       </c>
-      <c r="F31" s="5" t="inlineStr">
+      <c r="G31" s="5" t="inlineStr">
         <is>
           <t>TANTANGAN</t>
         </is>
       </c>
-      <c r="G31" s="5" t="inlineStr">
+      <c r="H31" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H31" s="5" t="n">
+      <c r="I31" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I31" s="5" t="n">
+      <c r="J31" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J31" s="5" t="inlineStr">
+      <c r="K31" s="5" t="inlineStr">
         <is>
           <t>1STY2CL</t>
         </is>
       </c>
-      <c r="K31" s="5" t="n">
+      <c r="L31" s="5" t="n">
         <v>5805259.72</v>
       </c>
-      <c r="L31" s="5" t="inlineStr">
+      <c r="M31" s="5" t="inlineStr">
         <is>
           <t>1- NC</t>
         </is>
       </c>
-      <c r="M31" s="5" t="n">
+      <c r="N31" s="5" t="n">
         <v>5114680.91</v>
       </c>
-      <c r="N31" s="5" t="inlineStr">
+      <c r="O31" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="O31" s="5" t="n">
+      <c r="P31" s="5" t="n">
         <v>0.02</v>
       </c>
-      <c r="P31" s="5" t="inlineStr"/>
       <c r="Q31" s="5" t="inlineStr"/>
       <c r="R31" s="5" t="inlineStr"/>
       <c r="S31" s="5" t="inlineStr"/>
@@ -3241,73 +3336,76 @@
       <c r="X31" s="5" t="inlineStr"/>
       <c r="Y31" s="5" t="inlineStr"/>
       <c r="Z31" s="5" t="inlineStr"/>
-      <c r="AA31" s="7" t="n"/>
+      <c r="AA31" s="5" t="inlineStr"/>
+      <c r="AB31" s="7" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="5" t="inlineStr">
+      <c r="A32" s="5" t="n">
+        <v>3278</v>
+      </c>
+      <c r="B32" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B32" s="5" t="inlineStr">
+      <c r="C32" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C32" s="5" t="inlineStr">
+      <c r="D32" s="5" t="inlineStr">
         <is>
           <t>South Cotabato</t>
         </is>
       </c>
-      <c r="D32" s="5" t="n">
+      <c r="E32" s="5" t="n">
         <v>502376</v>
       </c>
-      <c r="E32" s="5" t="inlineStr">
+      <c r="F32" s="5" t="inlineStr">
         <is>
           <t>Cinco Integrated School</t>
         </is>
       </c>
-      <c r="F32" s="5" t="inlineStr">
+      <c r="G32" s="5" t="inlineStr">
         <is>
           <t>BANGA</t>
         </is>
       </c>
-      <c r="G32" s="5" t="inlineStr">
+      <c r="H32" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H32" s="5" t="n">
+      <c r="I32" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I32" s="5" t="n">
+      <c r="J32" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J32" s="5" t="inlineStr">
+      <c r="K32" s="5" t="inlineStr">
         <is>
           <t>1STY2CL</t>
         </is>
       </c>
-      <c r="K32" s="5" t="n">
+      <c r="L32" s="5" t="n">
         <v>5805259.72</v>
       </c>
-      <c r="L32" s="5" t="inlineStr">
+      <c r="M32" s="5" t="inlineStr">
         <is>
           <t>1- NC</t>
         </is>
       </c>
-      <c r="M32" s="5" t="n">
+      <c r="N32" s="5" t="n">
         <v>4329799.25</v>
       </c>
-      <c r="N32" s="5" t="inlineStr">
+      <c r="O32" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="O32" s="5" t="n">
+      <c r="P32" s="5" t="n">
         <v>0.05</v>
       </c>
-      <c r="P32" s="5" t="inlineStr"/>
       <c r="Q32" s="5" t="inlineStr"/>
       <c r="R32" s="5" t="inlineStr"/>
       <c r="S32" s="5" t="inlineStr"/>
@@ -3318,114 +3416,118 @@
       <c r="X32" s="5" t="inlineStr"/>
       <c r="Y32" s="5" t="inlineStr"/>
       <c r="Z32" s="5" t="inlineStr"/>
-      <c r="AA32" s="7" t="n"/>
+      <c r="AA32" s="5" t="inlineStr"/>
+      <c r="AB32" s="7" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="inlineStr">
+      <c r="A33" s="5" t="n">
+        <v>3279</v>
+      </c>
+      <c r="B33" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B33" s="5" t="inlineStr">
+      <c r="C33" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C33" s="5" t="inlineStr">
+      <c r="D33" s="5" t="inlineStr">
         <is>
           <t>Sultan Kudarat</t>
         </is>
       </c>
-      <c r="D33" s="5" t="n">
+      <c r="E33" s="5" t="n">
         <v>304605</v>
       </c>
-      <c r="E33" s="5" t="inlineStr">
+      <c r="F33" s="5" t="inlineStr">
         <is>
           <t>Lebak Legislated National High School</t>
         </is>
       </c>
-      <c r="F33" s="5" t="inlineStr">
+      <c r="G33" s="5" t="inlineStr">
         <is>
           <t>LEBAK</t>
         </is>
       </c>
-      <c r="G33" s="5" t="inlineStr">
+      <c r="H33" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H33" s="5" t="n">
+      <c r="I33" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I33" s="5" t="n">
+      <c r="J33" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="J33" s="5" t="inlineStr">
+      <c r="K33" s="5" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K33" s="5" t="n">
+      <c r="L33" s="5" t="n">
         <v>1794219.49</v>
       </c>
-      <c r="L33" s="5" t="inlineStr">
+      <c r="M33" s="5" t="inlineStr">
         <is>
           <t>1- R</t>
         </is>
       </c>
-      <c r="M33" s="5" t="n">
+      <c r="N33" s="5" t="n">
         <v>1739342.82</v>
       </c>
-      <c r="N33" s="5" t="inlineStr">
+      <c r="O33" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O33" s="5" t="n">
+      <c r="P33" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P33" s="6" t="n">
+      <c r="Q33" s="6" t="n">
         <v>45761</v>
       </c>
-      <c r="Q33" s="6" t="n">
+      <c r="R33" s="6" t="n">
         <v>45740</v>
       </c>
-      <c r="R33" s="5" t="inlineStr">
+      <c r="S33" s="5" t="inlineStr">
         <is>
           <t>24-11-028</t>
         </is>
       </c>
-      <c r="S33" s="5" t="inlineStr">
+      <c r="T33" s="5" t="inlineStr">
         <is>
           <t>24-11-028</t>
         </is>
       </c>
-      <c r="T33" s="6" t="n">
+      <c r="U33" s="6" t="n">
         <v>45608</v>
       </c>
-      <c r="U33" s="6" t="n">
+      <c r="V33" s="6" t="n">
         <v>45616</v>
       </c>
-      <c r="V33" s="6" t="n">
+      <c r="W33" s="6" t="n">
         <v>45628</v>
       </c>
-      <c r="W33" s="6" t="n">
+      <c r="X33" s="6" t="n">
         <v>45636</v>
       </c>
-      <c r="X33" s="6" t="n">
+      <c r="Y33" s="6" t="n">
         <v>45653</v>
       </c>
-      <c r="Y33" s="5" t="inlineStr">
+      <c r="Z33" s="5" t="inlineStr">
         <is>
           <t>JV Constech</t>
         </is>
       </c>
-      <c r="Z33" s="5" t="inlineStr"/>
-      <c r="AA33" s="7" t="n"/>
+      <c r="AA33" s="5" t="inlineStr"/>
+      <c r="AB33" s="7" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AA2:AA33" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AB2:AB33" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>
